--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_19_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_19_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>94409.73644792044</v>
+        <v>122640.2349417448</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24296499.9215396</v>
+        <v>23538010.89887846</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3883356.468402584</v>
+        <v>4168881.756418483</v>
       </c>
     </row>
     <row r="11">
@@ -2318,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>5.064961225078286</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2363,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2394,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2403,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2412,10 +2414,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>30.05332392044872</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2567,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>29.0955824135342</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2579,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>30.81501082970189</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2594,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>13.39533964498645</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -2682,16 +2684,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>30.05332392044872</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2801,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.064961225078286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2871,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>30.05332392044873</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2880,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -3035,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>5.064961225078286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3086,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3111,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3150,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3165,10 +3167,10 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>30.05332392044873</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3266,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3308,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>5.064961225078295</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3387,10 +3389,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3405,13 +3407,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>30.05332392044872</v>
       </c>
     </row>
     <row r="37">
@@ -3509,10 +3511,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3563,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>5.064961225078295</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3579,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3630,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>30.05332392044873</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3648,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
     </row>
     <row r="40">
@@ -3746,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>5.064961225078295</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3816,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>30.05332392044872</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3879,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
     </row>
     <row r="43">
@@ -3980,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>5.064961225078295</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>30.05332392044873</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4068,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4098,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>76.77603572331621</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>42.310898519708</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>7.845761316099797</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>9.9033300071552</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>43.6826109804116</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>77.46189195366802</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>76.77603572331621</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>76.77603572331621</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>76.77603572331621</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>76.77603572331621</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>76.77603572331621</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>76.77603572331621</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>76.77603572331621</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>76.77603572331621</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>102.0168061226803</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>102.0168061226803</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>102.0168061226803</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>67.55166891907209</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>67.55166891907209</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>67.55166891907209</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>33.08653171546388</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>7.950336766612551</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>41.72961773986896</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>75.50889871312536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>109.2881796863818</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>97.7105268208775</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>97.7105268208775</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>97.7105268208775</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>97.7105268208775</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>97.7105268208775</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>63.2453896172693</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>33.85591243188122</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>33.85591243188122</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>33.85591243188122</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>9.9033300071552</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>43.6826109804116</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>77.46189195366802</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>97.7105268208775</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>97.7105268208775</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>97.7105268208775</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>97.7105268208775</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>97.7105268208775</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>97.7105268208775</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>97.7105268208775</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>97.7105268208775</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>97.7105268208775</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>97.7105268208775</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>36.50891983978217</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>70.28820081303857</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>104.067481786295</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>102.0168061226803</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>67.55166891907209</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>33.08653171546388</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>42.310898519708</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>42.310898519708</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>42.310898519708</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>42.310898519708</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>7.845761316099797</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>7.845761316099797</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>9.9033300071552</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>43.6826109804116</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>77.46189195366802</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>76.77603572331621</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>76.77603572331621</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>76.77603572331621</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>76.77603572331621</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>76.77603572331621</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>76.77603572331621</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>102.0168061226803</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>71.65991327374218</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>71.65991327374218</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>71.65991327374218</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>37.19477607013398</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>36.50891983978217</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>70.28820081303857</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>75.50889871312536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>109.2881796863818</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>102.0168061226803</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>102.0168061226803</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>102.0168061226803</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>102.0168061226803</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>102.0168061226803</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>102.0168061226803</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>102.0168061226803</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>102.0168061226803</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>76.77603572331621</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>76.77603572331621</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>76.77603572331621</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>42.310898519708</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>7.845761316099797</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>7.845761316099797</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>9.9033300071552</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>43.6826109804116</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>77.46189195366802</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>76.77603572331621</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>76.77603572331621</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>76.77603572331621</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>76.77603572331621</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>37.19477607013398</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>37.19477607013398</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>36.50891983978217</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>70.28820081303857</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>104.067481786295</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>109.2881796863818</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>102.0168061226803</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>102.0168061226803</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>102.0168061226803</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>102.0168061226803</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>102.0168061226803</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>67.55166891907209</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>37.19477607013398</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>37.19477607013398</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>37.19477607013398</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>37.19477607013398</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>9.9033300071552</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>43.6826109804116</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>77.46189195366802</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>106.1250504773504</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>71.65991327374218</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>71.65991327374218</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>71.65991327374218</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>71.65991327374218</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>71.65991327374218</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>71.65991327374218</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>37.19477607013398</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>37.19477607013398</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>36.50891983978217</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>41.72961773986896</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>75.50889871312536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>109.2881796863818</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>102.0168061226803</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>67.55166891907209</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>67.55166891907209</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>67.55166891907209</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>67.55166891907209</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>67.55166891907209</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>33.08653171546388</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>33.08653171546388</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>71.65991327374218</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>71.65991327374218</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>71.65991327374218</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>37.19477607013398</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>9.9033300071552</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>43.6826109804116</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>77.46189195366802</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>76.77603572331621</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>71.65991327374218</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>71.65991327374218</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>37.19477607013398</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>36.50891983978217</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>70.28820081303857</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>104.067481786295</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>106.1250504773504</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>106.1250504773504</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>106.1250504773504</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>106.1250504773504</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>106.1250504773504</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>106.1250504773504</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>71.65991327374218</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>106.1250504773504</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>71.65991327374218</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>37.19477607013398</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>9.9033300071552</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>43.6826109804116</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>77.46189195366802</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>33.08653171546388</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>33.08653171546388</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>36.50891983978217</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>70.28820081303857</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>104.067481786295</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>109.2881796863818</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>102.0168061226803</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>102.0168061226803</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>67.55166891907209</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>37.19477607013398</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>37.19477607013398</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>9.9033300071552</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>43.6826109804116</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>77.46189195366802</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>111.2411729269244</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>76.77603572331621</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>76.77603572331621</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>76.77603572331621</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>71.65991327374218</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>37.19477607013398</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>71.65991327374218</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>71.65991327374218</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>71.65991327374218</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>71.65991327374218</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>71.65991327374218</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>37.19477607013398</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>37.19477607013398</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>37.19477607013398</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>36.50891983978217</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>41.72961773986896</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>75.50889871312536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>109.2881796863818</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>136.4819433262885</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>102.0168061226803</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>102.0168061226803</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>102.0168061226803</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>102.0168061226803</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>102.0168061226803</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>102.0168061226803</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>102.0168061226803</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>102.0168061226803</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>102.0168061226803</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>2.72963886652577</v>
       </c>
     </row>
   </sheetData>
@@ -22559,49 +22561,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G2" t="n">
-        <v>417.6763216963499</v>
+        <v>417.7898558879744</v>
       </c>
       <c r="H2" t="n">
-        <v>335.1225893275702</v>
+        <v>336.2853213675438</v>
       </c>
       <c r="I2" t="n">
-        <v>196.2174982714999</v>
+        <v>200.5945251941005</v>
       </c>
       <c r="J2" t="n">
-        <v>87.74555168308848</v>
+        <v>97.38162427947184</v>
       </c>
       <c r="K2" t="n">
-        <v>68.98158147698734</v>
+        <v>83.42355640483248</v>
       </c>
       <c r="L2" t="n">
-        <v>40.1028531396922</v>
+        <v>58.01940008446331</v>
       </c>
       <c r="M2" t="n">
-        <v>5.595167593493045</v>
+        <v>25.53077821856496</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>20.25818964702478</v>
       </c>
       <c r="O2" t="n">
-        <v>16.43335224433224</v>
+        <v>35.5625862733917</v>
       </c>
       <c r="P2" t="n">
-        <v>56.54187083839042</v>
+        <v>72.86822951172195</v>
       </c>
       <c r="Q2" t="n">
-        <v>101.8249850515391</v>
+        <v>114.085400487321</v>
       </c>
       <c r="R2" t="n">
-        <v>164.4826458534311</v>
+        <v>171.6144380180587</v>
       </c>
       <c r="S2" t="n">
-        <v>201.0413088276692</v>
+        <v>203.6284692193107</v>
       </c>
       <c r="T2" t="n">
-        <v>217.3798774815972</v>
+        <v>217.8768734054331</v>
       </c>
       <c r="U2" t="n">
-        <v>250.0575933913458</v>
+        <v>250.0666761266758</v>
       </c>
       <c r="V2" t="n">
         <v>320.879783609152</v>
@@ -22638,19 +22640,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G3" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1837053907575</v>
       </c>
       <c r="H3" t="n">
-        <v>119.7317403736337</v>
+        <v>120.3184202757733</v>
       </c>
       <c r="I3" t="n">
-        <v>92.5217582268325</v>
+        <v>94.61323744199868</v>
       </c>
       <c r="J3" t="n">
-        <v>75.45031945264532</v>
+        <v>81.18949827734528</v>
       </c>
       <c r="K3" t="n">
-        <v>32.64460726796537</v>
+        <v>42.4537780023314</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22665,22 +22667,22 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.1870885796273</v>
+        <v>14.78693852483815</v>
       </c>
       <c r="Q3" t="n">
-        <v>63.64706979377851</v>
+        <v>71.40126228781628</v>
       </c>
       <c r="R3" t="n">
-        <v>125.6213081732896</v>
+        <v>129.3928979528938</v>
       </c>
       <c r="S3" t="n">
-        <v>180.0440037912057</v>
+        <v>181.1723368455023</v>
       </c>
       <c r="T3" t="n">
-        <v>212.4652570791701</v>
+        <v>212.7101066841048</v>
       </c>
       <c r="U3" t="n">
-        <v>237.1871717842718</v>
+        <v>237.1911682413709</v>
       </c>
       <c r="V3" t="n">
         <v>240.6489209154022</v>
@@ -22717,49 +22719,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G4" t="n">
-        <v>168.1796084472493</v>
+        <v>168.2305359770579</v>
       </c>
       <c r="H4" t="n">
-        <v>161.1907538606181</v>
+        <v>161.6435458983708</v>
       </c>
       <c r="I4" t="n">
-        <v>149.1800706541489</v>
+        <v>150.711600368756</v>
       </c>
       <c r="J4" t="n">
-        <v>105.1894218308777</v>
+        <v>108.7899981883442</v>
       </c>
       <c r="K4" t="n">
-        <v>75.64987151995348</v>
+        <v>81.56672452862283</v>
       </c>
       <c r="L4" t="n">
-        <v>59.95218091677093</v>
+        <v>67.52371566667536</v>
       </c>
       <c r="M4" t="n">
-        <v>59.1959110048432</v>
+        <v>67.17903279110968</v>
       </c>
       <c r="N4" t="n">
-        <v>48.1053528280334</v>
+        <v>55.89865382137701</v>
       </c>
       <c r="O4" t="n">
-        <v>69.46537080709682</v>
+        <v>76.66374565676749</v>
       </c>
       <c r="P4" t="n">
-        <v>82.93013512200093</v>
+        <v>89.08958836357661</v>
       </c>
       <c r="Q4" t="n">
-        <v>125.9186371162145</v>
+        <v>130.1831232713674</v>
       </c>
       <c r="R4" t="n">
-        <v>179.9964210683504</v>
+        <v>182.2863079995616</v>
       </c>
       <c r="S4" t="n">
-        <v>226.3555339845949</v>
+        <v>227.2430619358953</v>
       </c>
       <c r="T4" t="n">
-        <v>221.5347562180094</v>
+        <v>221.7523556635551</v>
       </c>
       <c r="U4" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6309075712877</v>
       </c>
       <c r="V4" t="n">
         <v>245.1090151844499</v>
@@ -22808,7 +22810,7 @@
         <v>87.74555168308848</v>
       </c>
       <c r="K5" t="n">
-        <v>68.98158147698734</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L5" t="n">
         <v>40.1028531396922</v>
@@ -22820,10 +22822,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>16.43335224433224</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P5" t="n">
-        <v>56.54187083839042</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q5" t="n">
         <v>101.8249850515391</v>
@@ -22969,7 +22971,7 @@
         <v>75.64987151995348</v>
       </c>
       <c r="L7" t="n">
-        <v>59.95218091677093</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M7" t="n">
         <v>59.1959110048432</v>
@@ -23033,49 +23035,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G8" t="n">
-        <v>417.6451278854616</v>
+        <v>417.6763216963499</v>
       </c>
       <c r="H8" t="n">
-        <v>334.8031257118105</v>
+        <v>335.1225893275702</v>
       </c>
       <c r="I8" t="n">
-        <v>195.0148988772292</v>
+        <v>196.2174982714999</v>
       </c>
       <c r="J8" t="n">
-        <v>85.09801597620873</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K8" t="n">
-        <v>65.01361175520637</v>
+        <v>68.98158147698734</v>
       </c>
       <c r="L8" t="n">
-        <v>35.18023582793884</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1178073473550967</v>
+        <v>5.595167593493045</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>11.17754604002829</v>
+        <v>16.43335224433224</v>
       </c>
       <c r="P8" t="n">
-        <v>52.05616184039113</v>
+        <v>56.54187083839042</v>
       </c>
       <c r="Q8" t="n">
-        <v>98.45640440597657</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R8" t="n">
-        <v>162.5231676302197</v>
+        <v>164.4826458534311</v>
       </c>
       <c r="S8" t="n">
-        <v>200.3304798620524</v>
+        <v>201.0413088276692</v>
       </c>
       <c r="T8" t="n">
-        <v>217.2433265744337</v>
+        <v>217.3798774815972</v>
       </c>
       <c r="U8" t="n">
-        <v>250.0550978864748</v>
+        <v>250.0575933913458</v>
       </c>
       <c r="V8" t="n">
         <v>320.879783609152</v>
@@ -23112,19 +23114,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
-        <v>148.1062690826207</v>
+        <v>148.1229592428521</v>
       </c>
       <c r="H9" t="n">
-        <v>119.5705485629778</v>
+        <v>119.7317403736337</v>
       </c>
       <c r="I9" t="n">
-        <v>91.94711893816343</v>
+        <v>92.5217582268325</v>
       </c>
       <c r="J9" t="n">
-        <v>73.87346532306307</v>
+        <v>75.45031945264532</v>
       </c>
       <c r="K9" t="n">
-        <v>29.94951240287884</v>
+        <v>32.64460726796537</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23139,22 +23141,22 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>3.1870885796273</v>
       </c>
       <c r="Q9" t="n">
-        <v>61.51658548073077</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R9" t="n">
-        <v>124.5850541897993</v>
+        <v>125.6213081732896</v>
       </c>
       <c r="S9" t="n">
-        <v>179.733991385153</v>
+        <v>180.0440037912057</v>
       </c>
       <c r="T9" t="n">
-        <v>212.3979840210444</v>
+        <v>212.4652570791701</v>
       </c>
       <c r="U9" t="n">
-        <v>237.1860737474145</v>
+        <v>237.1871717842718</v>
       </c>
       <c r="V9" t="n">
         <v>240.6489209154022</v>
@@ -23191,49 +23193,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G10" t="n">
-        <v>168.1656159775701</v>
+        <v>168.1796084472493</v>
       </c>
       <c r="H10" t="n">
-        <v>161.0663480847431</v>
+        <v>161.1907538606181</v>
       </c>
       <c r="I10" t="n">
-        <v>148.7592789296147</v>
+        <v>149.1800706541489</v>
       </c>
       <c r="J10" t="n">
-        <v>104.2001542245588</v>
+        <v>105.1894218308777</v>
       </c>
       <c r="K10" t="n">
-        <v>74.02420095177089</v>
+        <v>75.64987151995348</v>
       </c>
       <c r="L10" t="n">
-        <v>57.87188228828438</v>
+        <v>59.95218091677093</v>
       </c>
       <c r="M10" t="n">
-        <v>57.00252778049483</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N10" t="n">
-        <v>45.96412335430749</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O10" t="n">
-        <v>67.48759882007782</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P10" t="n">
-        <v>81.23780951643748</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q10" t="n">
-        <v>124.7469585869868</v>
+        <v>125.9186371162145</v>
       </c>
       <c r="R10" t="n">
-        <v>179.367268749866</v>
+        <v>179.9964210683504</v>
       </c>
       <c r="S10" t="n">
-        <v>226.1116833993675</v>
+        <v>226.3555339845949</v>
       </c>
       <c r="T10" t="n">
-        <v>221.4749702111983</v>
+        <v>221.5347562180094</v>
       </c>
       <c r="U10" t="n">
-        <v>288.6273664804066</v>
+        <v>288.6281297060254</v>
       </c>
       <c r="V10" t="n">
         <v>245.1090151844499</v>
@@ -23270,22 +23272,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>417.6444569673644</v>
+        <v>417.5787878714249</v>
       </c>
       <c r="H11" t="n">
-        <v>334.7962546718464</v>
+        <v>334.1237210430571</v>
       </c>
       <c r="I11" t="n">
-        <v>194.9890333072825</v>
+        <v>192.4573254860788</v>
       </c>
       <c r="J11" t="n">
-        <v>85.04107264134677</v>
+        <v>79.46749020986022</v>
       </c>
       <c r="K11" t="n">
-        <v>64.92826845728513</v>
+        <v>56.57491319468377</v>
       </c>
       <c r="L11" t="n">
-        <v>35.0743599202969</v>
+        <v>24.71128406284015</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23294,25 +23296,25 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>11.06450388845946</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>51.95968297934968</v>
+        <v>42.51638489689415</v>
       </c>
       <c r="Q11" t="n">
-        <v>98.3839527992952</v>
+        <v>91.29242921516942</v>
       </c>
       <c r="R11" t="n">
-        <v>162.4810230712893</v>
+        <v>158.355936723486</v>
       </c>
       <c r="S11" t="n">
-        <v>200.3151913159098</v>
+        <v>198.8187567921908</v>
       </c>
       <c r="T11" t="n">
-        <v>217.2403896304627</v>
+        <v>216.952923162988</v>
       </c>
       <c r="U11" t="n">
-        <v>250.055044213027</v>
+        <v>250.0497906853519</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23349,19 +23351,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.1059101097915</v>
+        <v>148.0707740458651</v>
       </c>
       <c r="H12" t="n">
-        <v>119.5670816411805</v>
+        <v>119.227741234312</v>
       </c>
       <c r="I12" t="n">
-        <v>91.93475956663372</v>
+        <v>90.72503104986799</v>
       </c>
       <c r="J12" t="n">
-        <v>73.8395502629202</v>
+        <v>70.51996274958896</v>
       </c>
       <c r="K12" t="n">
-        <v>29.89154616318336</v>
+        <v>24.21784236678039</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23379,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>61.47076291397909</v>
+        <v>56.98567517487726</v>
       </c>
       <c r="R12" t="n">
-        <v>124.5627663855477</v>
+        <v>122.3812483112375</v>
       </c>
       <c r="S12" t="n">
-        <v>179.7273236222959</v>
+        <v>179.0746866454165</v>
       </c>
       <c r="T12" t="n">
-        <v>212.3965371086322</v>
+        <v>212.2549141141216</v>
       </c>
       <c r="U12" t="n">
-        <v>237.186050130781</v>
+        <v>237.183738547628</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23428,49 +23430,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.1653150268088</v>
+        <v>168.1358581311098</v>
       </c>
       <c r="H13" t="n">
-        <v>161.0636723588838</v>
+        <v>160.8017737771232</v>
       </c>
       <c r="I13" t="n">
-        <v>148.7502285194483</v>
+        <v>147.8643793287897</v>
       </c>
       <c r="J13" t="n">
-        <v>104.1788770057366</v>
+        <v>102.0962744798141</v>
       </c>
       <c r="K13" t="n">
-        <v>73.9892359451428</v>
+        <v>70.56688024483543</v>
       </c>
       <c r="L13" t="n">
-        <v>57.82713911783087</v>
+        <v>53.44770209726541</v>
       </c>
       <c r="M13" t="n">
-        <v>56.955352380707</v>
+        <v>52.33785008490108</v>
       </c>
       <c r="N13" t="n">
-        <v>45.9180696800844</v>
+        <v>41.41036126824764</v>
       </c>
       <c r="O13" t="n">
-        <v>67.44506079792964</v>
+        <v>63.28146248584993</v>
       </c>
       <c r="P13" t="n">
-        <v>81.2014108898193</v>
+        <v>77.63873325000013</v>
       </c>
       <c r="Q13" t="n">
-        <v>124.7217580646041</v>
+        <v>122.2551447347503</v>
       </c>
       <c r="R13" t="n">
-        <v>179.3537369092726</v>
+        <v>178.0292477626592</v>
       </c>
       <c r="S13" t="n">
-        <v>226.1064386483733</v>
+        <v>225.5930852933272</v>
       </c>
       <c r="T13" t="n">
-        <v>221.4736843306728</v>
+        <v>221.3478230490496</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6273500649105</v>
+        <v>288.6257433251451</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23507,22 +23509,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>417.6444569673644</v>
+        <v>417.5787878714249</v>
       </c>
       <c r="H14" t="n">
-        <v>334.7962546718464</v>
+        <v>334.1237210430571</v>
       </c>
       <c r="I14" t="n">
-        <v>194.9890333072825</v>
+        <v>192.4573254860788</v>
       </c>
       <c r="J14" t="n">
-        <v>85.04107264134677</v>
+        <v>79.46749020986019</v>
       </c>
       <c r="K14" t="n">
-        <v>64.92826845728513</v>
+        <v>56.57491319468375</v>
       </c>
       <c r="L14" t="n">
-        <v>35.0743599202969</v>
+        <v>24.71128406284015</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23531,25 +23533,25 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>11.06450388845946</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>51.95968297934968</v>
+        <v>42.51638489689412</v>
       </c>
       <c r="Q14" t="n">
-        <v>98.3839527992952</v>
+        <v>91.29242921516939</v>
       </c>
       <c r="R14" t="n">
-        <v>162.4810230712893</v>
+        <v>158.355936723486</v>
       </c>
       <c r="S14" t="n">
-        <v>200.3151913159098</v>
+        <v>198.8187567921908</v>
       </c>
       <c r="T14" t="n">
-        <v>217.2403896304627</v>
+        <v>216.952923162988</v>
       </c>
       <c r="U14" t="n">
-        <v>250.055044213027</v>
+        <v>250.0497906853519</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
@@ -23586,19 +23588,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.1059101097915</v>
+        <v>148.0707740458651</v>
       </c>
       <c r="H15" t="n">
-        <v>119.5670816411805</v>
+        <v>119.227741234312</v>
       </c>
       <c r="I15" t="n">
-        <v>91.93475956663372</v>
+        <v>90.72503104986799</v>
       </c>
       <c r="J15" t="n">
-        <v>73.8395502629202</v>
+        <v>70.51996274958896</v>
       </c>
       <c r="K15" t="n">
-        <v>29.89154616318336</v>
+        <v>24.21784236678039</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23616,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>61.47076291397909</v>
+        <v>56.98567517487724</v>
       </c>
       <c r="R15" t="n">
-        <v>124.5627663855477</v>
+        <v>122.3812483112375</v>
       </c>
       <c r="S15" t="n">
-        <v>179.7273236222959</v>
+        <v>179.0746866454165</v>
       </c>
       <c r="T15" t="n">
-        <v>212.3965371086322</v>
+        <v>212.2549141141216</v>
       </c>
       <c r="U15" t="n">
-        <v>237.186050130781</v>
+        <v>237.183738547628</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -23665,49 +23667,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.1653150268088</v>
+        <v>168.1358581311098</v>
       </c>
       <c r="H16" t="n">
-        <v>161.0636723588838</v>
+        <v>160.8017737771232</v>
       </c>
       <c r="I16" t="n">
-        <v>148.7502285194483</v>
+        <v>147.8643793287897</v>
       </c>
       <c r="J16" t="n">
-        <v>104.1788770057366</v>
+        <v>102.0962744798141</v>
       </c>
       <c r="K16" t="n">
-        <v>73.9892359451428</v>
+        <v>70.56688024483543</v>
       </c>
       <c r="L16" t="n">
-        <v>57.82713911783087</v>
+        <v>53.44770209726541</v>
       </c>
       <c r="M16" t="n">
-        <v>56.955352380707</v>
+        <v>52.33785008490106</v>
       </c>
       <c r="N16" t="n">
-        <v>45.9180696800844</v>
+        <v>41.41036126824763</v>
       </c>
       <c r="O16" t="n">
-        <v>67.44506079792964</v>
+        <v>63.28146248584991</v>
       </c>
       <c r="P16" t="n">
-        <v>81.2014108898193</v>
+        <v>77.63873325000012</v>
       </c>
       <c r="Q16" t="n">
-        <v>124.7217580646041</v>
+        <v>122.2551447347503</v>
       </c>
       <c r="R16" t="n">
-        <v>179.3537369092726</v>
+        <v>178.0292477626592</v>
       </c>
       <c r="S16" t="n">
-        <v>226.1064386483733</v>
+        <v>225.5930852933272</v>
       </c>
       <c r="T16" t="n">
-        <v>221.4736843306728</v>
+        <v>221.3478230490496</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6273500649105</v>
+        <v>288.6257433251451</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23744,22 +23746,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>417.6444569673644</v>
+        <v>417.5787878714249</v>
       </c>
       <c r="H17" t="n">
-        <v>334.7962546718464</v>
+        <v>334.1237210430571</v>
       </c>
       <c r="I17" t="n">
-        <v>194.9890333072825</v>
+        <v>192.4573254860788</v>
       </c>
       <c r="J17" t="n">
-        <v>85.04107264134677</v>
+        <v>79.46749020986022</v>
       </c>
       <c r="K17" t="n">
-        <v>64.92826845728513</v>
+        <v>56.57491319468377</v>
       </c>
       <c r="L17" t="n">
-        <v>35.0743599202969</v>
+        <v>24.71128406284015</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -23768,25 +23770,25 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>11.06450388845946</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>51.95968297934968</v>
+        <v>42.51638489689415</v>
       </c>
       <c r="Q17" t="n">
-        <v>98.3839527992952</v>
+        <v>91.29242921516942</v>
       </c>
       <c r="R17" t="n">
-        <v>162.4810230712893</v>
+        <v>158.355936723486</v>
       </c>
       <c r="S17" t="n">
-        <v>200.3151913159098</v>
+        <v>198.8187567921908</v>
       </c>
       <c r="T17" t="n">
-        <v>217.2403896304627</v>
+        <v>216.952923162988</v>
       </c>
       <c r="U17" t="n">
-        <v>250.055044213027</v>
+        <v>250.0497906853519</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23823,19 +23825,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.1059101097915</v>
+        <v>148.0707740458651</v>
       </c>
       <c r="H18" t="n">
-        <v>119.5670816411805</v>
+        <v>119.227741234312</v>
       </c>
       <c r="I18" t="n">
-        <v>91.93475956663372</v>
+        <v>90.72503104986799</v>
       </c>
       <c r="J18" t="n">
-        <v>73.8395502629202</v>
+        <v>70.51996274958896</v>
       </c>
       <c r="K18" t="n">
-        <v>29.89154616318336</v>
+        <v>24.21784236678039</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23853,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>61.47076291397909</v>
+        <v>56.98567517487726</v>
       </c>
       <c r="R18" t="n">
-        <v>124.5627663855477</v>
+        <v>122.3812483112375</v>
       </c>
       <c r="S18" t="n">
-        <v>179.7273236222959</v>
+        <v>179.0746866454165</v>
       </c>
       <c r="T18" t="n">
-        <v>212.3965371086322</v>
+        <v>212.2549141141216</v>
       </c>
       <c r="U18" t="n">
-        <v>237.186050130781</v>
+        <v>237.183738547628</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -23902,49 +23904,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.1653150268088</v>
+        <v>168.1358581311098</v>
       </c>
       <c r="H19" t="n">
-        <v>161.0636723588838</v>
+        <v>160.8017737771232</v>
       </c>
       <c r="I19" t="n">
-        <v>148.7502285194483</v>
+        <v>147.8643793287897</v>
       </c>
       <c r="J19" t="n">
-        <v>104.1788770057366</v>
+        <v>102.0962744798141</v>
       </c>
       <c r="K19" t="n">
-        <v>73.9892359451428</v>
+        <v>70.56688024483543</v>
       </c>
       <c r="L19" t="n">
-        <v>57.82713911783087</v>
+        <v>53.44770209726541</v>
       </c>
       <c r="M19" t="n">
-        <v>56.955352380707</v>
+        <v>52.33785008490108</v>
       </c>
       <c r="N19" t="n">
-        <v>45.9180696800844</v>
+        <v>41.41036126824764</v>
       </c>
       <c r="O19" t="n">
-        <v>67.44506079792964</v>
+        <v>63.28146248584993</v>
       </c>
       <c r="P19" t="n">
-        <v>81.2014108898193</v>
+        <v>77.63873325000013</v>
       </c>
       <c r="Q19" t="n">
-        <v>124.7217580646041</v>
+        <v>122.2551447347503</v>
       </c>
       <c r="R19" t="n">
-        <v>179.3537369092726</v>
+        <v>178.0292477626592</v>
       </c>
       <c r="S19" t="n">
-        <v>226.1064386483733</v>
+        <v>225.5930852933272</v>
       </c>
       <c r="T19" t="n">
-        <v>221.4736843306728</v>
+        <v>221.3478230490496</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6273500649105</v>
+        <v>288.6257433251451</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23981,22 +23983,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>417.6444569673644</v>
+        <v>417.5787878714249</v>
       </c>
       <c r="H20" t="n">
-        <v>334.7962546718464</v>
+        <v>334.1237210430571</v>
       </c>
       <c r="I20" t="n">
-        <v>194.9890333072825</v>
+        <v>192.4573254860788</v>
       </c>
       <c r="J20" t="n">
-        <v>85.04107264134677</v>
+        <v>79.46749020986019</v>
       </c>
       <c r="K20" t="n">
-        <v>64.92826845728513</v>
+        <v>56.57491319468375</v>
       </c>
       <c r="L20" t="n">
-        <v>35.0743599202969</v>
+        <v>24.71128406284015</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -24005,25 +24007,25 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>11.06450388845946</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>51.95968297934968</v>
+        <v>42.51638489689412</v>
       </c>
       <c r="Q20" t="n">
-        <v>98.3839527992952</v>
+        <v>91.29242921516939</v>
       </c>
       <c r="R20" t="n">
-        <v>162.4810230712893</v>
+        <v>158.355936723486</v>
       </c>
       <c r="S20" t="n">
-        <v>200.3151913159098</v>
+        <v>198.8187567921908</v>
       </c>
       <c r="T20" t="n">
-        <v>217.2403896304627</v>
+        <v>216.952923162988</v>
       </c>
       <c r="U20" t="n">
-        <v>250.055044213027</v>
+        <v>250.0497906853519</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24060,19 +24062,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.1059101097915</v>
+        <v>148.0707740458651</v>
       </c>
       <c r="H21" t="n">
-        <v>119.5670816411805</v>
+        <v>119.227741234312</v>
       </c>
       <c r="I21" t="n">
-        <v>91.93475956663372</v>
+        <v>90.72503104986799</v>
       </c>
       <c r="J21" t="n">
-        <v>73.8395502629202</v>
+        <v>70.51996274958896</v>
       </c>
       <c r="K21" t="n">
-        <v>29.89154616318336</v>
+        <v>24.21784236678039</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24090,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>61.47076291397909</v>
+        <v>56.98567517487724</v>
       </c>
       <c r="R21" t="n">
-        <v>124.5627663855477</v>
+        <v>122.3812483112375</v>
       </c>
       <c r="S21" t="n">
-        <v>179.7273236222959</v>
+        <v>179.0746866454165</v>
       </c>
       <c r="T21" t="n">
-        <v>212.3965371086322</v>
+        <v>212.2549141141216</v>
       </c>
       <c r="U21" t="n">
-        <v>237.186050130781</v>
+        <v>237.183738547628</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24139,49 +24141,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.1653150268088</v>
+        <v>168.1358581311098</v>
       </c>
       <c r="H22" t="n">
-        <v>161.0636723588838</v>
+        <v>160.8017737771232</v>
       </c>
       <c r="I22" t="n">
-        <v>148.7502285194483</v>
+        <v>147.8643793287897</v>
       </c>
       <c r="J22" t="n">
-        <v>104.1788770057366</v>
+        <v>102.0962744798141</v>
       </c>
       <c r="K22" t="n">
-        <v>73.9892359451428</v>
+        <v>70.56688024483543</v>
       </c>
       <c r="L22" t="n">
-        <v>57.82713911783087</v>
+        <v>53.44770209726541</v>
       </c>
       <c r="M22" t="n">
-        <v>56.955352380707</v>
+        <v>52.33785008490106</v>
       </c>
       <c r="N22" t="n">
-        <v>45.9180696800844</v>
+        <v>41.41036126824763</v>
       </c>
       <c r="O22" t="n">
-        <v>67.44506079792964</v>
+        <v>63.28146248584991</v>
       </c>
       <c r="P22" t="n">
-        <v>81.2014108898193</v>
+        <v>77.63873325000012</v>
       </c>
       <c r="Q22" t="n">
-        <v>124.7217580646041</v>
+        <v>122.2551447347503</v>
       </c>
       <c r="R22" t="n">
-        <v>179.3537369092726</v>
+        <v>178.0292477626592</v>
       </c>
       <c r="S22" t="n">
-        <v>226.1064386483733</v>
+        <v>225.5930852933272</v>
       </c>
       <c r="T22" t="n">
-        <v>221.4736843306728</v>
+        <v>221.3478230490496</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6273500649105</v>
+        <v>288.6257433251451</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24206,34 +24208,34 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C23" t="n">
-        <v>350.2054973811788</v>
+        <v>316.0850115496067</v>
       </c>
       <c r="D23" t="n">
-        <v>337.7721596422273</v>
+        <v>303.6516738106552</v>
       </c>
       <c r="E23" t="n">
-        <v>371.4789120616362</v>
+        <v>366.4139508365579</v>
       </c>
       <c r="F23" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>417.6444569673644</v>
+        <v>417.3762788859196</v>
       </c>
       <c r="H23" t="n">
-        <v>334.7962546718464</v>
+        <v>332.0497758952499</v>
       </c>
       <c r="I23" t="n">
-        <v>194.9890333072825</v>
+        <v>184.6500978223821</v>
       </c>
       <c r="J23" t="n">
-        <v>85.04107264134677</v>
+        <v>62.2797932013217</v>
       </c>
       <c r="K23" t="n">
-        <v>64.92826845728513</v>
+        <v>30.81501082970189</v>
       </c>
       <c r="L23" t="n">
-        <v>35.0743599202969</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -24242,25 +24244,25 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>11.06450388845946</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>51.95968297934968</v>
+        <v>13.39533964498645</v>
       </c>
       <c r="Q23" t="n">
-        <v>98.3839527992952</v>
+        <v>69.42373700667369</v>
       </c>
       <c r="R23" t="n">
-        <v>162.4810230712893</v>
+        <v>111.5145958311606</v>
       </c>
       <c r="S23" t="n">
-        <v>200.3151913159098</v>
+        <v>194.2040832849866</v>
       </c>
       <c r="T23" t="n">
-        <v>217.2403896304627</v>
+        <v>216.0664400789381</v>
       </c>
       <c r="U23" t="n">
-        <v>250.055044213027</v>
+        <v>250.0335899665114</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -24282,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>142.6300085660936</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
@@ -24291,25 +24293,25 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>137.7070860082275</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.1059101097915</v>
+        <v>147.9624221863091</v>
       </c>
       <c r="H24" t="n">
-        <v>119.5670816411805</v>
+        <v>84.06080454860665</v>
       </c>
       <c r="I24" t="n">
-        <v>91.93475956663372</v>
+        <v>56.94117161400357</v>
       </c>
       <c r="J24" t="n">
-        <v>73.8395502629202</v>
+        <v>60.28308815881573</v>
       </c>
       <c r="K24" t="n">
-        <v>29.89154616318336</v>
+        <v>6.721393185753584</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24327,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>61.47076291397909</v>
+        <v>43.15465534804171</v>
       </c>
       <c r="R24" t="n">
-        <v>124.5627663855477</v>
+        <v>115.6539284696802</v>
       </c>
       <c r="S24" t="n">
-        <v>179.7273236222959</v>
+        <v>177.0620983769088</v>
       </c>
       <c r="T24" t="n">
-        <v>212.3965371086322</v>
+        <v>211.8181800837182</v>
       </c>
       <c r="U24" t="n">
-        <v>237.186050130781</v>
+        <v>237.1766101358151</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -24376,49 +24378,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.1653150268088</v>
+        <v>168.0450195718329</v>
       </c>
       <c r="H25" t="n">
-        <v>161.0636723588838</v>
+        <v>159.9941364046431</v>
       </c>
       <c r="I25" t="n">
-        <v>148.7502285194483</v>
+        <v>145.1326161098078</v>
       </c>
       <c r="J25" t="n">
-        <v>104.1788770057366</v>
+        <v>95.67398833893671</v>
       </c>
       <c r="K25" t="n">
-        <v>73.9892359451428</v>
+        <v>60.01309126702743</v>
       </c>
       <c r="L25" t="n">
-        <v>57.82713911783087</v>
+        <v>39.94248574804224</v>
       </c>
       <c r="M25" t="n">
-        <v>56.955352380707</v>
+        <v>38.09849301570364</v>
       </c>
       <c r="N25" t="n">
-        <v>45.9180696800844</v>
+        <v>27.50958428362776</v>
       </c>
       <c r="O25" t="n">
-        <v>67.44506079792964</v>
+        <v>50.44184503460119</v>
       </c>
       <c r="P25" t="n">
-        <v>81.2014108898193</v>
+        <v>66.65222240800031</v>
       </c>
       <c r="Q25" t="n">
-        <v>124.7217580646041</v>
+        <v>114.6486541029358</v>
       </c>
       <c r="R25" t="n">
-        <v>179.3537369092726</v>
+        <v>173.9448158155357</v>
       </c>
       <c r="S25" t="n">
-        <v>226.1064386483733</v>
+        <v>224.010016946656</v>
       </c>
       <c r="T25" t="n">
-        <v>221.4736843306728</v>
+        <v>220.9596946594119</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6273500649105</v>
+        <v>288.6207884946391</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24455,22 +24457,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>417.6444569673644</v>
+        <v>383.2557930543475</v>
       </c>
       <c r="H26" t="n">
-        <v>334.7962546718464</v>
+        <v>302.9541934817157</v>
       </c>
       <c r="I26" t="n">
-        <v>194.9890333072825</v>
+        <v>184.6500978223821</v>
       </c>
       <c r="J26" t="n">
-        <v>85.04107264134677</v>
+        <v>62.2797932013217</v>
       </c>
       <c r="K26" t="n">
-        <v>64.92826845728513</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>35.0743599202969</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -24479,25 +24481,25 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>11.06450388845946</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>51.95968297934968</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>98.3839527992952</v>
+        <v>69.42373700667369</v>
       </c>
       <c r="R26" t="n">
-        <v>162.4810230712893</v>
+        <v>145.6350816627327</v>
       </c>
       <c r="S26" t="n">
-        <v>200.3151913159098</v>
+        <v>194.2040832849866</v>
       </c>
       <c r="T26" t="n">
-        <v>217.2403896304627</v>
+        <v>216.0664400789381</v>
       </c>
       <c r="U26" t="n">
-        <v>250.055044213027</v>
+        <v>250.0335899665114</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -24534,19 +24536,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.1059101097915</v>
+        <v>147.9624221863091</v>
       </c>
       <c r="H27" t="n">
-        <v>119.5670816411805</v>
+        <v>118.1812903801788</v>
       </c>
       <c r="I27" t="n">
-        <v>91.93475956663372</v>
+        <v>86.99449553445228</v>
       </c>
       <c r="J27" t="n">
-        <v>73.8395502629202</v>
+        <v>60.28308815881573</v>
       </c>
       <c r="K27" t="n">
-        <v>29.89154616318336</v>
+        <v>6.721393185753584</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24564,22 +24566,22 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>61.47076291397909</v>
+        <v>43.15465534804171</v>
       </c>
       <c r="R27" t="n">
-        <v>124.5627663855477</v>
+        <v>115.6539284696802</v>
       </c>
       <c r="S27" t="n">
-        <v>179.7273236222959</v>
+        <v>142.9416125453367</v>
       </c>
       <c r="T27" t="n">
-        <v>212.3965371086322</v>
+        <v>177.6976942521461</v>
       </c>
       <c r="U27" t="n">
-        <v>237.186050130781</v>
+        <v>203.056124304243</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>210.5955969949535</v>
       </c>
       <c r="W27" t="n">
         <v>266.7045835770116</v>
@@ -24613,49 +24615,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.1653150268088</v>
+        <v>168.0450195718329</v>
       </c>
       <c r="H28" t="n">
-        <v>161.0636723588838</v>
+        <v>159.9941364046431</v>
       </c>
       <c r="I28" t="n">
-        <v>148.7502285194483</v>
+        <v>145.1326161098078</v>
       </c>
       <c r="J28" t="n">
-        <v>104.1788770057366</v>
+        <v>95.67398833893671</v>
       </c>
       <c r="K28" t="n">
-        <v>73.9892359451428</v>
+        <v>60.01309126702743</v>
       </c>
       <c r="L28" t="n">
-        <v>57.82713911783087</v>
+        <v>39.94248574804224</v>
       </c>
       <c r="M28" t="n">
-        <v>56.955352380707</v>
+        <v>38.09849301570364</v>
       </c>
       <c r="N28" t="n">
-        <v>45.9180696800844</v>
+        <v>27.50958428362776</v>
       </c>
       <c r="O28" t="n">
-        <v>67.44506079792964</v>
+        <v>50.44184503460119</v>
       </c>
       <c r="P28" t="n">
-        <v>81.2014108898193</v>
+        <v>66.65222240800031</v>
       </c>
       <c r="Q28" t="n">
-        <v>124.7217580646041</v>
+        <v>114.6486541029358</v>
       </c>
       <c r="R28" t="n">
-        <v>179.3537369092726</v>
+        <v>173.9448158155357</v>
       </c>
       <c r="S28" t="n">
-        <v>226.1064386483733</v>
+        <v>224.010016946656</v>
       </c>
       <c r="T28" t="n">
-        <v>221.4736843306728</v>
+        <v>220.9596946594119</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6273500649105</v>
+        <v>288.6207884946391</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>374.0872403778333</v>
+        <v>339.9667545462612</v>
       </c>
       <c r="C29" t="n">
         <v>350.2054973811788</v>
@@ -24689,25 +24691,25 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F29" t="n">
-        <v>403.1992496400135</v>
+        <v>369.0787638084414</v>
       </c>
       <c r="G29" t="n">
-        <v>417.6444569673644</v>
+        <v>417.3762788859196</v>
       </c>
       <c r="H29" t="n">
-        <v>334.7962546718464</v>
+        <v>326.9848146701717</v>
       </c>
       <c r="I29" t="n">
-        <v>194.9890333072825</v>
+        <v>184.6500978223821</v>
       </c>
       <c r="J29" t="n">
-        <v>85.04107264134677</v>
+        <v>62.2797932013217</v>
       </c>
       <c r="K29" t="n">
-        <v>64.9282684572851</v>
+        <v>30.81501082970189</v>
       </c>
       <c r="L29" t="n">
-        <v>35.07435992029687</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -24716,25 +24718,25 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>11.0645038884594</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>51.95968297934965</v>
+        <v>13.39533964498645</v>
       </c>
       <c r="Q29" t="n">
-        <v>98.3839527992952</v>
+        <v>69.42373700667369</v>
       </c>
       <c r="R29" t="n">
-        <v>162.4810230712893</v>
+        <v>145.6350816627327</v>
       </c>
       <c r="S29" t="n">
-        <v>200.3151913159098</v>
+        <v>194.2040832849866</v>
       </c>
       <c r="T29" t="n">
-        <v>217.2403896304627</v>
+        <v>181.945954247366</v>
       </c>
       <c r="U29" t="n">
-        <v>250.055044213027</v>
+        <v>250.0335899665114</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
@@ -24759,7 +24761,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>157.4648276039172</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -24768,22 +24770,22 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>124.7029532883562</v>
       </c>
       <c r="G30" t="n">
-        <v>148.1059101097915</v>
+        <v>113.8419363547369</v>
       </c>
       <c r="H30" t="n">
-        <v>119.5670816411805</v>
+        <v>118.1812903801788</v>
       </c>
       <c r="I30" t="n">
-        <v>91.93475956663372</v>
+        <v>86.99449553445228</v>
       </c>
       <c r="J30" t="n">
-        <v>73.8395502629202</v>
+        <v>60.28308815881573</v>
       </c>
       <c r="K30" t="n">
-        <v>29.89154616318334</v>
+        <v>6.721393185753584</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24801,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>61.47076291397906</v>
+        <v>43.15465534804171</v>
       </c>
       <c r="R30" t="n">
-        <v>124.5627663855477</v>
+        <v>81.53344263810803</v>
       </c>
       <c r="S30" t="n">
-        <v>179.7273236222959</v>
+        <v>177.0620983769088</v>
       </c>
       <c r="T30" t="n">
-        <v>212.3965371086322</v>
+        <v>211.8181800837182</v>
       </c>
       <c r="U30" t="n">
-        <v>237.186050130781</v>
+        <v>237.1766101358151</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -24850,49 +24852,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.1653150268088</v>
+        <v>168.0450195718329</v>
       </c>
       <c r="H31" t="n">
-        <v>161.0636723588838</v>
+        <v>159.9941364046431</v>
       </c>
       <c r="I31" t="n">
-        <v>148.7502285194483</v>
+        <v>145.1326161098078</v>
       </c>
       <c r="J31" t="n">
-        <v>104.1788770057366</v>
+        <v>95.67398833893671</v>
       </c>
       <c r="K31" t="n">
-        <v>73.98923594514278</v>
+        <v>60.01309126702743</v>
       </c>
       <c r="L31" t="n">
-        <v>57.82713911783085</v>
+        <v>39.94248574804224</v>
       </c>
       <c r="M31" t="n">
-        <v>56.95535238070698</v>
+        <v>38.09849301570364</v>
       </c>
       <c r="N31" t="n">
-        <v>45.91806968008439</v>
+        <v>27.50958428362776</v>
       </c>
       <c r="O31" t="n">
-        <v>67.44506079792963</v>
+        <v>50.44184503460119</v>
       </c>
       <c r="P31" t="n">
-        <v>81.2014108898193</v>
+        <v>66.65222240800031</v>
       </c>
       <c r="Q31" t="n">
-        <v>124.7217580646041</v>
+        <v>114.6486541029358</v>
       </c>
       <c r="R31" t="n">
-        <v>179.3537369092726</v>
+        <v>173.9448158155357</v>
       </c>
       <c r="S31" t="n">
-        <v>226.1064386483733</v>
+        <v>224.010016946656</v>
       </c>
       <c r="T31" t="n">
-        <v>221.4736843306728</v>
+        <v>220.9596946594119</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6273500649105</v>
+        <v>288.6207884946391</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24923,28 +24925,28 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
-        <v>371.4789120616362</v>
+        <v>337.358426230064</v>
       </c>
       <c r="F32" t="n">
-        <v>403.1992496400135</v>
+        <v>369.0787638084414</v>
       </c>
       <c r="G32" t="n">
-        <v>417.6444569673644</v>
+        <v>417.3762788859196</v>
       </c>
       <c r="H32" t="n">
-        <v>334.7962546718464</v>
+        <v>326.9848146701717</v>
       </c>
       <c r="I32" t="n">
-        <v>194.9890333072825</v>
+        <v>184.6500978223821</v>
       </c>
       <c r="J32" t="n">
-        <v>85.04107264134677</v>
+        <v>62.2797932013217</v>
       </c>
       <c r="K32" t="n">
-        <v>64.92826845728513</v>
+        <v>30.81501082970189</v>
       </c>
       <c r="L32" t="n">
-        <v>35.0743599202969</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -24953,28 +24955,28 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>11.06450388845946</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>51.95968297934968</v>
+        <v>13.39533964498645</v>
       </c>
       <c r="Q32" t="n">
-        <v>98.3839527992952</v>
+        <v>69.42373700667369</v>
       </c>
       <c r="R32" t="n">
-        <v>162.4810230712893</v>
+        <v>145.6350816627327</v>
       </c>
       <c r="S32" t="n">
-        <v>200.3151913159098</v>
+        <v>194.2040832849866</v>
       </c>
       <c r="T32" t="n">
-        <v>217.2403896304627</v>
+        <v>216.0664400789381</v>
       </c>
       <c r="U32" t="n">
-        <v>250.055044213027</v>
+        <v>250.0335899665114</v>
       </c>
       <c r="V32" t="n">
-        <v>320.879783609152</v>
+        <v>286.7592977775799</v>
       </c>
       <c r="W32" t="n">
         <v>337.8964638257669</v>
@@ -24999,7 +25001,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>125.0518292450064</v>
       </c>
       <c r="E33" t="n">
         <v>171.8275718397997</v>
@@ -25008,19 +25010,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.1059101097915</v>
+        <v>147.9624221863091</v>
       </c>
       <c r="H33" t="n">
-        <v>119.5670816411805</v>
+        <v>118.1812903801788</v>
       </c>
       <c r="I33" t="n">
-        <v>91.93475956663372</v>
+        <v>86.99449553445228</v>
       </c>
       <c r="J33" t="n">
-        <v>73.8395502629202</v>
+        <v>60.28308815881573</v>
       </c>
       <c r="K33" t="n">
-        <v>29.89154616318336</v>
+        <v>6.721393185753584</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25038,25 +25040,25 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>61.47076291397909</v>
+        <v>9.034169516469589</v>
       </c>
       <c r="R33" t="n">
-        <v>124.5627663855477</v>
+        <v>115.6539284696802</v>
       </c>
       <c r="S33" t="n">
-        <v>179.7273236222959</v>
+        <v>177.0620983769088</v>
       </c>
       <c r="T33" t="n">
-        <v>212.3965371086322</v>
+        <v>211.8181800837182</v>
       </c>
       <c r="U33" t="n">
-        <v>237.186050130781</v>
+        <v>237.1766101358151</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>206.5284350838301</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>236.6512596565629</v>
       </c>
       <c r="X33" t="n">
         <v>217.3129144394706</v>
@@ -25087,49 +25089,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.1653150268088</v>
+        <v>168.0450195718329</v>
       </c>
       <c r="H34" t="n">
-        <v>161.0636723588838</v>
+        <v>159.9941364046431</v>
       </c>
       <c r="I34" t="n">
-        <v>148.7502285194483</v>
+        <v>145.1326161098078</v>
       </c>
       <c r="J34" t="n">
-        <v>104.1788770057366</v>
+        <v>95.67398833893671</v>
       </c>
       <c r="K34" t="n">
-        <v>73.9892359451428</v>
+        <v>60.01309126702743</v>
       </c>
       <c r="L34" t="n">
-        <v>57.82713911783087</v>
+        <v>39.94248574804224</v>
       </c>
       <c r="M34" t="n">
-        <v>56.955352380707</v>
+        <v>38.09849301570364</v>
       </c>
       <c r="N34" t="n">
-        <v>45.9180696800844</v>
+        <v>27.50958428362776</v>
       </c>
       <c r="O34" t="n">
-        <v>67.44506079792964</v>
+        <v>50.44184503460119</v>
       </c>
       <c r="P34" t="n">
-        <v>81.2014108898193</v>
+        <v>66.65222240800031</v>
       </c>
       <c r="Q34" t="n">
-        <v>124.7217580646041</v>
+        <v>114.6486541029358</v>
       </c>
       <c r="R34" t="n">
-        <v>179.3537369092726</v>
+        <v>173.9448158155357</v>
       </c>
       <c r="S34" t="n">
-        <v>226.1064386483733</v>
+        <v>224.010016946656</v>
       </c>
       <c r="T34" t="n">
-        <v>221.4736843306728</v>
+        <v>220.9596946594119</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6273500649105</v>
+        <v>288.6207884946391</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25154,7 +25156,7 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C35" t="n">
-        <v>350.2054973811788</v>
+        <v>316.0850115496067</v>
       </c>
       <c r="D35" t="n">
         <v>337.7721596422273</v>
@@ -25166,22 +25168,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>417.6444569673644</v>
+        <v>417.3762788859196</v>
       </c>
       <c r="H35" t="n">
-        <v>334.7962546718464</v>
+        <v>332.0497758952499</v>
       </c>
       <c r="I35" t="n">
-        <v>194.9890333072825</v>
+        <v>184.6500978223821</v>
       </c>
       <c r="J35" t="n">
-        <v>85.04107264134677</v>
+        <v>62.2797932013217</v>
       </c>
       <c r="K35" t="n">
-        <v>64.92826845728513</v>
+        <v>30.81501082970189</v>
       </c>
       <c r="L35" t="n">
-        <v>35.0743599202969</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -25190,25 +25192,25 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>11.06450388845946</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>51.95968297934968</v>
+        <v>13.39533964498645</v>
       </c>
       <c r="Q35" t="n">
-        <v>98.3839527992952</v>
+        <v>64.35877578159537</v>
       </c>
       <c r="R35" t="n">
-        <v>162.4810230712893</v>
+        <v>111.5145958311606</v>
       </c>
       <c r="S35" t="n">
-        <v>200.3151913159098</v>
+        <v>194.2040832849866</v>
       </c>
       <c r="T35" t="n">
-        <v>217.2403896304627</v>
+        <v>216.0664400789381</v>
       </c>
       <c r="U35" t="n">
-        <v>250.055044213027</v>
+        <v>250.0335899665114</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25217,7 +25219,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
-        <v>359.7827142947061</v>
+        <v>325.662228463134</v>
       </c>
       <c r="Y35" t="n">
         <v>382.2855674184499</v>
@@ -25245,19 +25247,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.1059101097915</v>
+        <v>147.9624221863091</v>
       </c>
       <c r="H36" t="n">
-        <v>119.5670816411805</v>
+        <v>118.1812903801788</v>
       </c>
       <c r="I36" t="n">
-        <v>91.93475956663372</v>
+        <v>86.99449553445228</v>
       </c>
       <c r="J36" t="n">
-        <v>73.8395502629202</v>
+        <v>60.28308815881573</v>
       </c>
       <c r="K36" t="n">
-        <v>29.89154616318336</v>
+        <v>6.721393185753584</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25275,31 +25277,31 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>61.47076291397909</v>
+        <v>9.034169516469589</v>
       </c>
       <c r="R36" t="n">
-        <v>124.5627663855477</v>
+        <v>81.53344263810803</v>
       </c>
       <c r="S36" t="n">
-        <v>179.7273236222959</v>
+        <v>177.0620983769088</v>
       </c>
       <c r="T36" t="n">
-        <v>212.3965371086322</v>
+        <v>211.8181800837182</v>
       </c>
       <c r="U36" t="n">
-        <v>237.186050130781</v>
+        <v>237.1766101358151</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>232.5840977454395</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>193.3309622135769</v>
       </c>
     </row>
     <row r="37">
@@ -25324,49 +25326,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.1653150268088</v>
+        <v>168.0450195718329</v>
       </c>
       <c r="H37" t="n">
-        <v>161.0636723588838</v>
+        <v>159.9941364046431</v>
       </c>
       <c r="I37" t="n">
-        <v>148.7502285194483</v>
+        <v>145.1326161098078</v>
       </c>
       <c r="J37" t="n">
-        <v>104.1788770057366</v>
+        <v>95.67398833893671</v>
       </c>
       <c r="K37" t="n">
-        <v>73.9892359451428</v>
+        <v>60.01309126702743</v>
       </c>
       <c r="L37" t="n">
-        <v>57.82713911783087</v>
+        <v>39.94248574804224</v>
       </c>
       <c r="M37" t="n">
-        <v>56.955352380707</v>
+        <v>38.09849301570364</v>
       </c>
       <c r="N37" t="n">
-        <v>45.9180696800844</v>
+        <v>27.50958428362776</v>
       </c>
       <c r="O37" t="n">
-        <v>67.44506079792964</v>
+        <v>50.44184503460119</v>
       </c>
       <c r="P37" t="n">
-        <v>81.2014108898193</v>
+        <v>66.65222240800031</v>
       </c>
       <c r="Q37" t="n">
-        <v>124.7217580646041</v>
+        <v>114.6486541029358</v>
       </c>
       <c r="R37" t="n">
-        <v>179.3537369092726</v>
+        <v>173.9448158155357</v>
       </c>
       <c r="S37" t="n">
-        <v>226.1064386483733</v>
+        <v>224.010016946656</v>
       </c>
       <c r="T37" t="n">
-        <v>221.4736843306728</v>
+        <v>220.9596946594119</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6273500649105</v>
+        <v>288.6207884946391</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25397,28 +25399,28 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E38" t="n">
-        <v>371.4789120616362</v>
+        <v>337.358426230064</v>
       </c>
       <c r="F38" t="n">
-        <v>403.1992496400135</v>
+        <v>369.0787638084414</v>
       </c>
       <c r="G38" t="n">
-        <v>417.6444569673644</v>
+        <v>417.3762788859196</v>
       </c>
       <c r="H38" t="n">
-        <v>334.7962546718464</v>
+        <v>332.0497758952499</v>
       </c>
       <c r="I38" t="n">
-        <v>194.9890333072825</v>
+        <v>184.6500978223821</v>
       </c>
       <c r="J38" t="n">
-        <v>85.04107264134677</v>
+        <v>62.2797932013217</v>
       </c>
       <c r="K38" t="n">
-        <v>64.92826845728513</v>
+        <v>30.81501082970189</v>
       </c>
       <c r="L38" t="n">
-        <v>35.0743599202969</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -25427,34 +25429,34 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>11.06450388845946</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>51.95968297934968</v>
+        <v>13.39533964498645</v>
       </c>
       <c r="Q38" t="n">
-        <v>98.3839527992952</v>
+        <v>69.42373700667369</v>
       </c>
       <c r="R38" t="n">
-        <v>162.4810230712893</v>
+        <v>145.6350816627327</v>
       </c>
       <c r="S38" t="n">
-        <v>200.3151913159098</v>
+        <v>194.2040832849866</v>
       </c>
       <c r="T38" t="n">
-        <v>217.2403896304627</v>
+        <v>216.0664400789381</v>
       </c>
       <c r="U38" t="n">
-        <v>250.055044213027</v>
+        <v>250.0335899665114</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W38" t="n">
-        <v>337.8964638257669</v>
+        <v>303.7759779941948</v>
       </c>
       <c r="X38" t="n">
-        <v>359.7827142947061</v>
+        <v>354.7177530696278</v>
       </c>
       <c r="Y38" t="n">
         <v>382.2855674184499</v>
@@ -25467,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>142.6300085660936</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>153.3976656927938</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -25482,19 +25484,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.1059101097915</v>
+        <v>147.9624221863091</v>
       </c>
       <c r="H39" t="n">
-        <v>119.5670816411805</v>
+        <v>118.1812903801788</v>
       </c>
       <c r="I39" t="n">
-        <v>91.93475956663372</v>
+        <v>86.99449553445228</v>
       </c>
       <c r="J39" t="n">
-        <v>73.8395502629202</v>
+        <v>60.28308815881573</v>
       </c>
       <c r="K39" t="n">
-        <v>29.89154616318336</v>
+        <v>6.721393185753584</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25512,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>61.47076291397909</v>
+        <v>43.15465534804171</v>
       </c>
       <c r="R39" t="n">
-        <v>124.5627663855477</v>
+        <v>115.6539284696802</v>
       </c>
       <c r="S39" t="n">
-        <v>179.7273236222959</v>
+        <v>147.0087744564601</v>
       </c>
       <c r="T39" t="n">
-        <v>212.3965371086322</v>
+        <v>211.8181800837182</v>
       </c>
       <c r="U39" t="n">
-        <v>237.186050130781</v>
+        <v>237.1766101358151</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -25536,7 +25538,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>189.2638003024535</v>
       </c>
     </row>
     <row r="40">
@@ -25561,49 +25563,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.1653150268088</v>
+        <v>168.0450195718329</v>
       </c>
       <c r="H40" t="n">
-        <v>161.0636723588838</v>
+        <v>159.9941364046431</v>
       </c>
       <c r="I40" t="n">
-        <v>148.7502285194483</v>
+        <v>145.1326161098078</v>
       </c>
       <c r="J40" t="n">
-        <v>104.1788770057366</v>
+        <v>95.67398833893671</v>
       </c>
       <c r="K40" t="n">
-        <v>73.9892359451428</v>
+        <v>60.01309126702743</v>
       </c>
       <c r="L40" t="n">
-        <v>57.82713911783087</v>
+        <v>39.94248574804224</v>
       </c>
       <c r="M40" t="n">
-        <v>56.955352380707</v>
+        <v>38.09849301570364</v>
       </c>
       <c r="N40" t="n">
-        <v>45.9180696800844</v>
+        <v>27.50958428362776</v>
       </c>
       <c r="O40" t="n">
-        <v>67.44506079792964</v>
+        <v>50.44184503460119</v>
       </c>
       <c r="P40" t="n">
-        <v>81.2014108898193</v>
+        <v>66.65222240800031</v>
       </c>
       <c r="Q40" t="n">
-        <v>124.7217580646041</v>
+        <v>114.6486541029358</v>
       </c>
       <c r="R40" t="n">
-        <v>179.3537369092726</v>
+        <v>173.9448158155357</v>
       </c>
       <c r="S40" t="n">
-        <v>226.1064386483733</v>
+        <v>224.010016946656</v>
       </c>
       <c r="T40" t="n">
-        <v>221.4736843306728</v>
+        <v>220.9596946594119</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6273500649105</v>
+        <v>288.6207884946391</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25634,28 +25636,28 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
-        <v>371.4789120616362</v>
+        <v>366.4139508365578</v>
       </c>
       <c r="F41" t="n">
-        <v>403.1992496400135</v>
+        <v>369.0787638084414</v>
       </c>
       <c r="G41" t="n">
-        <v>417.6444569673644</v>
+        <v>383.2557930543475</v>
       </c>
       <c r="H41" t="n">
-        <v>334.7962546718464</v>
+        <v>297.9292900636778</v>
       </c>
       <c r="I41" t="n">
-        <v>194.9890333072825</v>
+        <v>184.6500978223821</v>
       </c>
       <c r="J41" t="n">
-        <v>85.04107264134677</v>
+        <v>62.2797932013217</v>
       </c>
       <c r="K41" t="n">
-        <v>64.92826845728513</v>
+        <v>30.81501082970189</v>
       </c>
       <c r="L41" t="n">
-        <v>35.0743599202969</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -25664,25 +25666,25 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>11.06450388845946</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>51.95968297934968</v>
+        <v>13.39533964498645</v>
       </c>
       <c r="Q41" t="n">
-        <v>98.3839527992952</v>
+        <v>69.42373700667369</v>
       </c>
       <c r="R41" t="n">
-        <v>162.4810230712893</v>
+        <v>145.6350816627327</v>
       </c>
       <c r="S41" t="n">
-        <v>200.3151913159098</v>
+        <v>194.2040832849866</v>
       </c>
       <c r="T41" t="n">
-        <v>217.2403896304627</v>
+        <v>216.0664400789381</v>
       </c>
       <c r="U41" t="n">
-        <v>250.055044213027</v>
+        <v>250.0335899665114</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25704,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>142.6300085660936</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>129.1189911561298</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
@@ -25719,19 +25721,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.1059101097915</v>
+        <v>147.9624221863091</v>
       </c>
       <c r="H42" t="n">
-        <v>119.5670816411805</v>
+        <v>118.1812903801788</v>
       </c>
       <c r="I42" t="n">
-        <v>91.93475956663372</v>
+        <v>86.99449553445228</v>
       </c>
       <c r="J42" t="n">
-        <v>73.8395502629202</v>
+        <v>60.28308815881573</v>
       </c>
       <c r="K42" t="n">
-        <v>29.89154616318336</v>
+        <v>6.721393185753584</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25749,31 +25751,31 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>61.47076291397909</v>
+        <v>43.15465534804171</v>
       </c>
       <c r="R42" t="n">
-        <v>124.5627663855477</v>
+        <v>115.6539284696802</v>
       </c>
       <c r="S42" t="n">
-        <v>179.7273236222959</v>
+        <v>177.0620983769088</v>
       </c>
       <c r="T42" t="n">
-        <v>212.3965371086322</v>
+        <v>211.8181800837182</v>
       </c>
       <c r="U42" t="n">
-        <v>237.186050130781</v>
+        <v>237.1766101358151</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>232.5840977454395</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>189.2638003024535</v>
       </c>
     </row>
     <row r="43">
@@ -25798,49 +25800,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.1653150268088</v>
+        <v>168.0450195718329</v>
       </c>
       <c r="H43" t="n">
-        <v>161.0636723588838</v>
+        <v>159.9941364046431</v>
       </c>
       <c r="I43" t="n">
-        <v>148.7502285194483</v>
+        <v>145.1326161098078</v>
       </c>
       <c r="J43" t="n">
-        <v>104.1788770057366</v>
+        <v>95.67398833893671</v>
       </c>
       <c r="K43" t="n">
-        <v>73.9892359451428</v>
+        <v>60.01309126702743</v>
       </c>
       <c r="L43" t="n">
-        <v>57.82713911783087</v>
+        <v>39.94248574804224</v>
       </c>
       <c r="M43" t="n">
-        <v>56.955352380707</v>
+        <v>38.09849301570364</v>
       </c>
       <c r="N43" t="n">
-        <v>45.9180696800844</v>
+        <v>27.50958428362776</v>
       </c>
       <c r="O43" t="n">
-        <v>67.44506079792964</v>
+        <v>50.44184503460119</v>
       </c>
       <c r="P43" t="n">
-        <v>81.2014108898193</v>
+        <v>66.65222240800031</v>
       </c>
       <c r="Q43" t="n">
-        <v>124.7217580646041</v>
+        <v>114.6486541029358</v>
       </c>
       <c r="R43" t="n">
-        <v>179.3537369092726</v>
+        <v>173.9448158155357</v>
       </c>
       <c r="S43" t="n">
-        <v>226.1064386483733</v>
+        <v>224.010016946656</v>
       </c>
       <c r="T43" t="n">
-        <v>221.4736843306728</v>
+        <v>220.9596946594119</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6273500649105</v>
+        <v>288.6207884946391</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25868,7 +25870,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D44" t="n">
-        <v>337.7721596422273</v>
+        <v>303.6516738106552</v>
       </c>
       <c r="E44" t="n">
         <v>371.4789120616362</v>
@@ -25877,22 +25879,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>417.6444569673644</v>
+        <v>417.3762788859196</v>
       </c>
       <c r="H44" t="n">
-        <v>334.7962546718464</v>
+        <v>332.0497758952499</v>
       </c>
       <c r="I44" t="n">
-        <v>194.9890333072825</v>
+        <v>184.6500978223821</v>
       </c>
       <c r="J44" t="n">
-        <v>85.04107264134677</v>
+        <v>62.2797932013217</v>
       </c>
       <c r="K44" t="n">
-        <v>64.92826845728513</v>
+        <v>30.81501082970189</v>
       </c>
       <c r="L44" t="n">
-        <v>35.0743599202969</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -25901,25 +25903,25 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>11.06450388845946</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>51.95968297934968</v>
+        <v>13.39533964498645</v>
       </c>
       <c r="Q44" t="n">
-        <v>98.3839527992952</v>
+        <v>69.42373700667369</v>
       </c>
       <c r="R44" t="n">
-        <v>162.4810230712893</v>
+        <v>145.6350816627327</v>
       </c>
       <c r="S44" t="n">
-        <v>200.3151913159098</v>
+        <v>194.2040832849866</v>
       </c>
       <c r="T44" t="n">
-        <v>217.2403896304627</v>
+        <v>216.0664400789381</v>
       </c>
       <c r="U44" t="n">
-        <v>250.055044213027</v>
+        <v>215.9131041349393</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25928,10 +25930,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
-        <v>359.7827142947061</v>
+        <v>354.7177530696278</v>
       </c>
       <c r="Y44" t="n">
-        <v>382.2855674184499</v>
+        <v>348.1650815868778</v>
       </c>
     </row>
     <row r="45">
@@ -25941,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>146.697170477217</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
@@ -25956,19 +25958,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.1059101097915</v>
+        <v>113.8419363547369</v>
       </c>
       <c r="H45" t="n">
-        <v>119.5670816411805</v>
+        <v>118.1812903801788</v>
       </c>
       <c r="I45" t="n">
-        <v>91.93475956663372</v>
+        <v>86.99449553445228</v>
       </c>
       <c r="J45" t="n">
-        <v>73.8395502629202</v>
+        <v>26.1626023272436</v>
       </c>
       <c r="K45" t="n">
-        <v>29.89154616318336</v>
+        <v>6.721393185753584</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25986,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>61.47076291397909</v>
+        <v>9.034169516469589</v>
       </c>
       <c r="R45" t="n">
-        <v>124.5627663855477</v>
+        <v>115.6539284696802</v>
       </c>
       <c r="S45" t="n">
-        <v>179.7273236222959</v>
+        <v>177.0620983769088</v>
       </c>
       <c r="T45" t="n">
-        <v>212.3965371086322</v>
+        <v>211.8181800837182</v>
       </c>
       <c r="U45" t="n">
-        <v>237.186050130781</v>
+        <v>237.1766101358151</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26035,49 +26037,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.1653150268088</v>
+        <v>168.0450195718329</v>
       </c>
       <c r="H46" t="n">
-        <v>161.0636723588838</v>
+        <v>159.9941364046431</v>
       </c>
       <c r="I46" t="n">
-        <v>148.7502285194483</v>
+        <v>145.1326161098078</v>
       </c>
       <c r="J46" t="n">
-        <v>104.1788770057366</v>
+        <v>95.67398833893671</v>
       </c>
       <c r="K46" t="n">
-        <v>73.9892359451428</v>
+        <v>60.01309126702743</v>
       </c>
       <c r="L46" t="n">
-        <v>57.82713911783087</v>
+        <v>39.94248574804224</v>
       </c>
       <c r="M46" t="n">
-        <v>56.955352380707</v>
+        <v>38.09849301570364</v>
       </c>
       <c r="N46" t="n">
-        <v>45.9180696800844</v>
+        <v>27.50958428362776</v>
       </c>
       <c r="O46" t="n">
-        <v>67.44506079792964</v>
+        <v>50.44184503460119</v>
       </c>
       <c r="P46" t="n">
-        <v>81.2014108898193</v>
+        <v>66.65222240800031</v>
       </c>
       <c r="Q46" t="n">
-        <v>124.7217580646041</v>
+        <v>114.6486541029358</v>
       </c>
       <c r="R46" t="n">
-        <v>179.3537369092726</v>
+        <v>173.9448158155357</v>
       </c>
       <c r="S46" t="n">
-        <v>226.1064386483733</v>
+        <v>224.010016946656</v>
       </c>
       <c r="T46" t="n">
-        <v>221.4736843306728</v>
+        <v>220.9596946594119</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6273500649105</v>
+        <v>288.6207884946391</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>331485.2505886913</v>
+        <v>310451.2506419733</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>336633.045916108</v>
+        <v>331485.2505886913</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>336739.6232900083</v>
+        <v>345863.4061790699</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>336739.6232900083</v>
+        <v>345863.4061790699</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>336739.6232900083</v>
+        <v>345863.4061790699</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>336739.6232900083</v>
+        <v>345863.4061790699</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>336739.6232900083</v>
+        <v>389492.7991193535</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>336739.6232900083</v>
+        <v>389492.7991193535</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>336739.6232900083</v>
+        <v>389492.7991193535</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>336739.6232900083</v>
+        <v>389492.7991193536</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>336739.6232900083</v>
+        <v>389492.7991193535</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>336739.6232900083</v>
+        <v>389492.7991193536</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>336739.6232900083</v>
+        <v>389492.7991193535</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>336739.6232900083</v>
+        <v>389492.7991193536</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75601.8992570699</v>
+        <v>70804.67119904664</v>
       </c>
       <c r="C2" t="n">
         <v>75601.8992570699</v>
       </c>
       <c r="D2" t="n">
-        <v>76775.95784051581</v>
+        <v>75601.8992570699</v>
       </c>
       <c r="E2" t="n">
-        <v>76800.26496087904</v>
+        <v>78881.12772505102</v>
       </c>
       <c r="F2" t="n">
-        <v>76800.26496087904</v>
+        <v>78881.12772505105</v>
       </c>
       <c r="G2" t="n">
-        <v>76800.26496087905</v>
+        <v>78881.12772505102</v>
       </c>
       <c r="H2" t="n">
-        <v>76800.26496087904</v>
+        <v>78881.12772505103</v>
       </c>
       <c r="I2" t="n">
-        <v>76800.26496087904</v>
+        <v>88831.69102722096</v>
       </c>
       <c r="J2" t="n">
-        <v>76800.26496087904</v>
+        <v>88831.69102722098</v>
       </c>
       <c r="K2" t="n">
-        <v>76800.26496087907</v>
+        <v>88831.69102722096</v>
       </c>
       <c r="L2" t="n">
-        <v>76800.26496087907</v>
+        <v>88831.69102722098</v>
       </c>
       <c r="M2" t="n">
-        <v>76800.26496087904</v>
+        <v>88831.69102722094</v>
       </c>
       <c r="N2" t="n">
-        <v>76800.26496087904</v>
+        <v>88831.69102722098</v>
       </c>
       <c r="O2" t="n">
-        <v>76800.26496087905</v>
+        <v>88831.69102722098</v>
       </c>
       <c r="P2" t="n">
-        <v>76800.26496087905</v>
+        <v>88831.69102722095</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>375984.3382610764</v>
+        <v>348770.3362913723</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>25716.8849129437</v>
       </c>
       <c r="D3" t="n">
-        <v>6645.31056907279</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>134.0806310189774</v>
+        <v>19491.79317712233</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>46992.41474995484</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26393,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.828221144548935e-10</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26436,28 +26438,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>21.67972093985102</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>21.67972093985102</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>21.67972093985102</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>21.67972093985102</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>21.67972093985102</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>21.67972093985102</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>21.67972093985102</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>21.67972093985102</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42133.56512717394</v>
+        <v>41517.8975895426</v>
       </c>
       <c r="C5" t="n">
         <v>42133.56512717394</v>
       </c>
       <c r="D5" t="n">
-        <v>42302.7213651684</v>
+        <v>42133.56512717394</v>
       </c>
       <c r="E5" t="n">
-        <v>8678.759586280612</v>
+        <v>9034.86667628599</v>
       </c>
       <c r="F5" t="n">
-        <v>8678.759586280612</v>
+        <v>9034.86667628599</v>
       </c>
       <c r="G5" t="n">
-        <v>8678.759586280612</v>
+        <v>9034.86667628599</v>
       </c>
       <c r="H5" t="n">
-        <v>8678.759586280612</v>
+        <v>9034.86667628599</v>
       </c>
       <c r="I5" t="n">
-        <v>8678.759586280612</v>
+        <v>12207.54781599495</v>
       </c>
       <c r="J5" t="n">
-        <v>8678.759586280612</v>
+        <v>12207.54781599495</v>
       </c>
       <c r="K5" t="n">
-        <v>8678.759586280614</v>
+        <v>12207.54781599495</v>
       </c>
       <c r="L5" t="n">
-        <v>8678.759586280612</v>
+        <v>12207.54781599495</v>
       </c>
       <c r="M5" t="n">
-        <v>8678.759586280612</v>
+        <v>12207.54781599495</v>
       </c>
       <c r="N5" t="n">
-        <v>8678.759586280612</v>
+        <v>12207.54781599495</v>
       </c>
       <c r="O5" t="n">
-        <v>8678.759586280612</v>
+        <v>12207.54781599495</v>
       </c>
       <c r="P5" t="n">
-        <v>8678.759586280612</v>
+        <v>12207.54781599495</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-342516.0041311804</v>
+        <v>-319483.5626818683</v>
       </c>
       <c r="C6" t="n">
+        <v>7751.449216952271</v>
+      </c>
+      <c r="D6" t="n">
         <v>33468.33412989596</v>
       </c>
-      <c r="D6" t="n">
-        <v>27827.92590627461</v>
-      </c>
       <c r="E6" t="n">
-        <v>67987.42474357944</v>
+        <v>50354.4678716427</v>
       </c>
       <c r="F6" t="n">
-        <v>68121.50537459843</v>
+        <v>69846.26104876505</v>
       </c>
       <c r="G6" t="n">
-        <v>68121.50537459843</v>
+        <v>69846.26104876502</v>
       </c>
       <c r="H6" t="n">
-        <v>68121.50537459843</v>
+        <v>69846.26104876504</v>
       </c>
       <c r="I6" t="n">
-        <v>68121.50537459843</v>
+        <v>29610.04874033132</v>
       </c>
       <c r="J6" t="n">
-        <v>68121.50537459843</v>
+        <v>76602.46349028617</v>
       </c>
       <c r="K6" t="n">
-        <v>68121.50537459845</v>
+        <v>76602.46349028616</v>
       </c>
       <c r="L6" t="n">
-        <v>68121.50537459846</v>
+        <v>76602.46349028598</v>
       </c>
       <c r="M6" t="n">
-        <v>68121.50537459843</v>
+        <v>76602.46349028613</v>
       </c>
       <c r="N6" t="n">
-        <v>68121.50537459843</v>
+        <v>76602.46349028617</v>
       </c>
       <c r="O6" t="n">
-        <v>68121.50537459843</v>
+        <v>76602.46349028617</v>
       </c>
       <c r="P6" t="n">
-        <v>68121.50537459843</v>
+        <v>76602.46349028614</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>390.181886567612</v>
+        <v>361.9402564010368</v>
       </c>
       <c r="C3" t="n">
         <v>390.181886567612</v>
       </c>
       <c r="D3" t="n">
-        <v>397.9413470260735</v>
+        <v>390.181886567612</v>
       </c>
       <c r="E3" t="n">
-        <v>398.1082379027804</v>
+        <v>414.443425517706</v>
       </c>
       <c r="F3" t="n">
-        <v>398.1082379027804</v>
+        <v>414.443425517706</v>
       </c>
       <c r="G3" t="n">
-        <v>398.1082379027804</v>
+        <v>414.443425517706</v>
       </c>
       <c r="H3" t="n">
-        <v>398.1082379027804</v>
+        <v>414.443425517706</v>
       </c>
       <c r="I3" t="n">
-        <v>398.1082379027804</v>
+        <v>464.8175356621729</v>
       </c>
       <c r="J3" t="n">
-        <v>398.1082379027804</v>
+        <v>464.8175356621729</v>
       </c>
       <c r="K3" t="n">
-        <v>398.1082379027804</v>
+        <v>464.8175356621729</v>
       </c>
       <c r="L3" t="n">
-        <v>398.1082379027804</v>
+        <v>464.8175356621729</v>
       </c>
       <c r="M3" t="n">
-        <v>398.1082379027804</v>
+        <v>464.8175356621729</v>
       </c>
       <c r="N3" t="n">
-        <v>398.1082379027804</v>
+        <v>464.8175356621729</v>
       </c>
       <c r="O3" t="n">
-        <v>398.1082379027804</v>
+        <v>464.8175356621729</v>
       </c>
       <c r="P3" t="n">
-        <v>398.1082379027804</v>
+        <v>464.8175356621729</v>
       </c>
     </row>
     <row r="4">
@@ -26808,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>390.181886567612</v>
+        <v>361.9402564010368</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>28.24163016657519</v>
       </c>
       <c r="D3" t="n">
-        <v>7.759460458461433</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1668908767069297</v>
+        <v>24.26153895009395</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>50.37411014446695</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27030,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27039,7 +27041,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>7.223572329908749e-13</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.568570398261756</v>
+        <v>1.455036206637333</v>
       </c>
       <c r="H2" t="n">
-        <v>16.06412159119821</v>
+        <v>14.90138955122459</v>
       </c>
       <c r="I2" t="n">
-        <v>60.47231027898639</v>
+        <v>56.09528335638583</v>
       </c>
       <c r="J2" t="n">
-        <v>133.1304518394688</v>
+        <v>123.4943792430854</v>
       </c>
       <c r="K2" t="n">
-        <v>199.5280367978889</v>
+        <v>185.0860618700438</v>
       </c>
       <c r="L2" t="n">
-        <v>247.5321731236922</v>
+        <v>229.6156261789211</v>
       </c>
       <c r="M2" t="n">
-        <v>275.4272369437797</v>
+        <v>255.4916263187078</v>
       </c>
       <c r="N2" t="n">
-        <v>279.8839375878409</v>
+        <v>259.6257479408162</v>
       </c>
       <c r="O2" t="n">
-        <v>264.2864656901256</v>
+        <v>245.1572316610661</v>
       </c>
       <c r="P2" t="n">
-        <v>225.5623839830384</v>
+        <v>209.2360253097069</v>
       </c>
       <c r="Q2" t="n">
-        <v>169.3879565952893</v>
+        <v>157.1275411595074</v>
       </c>
       <c r="R2" t="n">
-        <v>98.5317102798101</v>
+        <v>91.39991811518244</v>
       </c>
       <c r="S2" t="n">
-        <v>35.74379795038979</v>
+        <v>33.15663755874826</v>
       </c>
       <c r="T2" t="n">
-        <v>6.866416918390839</v>
+        <v>6.369420994554928</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1164028965309866</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,19 +31120,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8392591522397692</v>
+        <v>0.7785130043343056</v>
       </c>
       <c r="H3" t="n">
-        <v>8.105476549263036</v>
+        <v>7.518796647123428</v>
       </c>
       <c r="I3" t="n">
-        <v>28.8955453731675</v>
+        <v>26.80406615800132</v>
       </c>
       <c r="J3" t="n">
-        <v>79.29158508068804</v>
+        <v>73.55240625598807</v>
       </c>
       <c r="K3" t="n">
-        <v>135.5219482807526</v>
+        <v>125.7127775463865</v>
       </c>
       <c r="L3" t="n">
         <v>169.0363433314465</v>
@@ -31145,22 +31147,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P3" t="n">
-        <v>160.2616884658556</v>
+        <v>148.6618385206447</v>
       </c>
       <c r="Q3" t="n">
-        <v>107.1306945911678</v>
+        <v>99.37650209712999</v>
       </c>
       <c r="R3" t="n">
-        <v>52.10768666274639</v>
+        <v>48.33609688314225</v>
       </c>
       <c r="S3" t="n">
-        <v>15.5888706567343</v>
+        <v>14.46053760243764</v>
       </c>
       <c r="T3" t="n">
-        <v>3.382803337317314</v>
+        <v>3.137953732382573</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05521441791051115</v>
+        <v>0.0512179608114675</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7036066806956937</v>
+        <v>0.6526791508871155</v>
       </c>
       <c r="H4" t="n">
-        <v>6.255703033821718</v>
+        <v>5.802910996069087</v>
       </c>
       <c r="I4" t="n">
-        <v>21.1593718158305</v>
+        <v>19.62784210122345</v>
       </c>
       <c r="J4" t="n">
-        <v>49.74499232518554</v>
+        <v>46.14441596771907</v>
       </c>
       <c r="K4" t="n">
-        <v>81.74630344809967</v>
+        <v>75.82945043943032</v>
       </c>
       <c r="L4" t="n">
-        <v>104.6071241463398</v>
+        <v>97.03558939643536</v>
       </c>
       <c r="M4" t="n">
-        <v>110.293545411235</v>
+        <v>102.3104236249685</v>
       </c>
       <c r="N4" t="n">
-        <v>107.6710114195511</v>
+        <v>99.87771042620749</v>
       </c>
       <c r="O4" t="n">
-        <v>99.45160610415137</v>
+        <v>92.2532312544807</v>
       </c>
       <c r="P4" t="n">
-        <v>85.09802981795914</v>
+        <v>78.93857657638347</v>
       </c>
       <c r="Q4" t="n">
-        <v>58.91746487170941</v>
+        <v>54.65297871655656</v>
       </c>
       <c r="R4" t="n">
-        <v>31.63671493382637</v>
+        <v>29.34682800261521</v>
       </c>
       <c r="S4" t="n">
-        <v>12.26194551721495</v>
+        <v>11.37441756591454</v>
       </c>
       <c r="T4" t="n">
-        <v>3.006319453881599</v>
+        <v>2.788720008335857</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03560068095747907</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,13 +31284,13 @@
         <v>16.06412159119821</v>
       </c>
       <c r="I5" t="n">
-        <v>60.47231027898639</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J5" t="n">
         <v>133.1304518394688</v>
       </c>
       <c r="K5" t="n">
-        <v>199.5280367978889</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L5" t="n">
         <v>247.5321731236922</v>
@@ -31303,7 +31305,7 @@
         <v>264.2864656901256</v>
       </c>
       <c r="P5" t="n">
-        <v>225.5623839830384</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q5" t="n">
         <v>169.3879565952893</v>
@@ -31355,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8392591522397692</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H6" t="n">
         <v>8.105476549263036</v>
@@ -31388,16 +31390,16 @@
         <v>107.1306945911678</v>
       </c>
       <c r="R6" t="n">
-        <v>52.10768666274639</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S6" t="n">
         <v>15.5888706567343</v>
       </c>
       <c r="T6" t="n">
-        <v>3.382803337317314</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05521441791051115</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7036066806956937</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H7" t="n">
         <v>6.255703033821718</v>
       </c>
       <c r="I7" t="n">
-        <v>21.1593718158305</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J7" t="n">
         <v>49.74499232518554</v>
@@ -31473,7 +31475,7 @@
         <v>12.26194551721495</v>
       </c>
       <c r="T7" t="n">
-        <v>3.006319453881599</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U7" t="n">
         <v>0.03837854621976516</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.599764209150043</v>
+        <v>1.568570398261756</v>
       </c>
       <c r="H8" t="n">
-        <v>16.38358520695788</v>
+        <v>16.06412159119821</v>
       </c>
       <c r="I8" t="n">
-        <v>61.67490967325708</v>
+        <v>60.47231027898639</v>
       </c>
       <c r="J8" t="n">
-        <v>135.7779875463486</v>
+        <v>133.1304518394688</v>
       </c>
       <c r="K8" t="n">
-        <v>203.4960065196699</v>
+        <v>199.5280367978889</v>
       </c>
       <c r="L8" t="n">
-        <v>252.4547904354456</v>
+        <v>247.5321731236922</v>
       </c>
       <c r="M8" t="n">
-        <v>280.9045971899176</v>
+        <v>275.4272369437797</v>
       </c>
       <c r="N8" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O8" t="n">
-        <v>269.5422718944295</v>
+        <v>264.2864656901256</v>
       </c>
       <c r="P8" t="n">
-        <v>230.0480929810377</v>
+        <v>225.5623839830384</v>
       </c>
       <c r="Q8" t="n">
-        <v>172.7565372408518</v>
+        <v>169.3879565952893</v>
       </c>
       <c r="R8" t="n">
-        <v>100.4911885030215</v>
+        <v>98.5317102798101</v>
       </c>
       <c r="S8" t="n">
-        <v>36.45462691600663</v>
+        <v>35.74379795038979</v>
       </c>
       <c r="T8" t="n">
-        <v>7.002967825554316</v>
+        <v>6.866416918390839</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1279811367320034</v>
+        <v>0.1254856318609404</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,19 +31594,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8559493124711768</v>
+        <v>0.8392591522397692</v>
       </c>
       <c r="H9" t="n">
-        <v>8.266668359918999</v>
+        <v>8.105476549263036</v>
       </c>
       <c r="I9" t="n">
-        <v>29.47018466183657</v>
+        <v>28.8955453731675</v>
       </c>
       <c r="J9" t="n">
-        <v>80.86843921027028</v>
+        <v>79.29158508068804</v>
       </c>
       <c r="K9" t="n">
-        <v>138.2170431458391</v>
+        <v>135.5219482807526</v>
       </c>
       <c r="L9" t="n">
         <v>169.0363433314465</v>
@@ -31619,22 +31621,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P9" t="n">
-        <v>163.4487770454829</v>
+        <v>160.2616884658556</v>
       </c>
       <c r="Q9" t="n">
-        <v>109.2611789042155</v>
+        <v>107.1306945911678</v>
       </c>
       <c r="R9" t="n">
-        <v>53.14394064623677</v>
+        <v>52.10768666274639</v>
       </c>
       <c r="S9" t="n">
-        <v>15.89888306278698</v>
+        <v>15.5888706567343</v>
       </c>
       <c r="T9" t="n">
-        <v>3.450076395443031</v>
+        <v>3.382803337317314</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05631245476784061</v>
+        <v>0.05521441791051115</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7175991503748864</v>
+        <v>0.7036066806956937</v>
       </c>
       <c r="H10" t="n">
-        <v>6.380108809696723</v>
+        <v>6.255703033821718</v>
       </c>
       <c r="I10" t="n">
-        <v>21.58016354036478</v>
+        <v>21.1593718158305</v>
       </c>
       <c r="J10" t="n">
-        <v>50.73425993150447</v>
+        <v>49.74499232518554</v>
       </c>
       <c r="K10" t="n">
-        <v>83.37197401628225</v>
+        <v>81.74630344809967</v>
       </c>
       <c r="L10" t="n">
-        <v>106.6874227748263</v>
+        <v>104.6071241463398</v>
       </c>
       <c r="M10" t="n">
-        <v>112.4869286355833</v>
+        <v>110.293545411235</v>
       </c>
       <c r="N10" t="n">
-        <v>109.812240893277</v>
+        <v>107.6710114195511</v>
       </c>
       <c r="O10" t="n">
-        <v>101.4293780911704</v>
+        <v>99.45160610415137</v>
       </c>
       <c r="P10" t="n">
-        <v>86.7903554235226</v>
+        <v>85.09802981795914</v>
       </c>
       <c r="Q10" t="n">
-        <v>60.08914340093709</v>
+        <v>58.91746487170941</v>
       </c>
       <c r="R10" t="n">
-        <v>32.26586725231079</v>
+        <v>31.63671493382637</v>
       </c>
       <c r="S10" t="n">
-        <v>12.50579610244234</v>
+        <v>12.26194551721495</v>
       </c>
       <c r="T10" t="n">
-        <v>3.066105460692696</v>
+        <v>3.006319453881599</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03914177183863022</v>
+        <v>0.03837854621976516</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,22 +31752,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.600435127247357</v>
+        <v>1.666104223186756</v>
       </c>
       <c r="H11" t="n">
-        <v>16.390456246922</v>
+        <v>17.06298987571137</v>
       </c>
       <c r="I11" t="n">
-        <v>61.70077524320379</v>
+        <v>64.23248306440749</v>
       </c>
       <c r="J11" t="n">
-        <v>135.8349308812105</v>
+        <v>141.4085133126971</v>
       </c>
       <c r="K11" t="n">
-        <v>203.5813498175912</v>
+        <v>211.9347050801925</v>
       </c>
       <c r="L11" t="n">
-        <v>252.5606663430875</v>
+        <v>262.9237422005443</v>
       </c>
       <c r="M11" t="n">
         <v>281.0224045372727</v>
@@ -31774,25 +31776,25 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O11" t="n">
-        <v>269.6553140459984</v>
+        <v>280.7198179344578</v>
       </c>
       <c r="P11" t="n">
-        <v>230.1445718420792</v>
+        <v>239.5878699245347</v>
       </c>
       <c r="Q11" t="n">
-        <v>172.8289888475332</v>
+        <v>179.9205124316589</v>
       </c>
       <c r="R11" t="n">
-        <v>100.5333330619519</v>
+        <v>104.6584194097552</v>
       </c>
       <c r="S11" t="n">
-        <v>36.46991546214919</v>
+        <v>37.96634998586825</v>
       </c>
       <c r="T11" t="n">
-        <v>7.005904769525309</v>
+        <v>7.29337123700003</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1280348101797885</v>
+        <v>0.1332883378549405</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8563082853003201</v>
+        <v>0.8914443492267637</v>
       </c>
       <c r="H12" t="n">
-        <v>8.27013528171625</v>
+        <v>8.6094756885848</v>
       </c>
       <c r="I12" t="n">
-        <v>29.48254403336629</v>
+        <v>30.692272550132</v>
       </c>
       <c r="J12" t="n">
-        <v>80.90235427041316</v>
+        <v>84.2219417837444</v>
       </c>
       <c r="K12" t="n">
-        <v>138.2750093855346</v>
+        <v>143.9487131819376</v>
       </c>
       <c r="L12" t="n">
         <v>169.0363433314465</v>
@@ -31859,19 +31861,19 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q12" t="n">
-        <v>109.3070014709672</v>
+        <v>113.792089210069</v>
       </c>
       <c r="R12" t="n">
-        <v>53.16622845048832</v>
+        <v>55.34774652479857</v>
       </c>
       <c r="S12" t="n">
-        <v>15.90555082564409</v>
+        <v>16.55818780252343</v>
       </c>
       <c r="T12" t="n">
-        <v>3.451523307855236</v>
+        <v>3.59314630236577</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05633607140133687</v>
+        <v>0.05864765455439238</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7179001011361613</v>
+        <v>0.7473569968352074</v>
       </c>
       <c r="H13" t="n">
-        <v>6.382784535556056</v>
+        <v>6.644683117316667</v>
       </c>
       <c r="I13" t="n">
-        <v>21.58921395053111</v>
+        <v>22.4750631411897</v>
       </c>
       <c r="J13" t="n">
-        <v>50.7555371503266</v>
+        <v>52.83813967624916</v>
       </c>
       <c r="K13" t="n">
-        <v>83.40693902291035</v>
+        <v>86.82929472321771</v>
       </c>
       <c r="L13" t="n">
-        <v>106.7321659452798</v>
+        <v>111.1116029658453</v>
       </c>
       <c r="M13" t="n">
-        <v>112.5341040353712</v>
+        <v>117.1516063311771</v>
       </c>
       <c r="N13" t="n">
-        <v>109.8582945675001</v>
+        <v>114.3660029793369</v>
       </c>
       <c r="O13" t="n">
-        <v>101.4719161133185</v>
+        <v>105.6355144253983</v>
       </c>
       <c r="P13" t="n">
-        <v>86.82675405014078</v>
+        <v>90.38943168995995</v>
       </c>
       <c r="Q13" t="n">
-        <v>60.11434392331984</v>
+        <v>62.58095725317359</v>
       </c>
       <c r="R13" t="n">
-        <v>32.27939909290411</v>
+        <v>33.60388823951759</v>
       </c>
       <c r="S13" t="n">
-        <v>12.51104085343655</v>
+        <v>13.02439420848265</v>
       </c>
       <c r="T13" t="n">
-        <v>3.067391341218143</v>
+        <v>3.19325262284134</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03915818733469975</v>
+        <v>0.04076492710010227</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,22 +31989,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.600435127247357</v>
+        <v>1.666104223186756</v>
       </c>
       <c r="H14" t="n">
-        <v>16.390456246922</v>
+        <v>17.06298987571137</v>
       </c>
       <c r="I14" t="n">
-        <v>61.70077524320379</v>
+        <v>64.23248306440749</v>
       </c>
       <c r="J14" t="n">
-        <v>135.8349308812105</v>
+        <v>141.4085133126971</v>
       </c>
       <c r="K14" t="n">
-        <v>203.5813498175912</v>
+        <v>211.9347050801925</v>
       </c>
       <c r="L14" t="n">
-        <v>252.5606663430875</v>
+        <v>262.9237422005443</v>
       </c>
       <c r="M14" t="n">
         <v>281.0224045372727</v>
@@ -32011,25 +32013,25 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O14" t="n">
-        <v>269.6553140459984</v>
+        <v>280.7198179344578</v>
       </c>
       <c r="P14" t="n">
-        <v>230.1445718420792</v>
+        <v>239.5878699245347</v>
       </c>
       <c r="Q14" t="n">
-        <v>172.8289888475332</v>
+        <v>179.920512431659</v>
       </c>
       <c r="R14" t="n">
-        <v>100.5333330619519</v>
+        <v>104.6584194097552</v>
       </c>
       <c r="S14" t="n">
-        <v>36.46991546214919</v>
+        <v>37.96634998586825</v>
       </c>
       <c r="T14" t="n">
-        <v>7.005904769525309</v>
+        <v>7.29337123700003</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1280348101797885</v>
+        <v>0.1332883378549405</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8563082853003201</v>
+        <v>0.8914443492267639</v>
       </c>
       <c r="H15" t="n">
-        <v>8.27013528171625</v>
+        <v>8.6094756885848</v>
       </c>
       <c r="I15" t="n">
-        <v>29.48254403336629</v>
+        <v>30.692272550132</v>
       </c>
       <c r="J15" t="n">
-        <v>80.90235427041316</v>
+        <v>84.2219417837444</v>
       </c>
       <c r="K15" t="n">
-        <v>138.2750093855346</v>
+        <v>143.9487131819376</v>
       </c>
       <c r="L15" t="n">
         <v>169.0363433314465</v>
@@ -32096,19 +32098,19 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q15" t="n">
-        <v>109.3070014709672</v>
+        <v>113.792089210069</v>
       </c>
       <c r="R15" t="n">
-        <v>53.16622845048832</v>
+        <v>55.34774652479857</v>
       </c>
       <c r="S15" t="n">
-        <v>15.90555082564409</v>
+        <v>16.55818780252343</v>
       </c>
       <c r="T15" t="n">
-        <v>3.451523307855236</v>
+        <v>3.59314630236577</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05633607140133687</v>
+        <v>0.05864765455439238</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7179001011361613</v>
+        <v>0.7473569968352074</v>
       </c>
       <c r="H16" t="n">
-        <v>6.382784535556056</v>
+        <v>6.644683117316667</v>
       </c>
       <c r="I16" t="n">
-        <v>21.58921395053111</v>
+        <v>22.4750631411897</v>
       </c>
       <c r="J16" t="n">
-        <v>50.7555371503266</v>
+        <v>52.83813967624916</v>
       </c>
       <c r="K16" t="n">
-        <v>83.40693902291035</v>
+        <v>86.82929472321771</v>
       </c>
       <c r="L16" t="n">
-        <v>106.7321659452798</v>
+        <v>111.1116029658453</v>
       </c>
       <c r="M16" t="n">
-        <v>112.5341040353712</v>
+        <v>117.1516063311771</v>
       </c>
       <c r="N16" t="n">
-        <v>109.8582945675001</v>
+        <v>114.3660029793369</v>
       </c>
       <c r="O16" t="n">
-        <v>101.4719161133185</v>
+        <v>105.6355144253983</v>
       </c>
       <c r="P16" t="n">
-        <v>86.82675405014078</v>
+        <v>90.38943168995996</v>
       </c>
       <c r="Q16" t="n">
-        <v>60.11434392331984</v>
+        <v>62.5809572531736</v>
       </c>
       <c r="R16" t="n">
-        <v>32.27939909290411</v>
+        <v>33.60388823951759</v>
       </c>
       <c r="S16" t="n">
-        <v>12.51104085343655</v>
+        <v>13.02439420848266</v>
       </c>
       <c r="T16" t="n">
-        <v>3.067391341218143</v>
+        <v>3.19325262284134</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03915818733469975</v>
+        <v>0.04076492710010227</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,22 +32226,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.600435127247357</v>
+        <v>1.666104223186756</v>
       </c>
       <c r="H17" t="n">
-        <v>16.390456246922</v>
+        <v>17.06298987571137</v>
       </c>
       <c r="I17" t="n">
-        <v>61.70077524320379</v>
+        <v>64.23248306440749</v>
       </c>
       <c r="J17" t="n">
-        <v>135.8349308812105</v>
+        <v>141.4085133126971</v>
       </c>
       <c r="K17" t="n">
-        <v>203.5813498175912</v>
+        <v>211.9347050801925</v>
       </c>
       <c r="L17" t="n">
-        <v>252.5606663430875</v>
+        <v>262.9237422005443</v>
       </c>
       <c r="M17" t="n">
         <v>281.0224045372727</v>
@@ -32248,25 +32250,25 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O17" t="n">
-        <v>269.6553140459984</v>
+        <v>280.7198179344578</v>
       </c>
       <c r="P17" t="n">
-        <v>230.1445718420792</v>
+        <v>239.5878699245347</v>
       </c>
       <c r="Q17" t="n">
-        <v>172.8289888475332</v>
+        <v>179.9205124316589</v>
       </c>
       <c r="R17" t="n">
-        <v>100.5333330619519</v>
+        <v>104.6584194097552</v>
       </c>
       <c r="S17" t="n">
-        <v>36.46991546214919</v>
+        <v>37.96634998586825</v>
       </c>
       <c r="T17" t="n">
-        <v>7.005904769525309</v>
+        <v>7.29337123700003</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1280348101797885</v>
+        <v>0.1332883378549405</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8563082853003201</v>
+        <v>0.8914443492267637</v>
       </c>
       <c r="H18" t="n">
-        <v>8.27013528171625</v>
+        <v>8.6094756885848</v>
       </c>
       <c r="I18" t="n">
-        <v>29.48254403336629</v>
+        <v>30.692272550132</v>
       </c>
       <c r="J18" t="n">
-        <v>80.90235427041316</v>
+        <v>84.2219417837444</v>
       </c>
       <c r="K18" t="n">
-        <v>138.2750093855346</v>
+        <v>143.9487131819376</v>
       </c>
       <c r="L18" t="n">
         <v>169.0363433314465</v>
@@ -32333,19 +32335,19 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q18" t="n">
-        <v>109.3070014709672</v>
+        <v>113.792089210069</v>
       </c>
       <c r="R18" t="n">
-        <v>53.16622845048832</v>
+        <v>55.34774652479857</v>
       </c>
       <c r="S18" t="n">
-        <v>15.90555082564409</v>
+        <v>16.55818780252343</v>
       </c>
       <c r="T18" t="n">
-        <v>3.451523307855236</v>
+        <v>3.59314630236577</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05633607140133687</v>
+        <v>0.05864765455439238</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7179001011361613</v>
+        <v>0.7473569968352074</v>
       </c>
       <c r="H19" t="n">
-        <v>6.382784535556056</v>
+        <v>6.644683117316667</v>
       </c>
       <c r="I19" t="n">
-        <v>21.58921395053111</v>
+        <v>22.4750631411897</v>
       </c>
       <c r="J19" t="n">
-        <v>50.7555371503266</v>
+        <v>52.83813967624916</v>
       </c>
       <c r="K19" t="n">
-        <v>83.40693902291035</v>
+        <v>86.82929472321771</v>
       </c>
       <c r="L19" t="n">
-        <v>106.7321659452798</v>
+        <v>111.1116029658453</v>
       </c>
       <c r="M19" t="n">
-        <v>112.5341040353712</v>
+        <v>117.1516063311771</v>
       </c>
       <c r="N19" t="n">
-        <v>109.8582945675001</v>
+        <v>114.3660029793369</v>
       </c>
       <c r="O19" t="n">
-        <v>101.4719161133185</v>
+        <v>105.6355144253983</v>
       </c>
       <c r="P19" t="n">
-        <v>86.82675405014078</v>
+        <v>90.38943168995995</v>
       </c>
       <c r="Q19" t="n">
-        <v>60.11434392331984</v>
+        <v>62.58095725317359</v>
       </c>
       <c r="R19" t="n">
-        <v>32.27939909290411</v>
+        <v>33.60388823951759</v>
       </c>
       <c r="S19" t="n">
-        <v>12.51104085343655</v>
+        <v>13.02439420848265</v>
       </c>
       <c r="T19" t="n">
-        <v>3.067391341218143</v>
+        <v>3.19325262284134</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03915818733469975</v>
+        <v>0.04076492710010227</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,22 +32463,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.600435127247357</v>
+        <v>1.666104223186756</v>
       </c>
       <c r="H20" t="n">
-        <v>16.390456246922</v>
+        <v>17.06298987571137</v>
       </c>
       <c r="I20" t="n">
-        <v>61.70077524320379</v>
+        <v>64.23248306440749</v>
       </c>
       <c r="J20" t="n">
-        <v>135.8349308812105</v>
+        <v>141.4085133126971</v>
       </c>
       <c r="K20" t="n">
-        <v>203.5813498175912</v>
+        <v>211.9347050801925</v>
       </c>
       <c r="L20" t="n">
-        <v>252.5606663430875</v>
+        <v>262.9237422005443</v>
       </c>
       <c r="M20" t="n">
         <v>281.0224045372727</v>
@@ -32485,25 +32487,25 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O20" t="n">
-        <v>269.6553140459984</v>
+        <v>280.7198179344578</v>
       </c>
       <c r="P20" t="n">
-        <v>230.1445718420792</v>
+        <v>239.5878699245347</v>
       </c>
       <c r="Q20" t="n">
-        <v>172.8289888475332</v>
+        <v>179.920512431659</v>
       </c>
       <c r="R20" t="n">
-        <v>100.5333330619519</v>
+        <v>104.6584194097552</v>
       </c>
       <c r="S20" t="n">
-        <v>36.46991546214919</v>
+        <v>37.96634998586825</v>
       </c>
       <c r="T20" t="n">
-        <v>7.005904769525309</v>
+        <v>7.29337123700003</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1280348101797885</v>
+        <v>0.1332883378549405</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8563082853003201</v>
+        <v>0.8914443492267639</v>
       </c>
       <c r="H21" t="n">
-        <v>8.27013528171625</v>
+        <v>8.6094756885848</v>
       </c>
       <c r="I21" t="n">
-        <v>29.48254403336629</v>
+        <v>30.692272550132</v>
       </c>
       <c r="J21" t="n">
-        <v>80.90235427041316</v>
+        <v>84.2219417837444</v>
       </c>
       <c r="K21" t="n">
-        <v>138.2750093855346</v>
+        <v>143.9487131819376</v>
       </c>
       <c r="L21" t="n">
         <v>169.0363433314465</v>
@@ -32570,19 +32572,19 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q21" t="n">
-        <v>109.3070014709672</v>
+        <v>113.792089210069</v>
       </c>
       <c r="R21" t="n">
-        <v>53.16622845048832</v>
+        <v>55.34774652479857</v>
       </c>
       <c r="S21" t="n">
-        <v>15.90555082564409</v>
+        <v>16.55818780252343</v>
       </c>
       <c r="T21" t="n">
-        <v>3.451523307855236</v>
+        <v>3.59314630236577</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05633607140133687</v>
+        <v>0.05864765455439238</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7179001011361613</v>
+        <v>0.7473569968352074</v>
       </c>
       <c r="H22" t="n">
-        <v>6.382784535556056</v>
+        <v>6.644683117316667</v>
       </c>
       <c r="I22" t="n">
-        <v>21.58921395053111</v>
+        <v>22.4750631411897</v>
       </c>
       <c r="J22" t="n">
-        <v>50.7555371503266</v>
+        <v>52.83813967624916</v>
       </c>
       <c r="K22" t="n">
-        <v>83.40693902291035</v>
+        <v>86.82929472321771</v>
       </c>
       <c r="L22" t="n">
-        <v>106.7321659452798</v>
+        <v>111.1116029658453</v>
       </c>
       <c r="M22" t="n">
-        <v>112.5341040353712</v>
+        <v>117.1516063311771</v>
       </c>
       <c r="N22" t="n">
-        <v>109.8582945675001</v>
+        <v>114.3660029793369</v>
       </c>
       <c r="O22" t="n">
-        <v>101.4719161133185</v>
+        <v>105.6355144253983</v>
       </c>
       <c r="P22" t="n">
-        <v>86.82675405014078</v>
+        <v>90.38943168995996</v>
       </c>
       <c r="Q22" t="n">
-        <v>60.11434392331984</v>
+        <v>62.5809572531736</v>
       </c>
       <c r="R22" t="n">
-        <v>32.27939909290411</v>
+        <v>33.60388823951759</v>
       </c>
       <c r="S22" t="n">
-        <v>12.51104085343655</v>
+        <v>13.02439420848266</v>
       </c>
       <c r="T22" t="n">
-        <v>3.067391341218143</v>
+        <v>3.19325262284134</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03915818733469975</v>
+        <v>0.04076492710010227</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.600435127247357</v>
+        <v>1.868613208692151</v>
       </c>
       <c r="H23" t="n">
-        <v>16.390456246922</v>
+        <v>19.1369350235185</v>
       </c>
       <c r="I23" t="n">
-        <v>61.70077524320379</v>
+        <v>72.03971072810423</v>
       </c>
       <c r="J23" t="n">
-        <v>135.8349308812105</v>
+        <v>158.5962103212356</v>
       </c>
       <c r="K23" t="n">
-        <v>203.5813498175912</v>
+        <v>237.6946074451744</v>
       </c>
       <c r="L23" t="n">
-        <v>252.5606663430875</v>
+        <v>294.8811789306869</v>
       </c>
       <c r="M23" t="n">
-        <v>281.0224045372727</v>
+        <v>315.1428903688449</v>
       </c>
       <c r="N23" t="n">
-        <v>279.8839375878409</v>
+        <v>314.0044234194131</v>
       </c>
       <c r="O23" t="n">
-        <v>269.6553140459984</v>
+        <v>314.8403037660299</v>
       </c>
       <c r="P23" t="n">
-        <v>230.1445718420792</v>
+        <v>268.7089151764424</v>
       </c>
       <c r="Q23" t="n">
-        <v>172.8289888475332</v>
+        <v>201.7892046401547</v>
       </c>
       <c r="R23" t="n">
-        <v>100.5333330619519</v>
+        <v>117.3792744705084</v>
       </c>
       <c r="S23" t="n">
-        <v>36.46991546214919</v>
+        <v>42.58102349307244</v>
       </c>
       <c r="T23" t="n">
-        <v>7.005904769525309</v>
+        <v>8.179854321049895</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1280348101797885</v>
+        <v>0.149489056695372</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8563082853003201</v>
+        <v>0.9997962087827871</v>
       </c>
       <c r="H24" t="n">
-        <v>8.27013528171625</v>
+        <v>9.655926542717971</v>
       </c>
       <c r="I24" t="n">
-        <v>29.48254403336629</v>
+        <v>34.42280806554772</v>
       </c>
       <c r="J24" t="n">
-        <v>80.90235427041316</v>
+        <v>94.45881637451762</v>
       </c>
       <c r="K24" t="n">
-        <v>138.2750093855346</v>
+        <v>161.4451623629644</v>
       </c>
       <c r="L24" t="n">
-        <v>169.0363433314465</v>
+        <v>174.3097755537564</v>
       </c>
       <c r="M24" t="n">
-        <v>173.4035213848624</v>
+        <v>207.5240072164345</v>
       </c>
       <c r="N24" t="n">
-        <v>160.2368887416667</v>
+        <v>194.3573745732388</v>
       </c>
       <c r="O24" t="n">
-        <v>173.9674182222222</v>
+        <v>208.0879040537943</v>
       </c>
       <c r="P24" t="n">
-        <v>163.4487770454829</v>
+        <v>190.9172251666008</v>
       </c>
       <c r="Q24" t="n">
-        <v>109.3070014709672</v>
+        <v>127.6231090369046</v>
       </c>
       <c r="R24" t="n">
-        <v>53.16622845048832</v>
+        <v>62.07506636635588</v>
       </c>
       <c r="S24" t="n">
-        <v>15.90555082564409</v>
+        <v>18.57077607103114</v>
       </c>
       <c r="T24" t="n">
-        <v>3.451523307855236</v>
+        <v>4.029880332769215</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05633607140133687</v>
+        <v>0.06577606636728865</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7179001011361613</v>
+        <v>0.838195556112115</v>
       </c>
       <c r="H25" t="n">
-        <v>6.382784535556056</v>
+        <v>7.45232048979681</v>
       </c>
       <c r="I25" t="n">
-        <v>21.58921395053111</v>
+        <v>25.20682636017161</v>
       </c>
       <c r="J25" t="n">
-        <v>50.7555371503266</v>
+        <v>59.26042581712653</v>
       </c>
       <c r="K25" t="n">
-        <v>83.40693902291035</v>
+        <v>97.38308370102571</v>
       </c>
       <c r="L25" t="n">
-        <v>106.7321659452798</v>
+        <v>124.6168193150685</v>
       </c>
       <c r="M25" t="n">
-        <v>112.5341040353712</v>
+        <v>131.3909634003745</v>
       </c>
       <c r="N25" t="n">
-        <v>109.8582945675001</v>
+        <v>128.2667799639567</v>
       </c>
       <c r="O25" t="n">
-        <v>101.4719161133185</v>
+        <v>118.475131876647</v>
       </c>
       <c r="P25" t="n">
-        <v>86.82675405014078</v>
+        <v>101.3759425319598</v>
       </c>
       <c r="Q25" t="n">
-        <v>60.11434392331984</v>
+        <v>70.18744788498812</v>
       </c>
       <c r="R25" t="n">
-        <v>32.27939909290411</v>
+        <v>37.68832018664109</v>
       </c>
       <c r="S25" t="n">
-        <v>12.51104085343655</v>
+        <v>14.60746255515385</v>
       </c>
       <c r="T25" t="n">
-        <v>3.067391341218143</v>
+        <v>3.581381012479036</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03915818733469975</v>
+        <v>0.04571975760611541</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.600435127247357</v>
+        <v>1.868613208692151</v>
       </c>
       <c r="H26" t="n">
-        <v>16.390456246922</v>
+        <v>19.1369350235185</v>
       </c>
       <c r="I26" t="n">
-        <v>61.70077524320379</v>
+        <v>72.03971072810423</v>
       </c>
       <c r="J26" t="n">
-        <v>135.8349308812105</v>
+        <v>158.5962103212356</v>
       </c>
       <c r="K26" t="n">
-        <v>203.5813498175912</v>
+        <v>237.6946074451744</v>
       </c>
       <c r="L26" t="n">
-        <v>252.5606663430875</v>
+        <v>294.8811789306869</v>
       </c>
       <c r="M26" t="n">
-        <v>281.0224045372727</v>
+        <v>315.1428903688449</v>
       </c>
       <c r="N26" t="n">
-        <v>279.8839375878409</v>
+        <v>314.0044234194131</v>
       </c>
       <c r="O26" t="n">
-        <v>269.6553140459984</v>
+        <v>314.8403037660299</v>
       </c>
       <c r="P26" t="n">
-        <v>230.1445718420792</v>
+        <v>268.7089151764424</v>
       </c>
       <c r="Q26" t="n">
-        <v>172.8289888475332</v>
+        <v>201.7892046401547</v>
       </c>
       <c r="R26" t="n">
-        <v>100.5333330619519</v>
+        <v>117.3792744705084</v>
       </c>
       <c r="S26" t="n">
-        <v>36.46991546214919</v>
+        <v>42.58102349307244</v>
       </c>
       <c r="T26" t="n">
-        <v>7.005904769525309</v>
+        <v>8.179854321049895</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1280348101797885</v>
+        <v>0.149489056695372</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8563082853003201</v>
+        <v>0.9997962087827871</v>
       </c>
       <c r="H27" t="n">
-        <v>8.27013528171625</v>
+        <v>9.655926542717971</v>
       </c>
       <c r="I27" t="n">
-        <v>29.48254403336629</v>
+        <v>34.42280806554772</v>
       </c>
       <c r="J27" t="n">
-        <v>80.90235427041316</v>
+        <v>94.45881637451762</v>
       </c>
       <c r="K27" t="n">
-        <v>138.2750093855346</v>
+        <v>161.4451623629644</v>
       </c>
       <c r="L27" t="n">
-        <v>169.0363433314465</v>
+        <v>203.1568291630186</v>
       </c>
       <c r="M27" t="n">
-        <v>173.4035213848624</v>
+        <v>207.5240072164345</v>
       </c>
       <c r="N27" t="n">
-        <v>160.2368887416667</v>
+        <v>194.3573745732388</v>
       </c>
       <c r="O27" t="n">
-        <v>173.9674182222222</v>
+        <v>206.70929856565</v>
       </c>
       <c r="P27" t="n">
         <v>163.4487770454829</v>
       </c>
       <c r="Q27" t="n">
-        <v>109.3070014709672</v>
+        <v>127.6231090369046</v>
       </c>
       <c r="R27" t="n">
-        <v>53.16622845048832</v>
+        <v>62.07506636635588</v>
       </c>
       <c r="S27" t="n">
-        <v>15.90555082564409</v>
+        <v>18.57077607103114</v>
       </c>
       <c r="T27" t="n">
-        <v>3.451523307855236</v>
+        <v>4.029880332769215</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05633607140133687</v>
+        <v>0.06577606636728865</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7179001011361613</v>
+        <v>0.838195556112115</v>
       </c>
       <c r="H28" t="n">
-        <v>6.382784535556056</v>
+        <v>7.45232048979681</v>
       </c>
       <c r="I28" t="n">
-        <v>21.58921395053111</v>
+        <v>25.20682636017161</v>
       </c>
       <c r="J28" t="n">
-        <v>50.7555371503266</v>
+        <v>59.26042581712653</v>
       </c>
       <c r="K28" t="n">
-        <v>83.40693902291035</v>
+        <v>97.38308370102571</v>
       </c>
       <c r="L28" t="n">
-        <v>106.7321659452798</v>
+        <v>124.6168193150685</v>
       </c>
       <c r="M28" t="n">
-        <v>112.5341040353712</v>
+        <v>131.3909634003745</v>
       </c>
       <c r="N28" t="n">
-        <v>109.8582945675001</v>
+        <v>128.2667799639567</v>
       </c>
       <c r="O28" t="n">
-        <v>101.4719161133185</v>
+        <v>118.475131876647</v>
       </c>
       <c r="P28" t="n">
-        <v>86.82675405014078</v>
+        <v>101.3759425319598</v>
       </c>
       <c r="Q28" t="n">
-        <v>60.11434392331984</v>
+        <v>70.18744788498812</v>
       </c>
       <c r="R28" t="n">
-        <v>32.27939909290411</v>
+        <v>37.68832018664109</v>
       </c>
       <c r="S28" t="n">
-        <v>12.51104085343655</v>
+        <v>14.60746255515385</v>
       </c>
       <c r="T28" t="n">
-        <v>3.067391341218143</v>
+        <v>3.581381012479036</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03915818733469975</v>
+        <v>0.04571975760611541</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.600435127247357</v>
+        <v>1.868613208692151</v>
       </c>
       <c r="H29" t="n">
-        <v>16.390456246922</v>
+        <v>19.1369350235185</v>
       </c>
       <c r="I29" t="n">
-        <v>61.70077524320381</v>
+        <v>72.03971072810423</v>
       </c>
       <c r="J29" t="n">
-        <v>135.8349308812105</v>
+        <v>158.5962103212356</v>
       </c>
       <c r="K29" t="n">
-        <v>203.5813498175912</v>
+        <v>237.6946074451744</v>
       </c>
       <c r="L29" t="n">
-        <v>252.5606663430875</v>
+        <v>294.8811789306869</v>
       </c>
       <c r="M29" t="n">
-        <v>281.0224045372727</v>
+        <v>315.1428903688449</v>
       </c>
       <c r="N29" t="n">
-        <v>279.8839375878409</v>
+        <v>314.0044234194131</v>
       </c>
       <c r="O29" t="n">
-        <v>269.6553140459984</v>
+        <v>314.8403037660299</v>
       </c>
       <c r="P29" t="n">
-        <v>230.1445718420792</v>
+        <v>268.7089151764424</v>
       </c>
       <c r="Q29" t="n">
-        <v>172.8289888475332</v>
+        <v>201.7892046401547</v>
       </c>
       <c r="R29" t="n">
-        <v>100.5333330619519</v>
+        <v>117.3792744705084</v>
       </c>
       <c r="S29" t="n">
-        <v>36.46991546214919</v>
+        <v>42.58102349307244</v>
       </c>
       <c r="T29" t="n">
-        <v>7.00590476952531</v>
+        <v>8.179854321049895</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1280348101797886</v>
+        <v>0.149489056695372</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8563082853003202</v>
+        <v>0.9997962087827871</v>
       </c>
       <c r="H30" t="n">
-        <v>8.270135281716252</v>
+        <v>9.655926542717971</v>
       </c>
       <c r="I30" t="n">
-        <v>29.48254403336629</v>
+        <v>34.42280806554772</v>
       </c>
       <c r="J30" t="n">
-        <v>80.90235427041316</v>
+        <v>94.45881637451762</v>
       </c>
       <c r="K30" t="n">
-        <v>138.2750093855346</v>
+        <v>161.4451623629644</v>
       </c>
       <c r="L30" t="n">
-        <v>169.0363433314465</v>
+        <v>203.1568291630186</v>
       </c>
       <c r="M30" t="n">
-        <v>173.4035213848624</v>
+        <v>207.5240072164345</v>
       </c>
       <c r="N30" t="n">
-        <v>160.2368887416667</v>
+        <v>165.5103209639765</v>
       </c>
       <c r="O30" t="n">
-        <v>173.9674182222222</v>
+        <v>208.0879040537943</v>
       </c>
       <c r="P30" t="n">
-        <v>163.4487770454829</v>
+        <v>190.9172251666008</v>
       </c>
       <c r="Q30" t="n">
-        <v>109.3070014709672</v>
+        <v>127.6231090369046</v>
       </c>
       <c r="R30" t="n">
-        <v>53.16622845048833</v>
+        <v>62.07506636635588</v>
       </c>
       <c r="S30" t="n">
-        <v>15.90555082564409</v>
+        <v>18.57077607103114</v>
       </c>
       <c r="T30" t="n">
-        <v>3.451523307855237</v>
+        <v>4.029880332769215</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05633607140133688</v>
+        <v>0.06577606636728865</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7179001011361613</v>
+        <v>0.838195556112115</v>
       </c>
       <c r="H31" t="n">
-        <v>6.382784535556058</v>
+        <v>7.45232048979681</v>
       </c>
       <c r="I31" t="n">
-        <v>21.58921395053111</v>
+        <v>25.20682636017161</v>
       </c>
       <c r="J31" t="n">
-        <v>50.7555371503266</v>
+        <v>59.26042581712653</v>
       </c>
       <c r="K31" t="n">
-        <v>83.40693902291036</v>
+        <v>97.38308370102571</v>
       </c>
       <c r="L31" t="n">
-        <v>106.7321659452799</v>
+        <v>124.6168193150685</v>
       </c>
       <c r="M31" t="n">
-        <v>112.5341040353712</v>
+        <v>131.3909634003745</v>
       </c>
       <c r="N31" t="n">
-        <v>109.8582945675001</v>
+        <v>128.2667799639567</v>
       </c>
       <c r="O31" t="n">
-        <v>101.4719161133186</v>
+        <v>118.475131876647</v>
       </c>
       <c r="P31" t="n">
-        <v>86.82675405014078</v>
+        <v>101.3759425319598</v>
       </c>
       <c r="Q31" t="n">
-        <v>60.11434392331984</v>
+        <v>70.18744788498812</v>
       </c>
       <c r="R31" t="n">
-        <v>32.27939909290412</v>
+        <v>37.68832018664109</v>
       </c>
       <c r="S31" t="n">
-        <v>12.51104085343655</v>
+        <v>14.60746255515385</v>
       </c>
       <c r="T31" t="n">
-        <v>3.067391341218143</v>
+        <v>3.581381012479036</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03915818733469976</v>
+        <v>0.04571975760611541</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.600435127247357</v>
+        <v>1.868613208692151</v>
       </c>
       <c r="H32" t="n">
-        <v>16.390456246922</v>
+        <v>19.1369350235185</v>
       </c>
       <c r="I32" t="n">
-        <v>61.70077524320379</v>
+        <v>72.03971072810423</v>
       </c>
       <c r="J32" t="n">
-        <v>135.8349308812105</v>
+        <v>158.5962103212356</v>
       </c>
       <c r="K32" t="n">
-        <v>203.5813498175912</v>
+        <v>237.6946074451744</v>
       </c>
       <c r="L32" t="n">
-        <v>252.5606663430875</v>
+        <v>294.8811789306869</v>
       </c>
       <c r="M32" t="n">
-        <v>281.0224045372727</v>
+        <v>315.1428903688449</v>
       </c>
       <c r="N32" t="n">
-        <v>279.8839375878409</v>
+        <v>314.0044234194131</v>
       </c>
       <c r="O32" t="n">
-        <v>269.6553140459984</v>
+        <v>314.8403037660299</v>
       </c>
       <c r="P32" t="n">
-        <v>230.1445718420792</v>
+        <v>268.7089151764424</v>
       </c>
       <c r="Q32" t="n">
-        <v>172.8289888475332</v>
+        <v>201.7892046401547</v>
       </c>
       <c r="R32" t="n">
-        <v>100.5333330619519</v>
+        <v>117.3792744705084</v>
       </c>
       <c r="S32" t="n">
-        <v>36.46991546214919</v>
+        <v>42.58102349307244</v>
       </c>
       <c r="T32" t="n">
-        <v>7.005904769525309</v>
+        <v>8.179854321049895</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1280348101797885</v>
+        <v>0.149489056695372</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8563082853003201</v>
+        <v>0.9997962087827871</v>
       </c>
       <c r="H33" t="n">
-        <v>8.27013528171625</v>
+        <v>9.655926542717971</v>
       </c>
       <c r="I33" t="n">
-        <v>29.48254403336629</v>
+        <v>34.42280806554772</v>
       </c>
       <c r="J33" t="n">
-        <v>80.90235427041316</v>
+        <v>94.45881637451762</v>
       </c>
       <c r="K33" t="n">
-        <v>138.2750093855346</v>
+        <v>161.4451623629644</v>
       </c>
       <c r="L33" t="n">
-        <v>169.0363433314465</v>
+        <v>203.1568291630186</v>
       </c>
       <c r="M33" t="n">
-        <v>173.4035213848624</v>
+        <v>207.5240072164345</v>
       </c>
       <c r="N33" t="n">
-        <v>160.2368887416667</v>
+        <v>194.3573745732388</v>
       </c>
       <c r="O33" t="n">
-        <v>173.9674182222222</v>
+        <v>179.2408504445321</v>
       </c>
       <c r="P33" t="n">
-        <v>163.4487770454829</v>
+        <v>190.9172251666008</v>
       </c>
       <c r="Q33" t="n">
-        <v>109.3070014709672</v>
+        <v>127.6231090369046</v>
       </c>
       <c r="R33" t="n">
-        <v>53.16622845048832</v>
+        <v>62.07506636635588</v>
       </c>
       <c r="S33" t="n">
-        <v>15.90555082564409</v>
+        <v>18.57077607103114</v>
       </c>
       <c r="T33" t="n">
-        <v>3.451523307855236</v>
+        <v>4.029880332769215</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05633607140133687</v>
+        <v>0.06577606636728865</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7179001011361613</v>
+        <v>0.838195556112115</v>
       </c>
       <c r="H34" t="n">
-        <v>6.382784535556056</v>
+        <v>7.45232048979681</v>
       </c>
       <c r="I34" t="n">
-        <v>21.58921395053111</v>
+        <v>25.20682636017161</v>
       </c>
       <c r="J34" t="n">
-        <v>50.7555371503266</v>
+        <v>59.26042581712653</v>
       </c>
       <c r="K34" t="n">
-        <v>83.40693902291035</v>
+        <v>97.38308370102571</v>
       </c>
       <c r="L34" t="n">
-        <v>106.7321659452798</v>
+        <v>124.6168193150685</v>
       </c>
       <c r="M34" t="n">
-        <v>112.5341040353712</v>
+        <v>131.3909634003745</v>
       </c>
       <c r="N34" t="n">
-        <v>109.8582945675001</v>
+        <v>128.2667799639567</v>
       </c>
       <c r="O34" t="n">
-        <v>101.4719161133185</v>
+        <v>118.475131876647</v>
       </c>
       <c r="P34" t="n">
-        <v>86.82675405014078</v>
+        <v>101.3759425319598</v>
       </c>
       <c r="Q34" t="n">
-        <v>60.11434392331984</v>
+        <v>70.18744788498812</v>
       </c>
       <c r="R34" t="n">
-        <v>32.27939909290411</v>
+        <v>37.68832018664109</v>
       </c>
       <c r="S34" t="n">
-        <v>12.51104085343655</v>
+        <v>14.60746255515385</v>
       </c>
       <c r="T34" t="n">
-        <v>3.067391341218143</v>
+        <v>3.581381012479036</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03915818733469975</v>
+        <v>0.04571975760611541</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.600435127247357</v>
+        <v>1.868613208692151</v>
       </c>
       <c r="H35" t="n">
-        <v>16.390456246922</v>
+        <v>19.1369350235185</v>
       </c>
       <c r="I35" t="n">
-        <v>61.70077524320379</v>
+        <v>72.03971072810423</v>
       </c>
       <c r="J35" t="n">
-        <v>135.8349308812105</v>
+        <v>158.5962103212356</v>
       </c>
       <c r="K35" t="n">
-        <v>203.5813498175912</v>
+        <v>237.6946074451744</v>
       </c>
       <c r="L35" t="n">
-        <v>252.5606663430875</v>
+        <v>294.8811789306869</v>
       </c>
       <c r="M35" t="n">
-        <v>281.0224045372727</v>
+        <v>315.1428903688449</v>
       </c>
       <c r="N35" t="n">
-        <v>279.8839375878409</v>
+        <v>314.0044234194131</v>
       </c>
       <c r="O35" t="n">
-        <v>269.6553140459984</v>
+        <v>314.8403037660299</v>
       </c>
       <c r="P35" t="n">
-        <v>230.1445718420792</v>
+        <v>268.7089151764424</v>
       </c>
       <c r="Q35" t="n">
-        <v>172.8289888475332</v>
+        <v>201.7892046401547</v>
       </c>
       <c r="R35" t="n">
-        <v>100.5333330619519</v>
+        <v>117.3792744705084</v>
       </c>
       <c r="S35" t="n">
-        <v>36.46991546214919</v>
+        <v>42.58102349307244</v>
       </c>
       <c r="T35" t="n">
-        <v>7.005904769525309</v>
+        <v>8.179854321049895</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1280348101797885</v>
+        <v>0.149489056695372</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8563082853003201</v>
+        <v>0.9997962087827871</v>
       </c>
       <c r="H36" t="n">
-        <v>8.27013528171625</v>
+        <v>9.655926542717971</v>
       </c>
       <c r="I36" t="n">
-        <v>29.48254403336629</v>
+        <v>34.42280806554772</v>
       </c>
       <c r="J36" t="n">
-        <v>80.90235427041316</v>
+        <v>94.45881637451762</v>
       </c>
       <c r="K36" t="n">
-        <v>138.2750093855346</v>
+        <v>161.4451623629644</v>
       </c>
       <c r="L36" t="n">
-        <v>169.0363433314465</v>
+        <v>203.1568291630186</v>
       </c>
       <c r="M36" t="n">
-        <v>173.4035213848624</v>
+        <v>178.6769536071722</v>
       </c>
       <c r="N36" t="n">
-        <v>160.2368887416667</v>
+        <v>194.3573745732388</v>
       </c>
       <c r="O36" t="n">
-        <v>173.9674182222222</v>
+        <v>208.0879040537943</v>
       </c>
       <c r="P36" t="n">
-        <v>163.4487770454829</v>
+        <v>190.9172251666008</v>
       </c>
       <c r="Q36" t="n">
-        <v>109.3070014709672</v>
+        <v>127.6231090369046</v>
       </c>
       <c r="R36" t="n">
-        <v>53.16622845048832</v>
+        <v>62.07506636635588</v>
       </c>
       <c r="S36" t="n">
-        <v>15.90555082564409</v>
+        <v>18.57077607103114</v>
       </c>
       <c r="T36" t="n">
-        <v>3.451523307855236</v>
+        <v>4.029880332769215</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05633607140133687</v>
+        <v>0.06577606636728865</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7179001011361613</v>
+        <v>0.838195556112115</v>
       </c>
       <c r="H37" t="n">
-        <v>6.382784535556056</v>
+        <v>7.45232048979681</v>
       </c>
       <c r="I37" t="n">
-        <v>21.58921395053111</v>
+        <v>25.20682636017161</v>
       </c>
       <c r="J37" t="n">
-        <v>50.7555371503266</v>
+        <v>59.26042581712653</v>
       </c>
       <c r="K37" t="n">
-        <v>83.40693902291035</v>
+        <v>97.38308370102571</v>
       </c>
       <c r="L37" t="n">
-        <v>106.7321659452798</v>
+        <v>124.6168193150685</v>
       </c>
       <c r="M37" t="n">
-        <v>112.5341040353712</v>
+        <v>131.3909634003745</v>
       </c>
       <c r="N37" t="n">
-        <v>109.8582945675001</v>
+        <v>128.2667799639567</v>
       </c>
       <c r="O37" t="n">
-        <v>101.4719161133185</v>
+        <v>118.475131876647</v>
       </c>
       <c r="P37" t="n">
-        <v>86.82675405014078</v>
+        <v>101.3759425319598</v>
       </c>
       <c r="Q37" t="n">
-        <v>60.11434392331984</v>
+        <v>70.18744788498812</v>
       </c>
       <c r="R37" t="n">
-        <v>32.27939909290411</v>
+        <v>37.68832018664109</v>
       </c>
       <c r="S37" t="n">
-        <v>12.51104085343655</v>
+        <v>14.60746255515385</v>
       </c>
       <c r="T37" t="n">
-        <v>3.067391341218143</v>
+        <v>3.581381012479036</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03915818733469975</v>
+        <v>0.04571975760611541</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.600435127247357</v>
+        <v>1.868613208692151</v>
       </c>
       <c r="H38" t="n">
-        <v>16.390456246922</v>
+        <v>19.1369350235185</v>
       </c>
       <c r="I38" t="n">
-        <v>61.70077524320379</v>
+        <v>72.03971072810423</v>
       </c>
       <c r="J38" t="n">
-        <v>135.8349308812105</v>
+        <v>158.5962103212356</v>
       </c>
       <c r="K38" t="n">
-        <v>203.5813498175912</v>
+        <v>237.6946074451744</v>
       </c>
       <c r="L38" t="n">
-        <v>252.5606663430875</v>
+        <v>294.8811789306869</v>
       </c>
       <c r="M38" t="n">
-        <v>281.0224045372727</v>
+        <v>315.1428903688449</v>
       </c>
       <c r="N38" t="n">
-        <v>279.8839375878409</v>
+        <v>314.0044234194131</v>
       </c>
       <c r="O38" t="n">
-        <v>269.6553140459984</v>
+        <v>314.8403037660299</v>
       </c>
       <c r="P38" t="n">
-        <v>230.1445718420792</v>
+        <v>268.7089151764424</v>
       </c>
       <c r="Q38" t="n">
-        <v>172.8289888475332</v>
+        <v>201.7892046401547</v>
       </c>
       <c r="R38" t="n">
-        <v>100.5333330619519</v>
+        <v>117.3792744705084</v>
       </c>
       <c r="S38" t="n">
-        <v>36.46991546214919</v>
+        <v>42.58102349307244</v>
       </c>
       <c r="T38" t="n">
-        <v>7.005904769525309</v>
+        <v>8.179854321049895</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1280348101797885</v>
+        <v>0.149489056695372</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8563082853003201</v>
+        <v>0.9997962087827871</v>
       </c>
       <c r="H39" t="n">
-        <v>8.27013528171625</v>
+        <v>9.655926542717971</v>
       </c>
       <c r="I39" t="n">
-        <v>29.48254403336629</v>
+        <v>34.42280806554772</v>
       </c>
       <c r="J39" t="n">
-        <v>80.90235427041316</v>
+        <v>94.45881637451762</v>
       </c>
       <c r="K39" t="n">
-        <v>138.2750093855346</v>
+        <v>161.4451623629644</v>
       </c>
       <c r="L39" t="n">
-        <v>169.0363433314465</v>
+        <v>203.1568291630186</v>
       </c>
       <c r="M39" t="n">
-        <v>173.4035213848624</v>
+        <v>207.5240072164345</v>
       </c>
       <c r="N39" t="n">
-        <v>160.2368887416667</v>
+        <v>194.3573745732388</v>
       </c>
       <c r="O39" t="n">
-        <v>173.9674182222222</v>
+        <v>206.70929856565</v>
       </c>
       <c r="P39" t="n">
         <v>163.4487770454829</v>
       </c>
       <c r="Q39" t="n">
-        <v>109.3070014709672</v>
+        <v>127.6231090369046</v>
       </c>
       <c r="R39" t="n">
-        <v>53.16622845048832</v>
+        <v>62.07506636635588</v>
       </c>
       <c r="S39" t="n">
-        <v>15.90555082564409</v>
+        <v>18.57077607103114</v>
       </c>
       <c r="T39" t="n">
-        <v>3.451523307855236</v>
+        <v>4.029880332769215</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05633607140133687</v>
+        <v>0.06577606636728865</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7179001011361613</v>
+        <v>0.838195556112115</v>
       </c>
       <c r="H40" t="n">
-        <v>6.382784535556056</v>
+        <v>7.45232048979681</v>
       </c>
       <c r="I40" t="n">
-        <v>21.58921395053111</v>
+        <v>25.20682636017161</v>
       </c>
       <c r="J40" t="n">
-        <v>50.7555371503266</v>
+        <v>59.26042581712653</v>
       </c>
       <c r="K40" t="n">
-        <v>83.40693902291035</v>
+        <v>97.38308370102571</v>
       </c>
       <c r="L40" t="n">
-        <v>106.7321659452798</v>
+        <v>124.6168193150685</v>
       </c>
       <c r="M40" t="n">
-        <v>112.5341040353712</v>
+        <v>131.3909634003745</v>
       </c>
       <c r="N40" t="n">
-        <v>109.8582945675001</v>
+        <v>128.2667799639567</v>
       </c>
       <c r="O40" t="n">
-        <v>101.4719161133185</v>
+        <v>118.475131876647</v>
       </c>
       <c r="P40" t="n">
-        <v>86.82675405014078</v>
+        <v>101.3759425319598</v>
       </c>
       <c r="Q40" t="n">
-        <v>60.11434392331984</v>
+        <v>70.18744788498812</v>
       </c>
       <c r="R40" t="n">
-        <v>32.27939909290411</v>
+        <v>37.68832018664109</v>
       </c>
       <c r="S40" t="n">
-        <v>12.51104085343655</v>
+        <v>14.60746255515385</v>
       </c>
       <c r="T40" t="n">
-        <v>3.067391341218143</v>
+        <v>3.581381012479036</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03915818733469975</v>
+        <v>0.04571975760611541</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.600435127247357</v>
+        <v>1.868613208692151</v>
       </c>
       <c r="H41" t="n">
-        <v>16.390456246922</v>
+        <v>19.1369350235185</v>
       </c>
       <c r="I41" t="n">
-        <v>61.70077524320379</v>
+        <v>72.03971072810423</v>
       </c>
       <c r="J41" t="n">
-        <v>135.8349308812105</v>
+        <v>158.5962103212356</v>
       </c>
       <c r="K41" t="n">
-        <v>203.5813498175912</v>
+        <v>237.6946074451744</v>
       </c>
       <c r="L41" t="n">
-        <v>252.5606663430875</v>
+        <v>294.8811789306869</v>
       </c>
       <c r="M41" t="n">
-        <v>281.0224045372727</v>
+        <v>315.1428903688449</v>
       </c>
       <c r="N41" t="n">
-        <v>279.8839375878409</v>
+        <v>314.0044234194131</v>
       </c>
       <c r="O41" t="n">
-        <v>269.6553140459984</v>
+        <v>314.8403037660299</v>
       </c>
       <c r="P41" t="n">
-        <v>230.1445718420792</v>
+        <v>268.7089151764424</v>
       </c>
       <c r="Q41" t="n">
-        <v>172.8289888475332</v>
+        <v>201.7892046401547</v>
       </c>
       <c r="R41" t="n">
-        <v>100.5333330619519</v>
+        <v>117.3792744705084</v>
       </c>
       <c r="S41" t="n">
-        <v>36.46991546214919</v>
+        <v>42.58102349307244</v>
       </c>
       <c r="T41" t="n">
-        <v>7.005904769525309</v>
+        <v>8.179854321049895</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1280348101797885</v>
+        <v>0.149489056695372</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8563082853003201</v>
+        <v>0.9997962087827871</v>
       </c>
       <c r="H42" t="n">
-        <v>8.27013528171625</v>
+        <v>9.655926542717971</v>
       </c>
       <c r="I42" t="n">
-        <v>29.48254403336629</v>
+        <v>34.42280806554772</v>
       </c>
       <c r="J42" t="n">
-        <v>80.90235427041316</v>
+        <v>94.45881637451762</v>
       </c>
       <c r="K42" t="n">
-        <v>138.2750093855346</v>
+        <v>161.4451623629644</v>
       </c>
       <c r="L42" t="n">
-        <v>169.0363433314465</v>
+        <v>203.1568291630186</v>
       </c>
       <c r="M42" t="n">
-        <v>173.4035213848624</v>
+        <v>207.5240072164345</v>
       </c>
       <c r="N42" t="n">
-        <v>160.2368887416667</v>
+        <v>194.3573745732388</v>
       </c>
       <c r="O42" t="n">
-        <v>173.9674182222222</v>
+        <v>179.2408504445321</v>
       </c>
       <c r="P42" t="n">
-        <v>163.4487770454829</v>
+        <v>190.9172251666008</v>
       </c>
       <c r="Q42" t="n">
-        <v>109.3070014709672</v>
+        <v>127.6231090369046</v>
       </c>
       <c r="R42" t="n">
-        <v>53.16622845048832</v>
+        <v>62.07506636635588</v>
       </c>
       <c r="S42" t="n">
-        <v>15.90555082564409</v>
+        <v>18.57077607103114</v>
       </c>
       <c r="T42" t="n">
-        <v>3.451523307855236</v>
+        <v>4.029880332769215</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05633607140133687</v>
+        <v>0.06577606636728865</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7179001011361613</v>
+        <v>0.838195556112115</v>
       </c>
       <c r="H43" t="n">
-        <v>6.382784535556056</v>
+        <v>7.45232048979681</v>
       </c>
       <c r="I43" t="n">
-        <v>21.58921395053111</v>
+        <v>25.20682636017161</v>
       </c>
       <c r="J43" t="n">
-        <v>50.7555371503266</v>
+        <v>59.26042581712653</v>
       </c>
       <c r="K43" t="n">
-        <v>83.40693902291035</v>
+        <v>97.38308370102571</v>
       </c>
       <c r="L43" t="n">
-        <v>106.7321659452798</v>
+        <v>124.6168193150685</v>
       </c>
       <c r="M43" t="n">
-        <v>112.5341040353712</v>
+        <v>131.3909634003745</v>
       </c>
       <c r="N43" t="n">
-        <v>109.8582945675001</v>
+        <v>128.2667799639567</v>
       </c>
       <c r="O43" t="n">
-        <v>101.4719161133185</v>
+        <v>118.475131876647</v>
       </c>
       <c r="P43" t="n">
-        <v>86.82675405014078</v>
+        <v>101.3759425319598</v>
       </c>
       <c r="Q43" t="n">
-        <v>60.11434392331984</v>
+        <v>70.18744788498812</v>
       </c>
       <c r="R43" t="n">
-        <v>32.27939909290411</v>
+        <v>37.68832018664109</v>
       </c>
       <c r="S43" t="n">
-        <v>12.51104085343655</v>
+        <v>14.60746255515385</v>
       </c>
       <c r="T43" t="n">
-        <v>3.067391341218143</v>
+        <v>3.581381012479036</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03915818733469975</v>
+        <v>0.04571975760611541</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.600435127247357</v>
+        <v>1.868613208692151</v>
       </c>
       <c r="H44" t="n">
-        <v>16.390456246922</v>
+        <v>19.1369350235185</v>
       </c>
       <c r="I44" t="n">
-        <v>61.70077524320379</v>
+        <v>72.03971072810423</v>
       </c>
       <c r="J44" t="n">
-        <v>135.8349308812105</v>
+        <v>158.5962103212356</v>
       </c>
       <c r="K44" t="n">
-        <v>203.5813498175912</v>
+        <v>237.6946074451744</v>
       </c>
       <c r="L44" t="n">
-        <v>252.5606663430875</v>
+        <v>294.8811789306869</v>
       </c>
       <c r="M44" t="n">
-        <v>281.0224045372727</v>
+        <v>315.1428903688449</v>
       </c>
       <c r="N44" t="n">
-        <v>279.8839375878409</v>
+        <v>314.0044234194131</v>
       </c>
       <c r="O44" t="n">
-        <v>269.6553140459984</v>
+        <v>314.8403037660299</v>
       </c>
       <c r="P44" t="n">
-        <v>230.1445718420792</v>
+        <v>268.7089151764424</v>
       </c>
       <c r="Q44" t="n">
-        <v>172.8289888475332</v>
+        <v>201.7892046401547</v>
       </c>
       <c r="R44" t="n">
-        <v>100.5333330619519</v>
+        <v>117.3792744705084</v>
       </c>
       <c r="S44" t="n">
-        <v>36.46991546214919</v>
+        <v>42.58102349307244</v>
       </c>
       <c r="T44" t="n">
-        <v>7.005904769525309</v>
+        <v>8.179854321049895</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1280348101797885</v>
+        <v>0.149489056695372</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8563082853003201</v>
+        <v>0.9997962087827871</v>
       </c>
       <c r="H45" t="n">
-        <v>8.27013528171625</v>
+        <v>9.655926542717971</v>
       </c>
       <c r="I45" t="n">
-        <v>29.48254403336629</v>
+        <v>34.42280806554772</v>
       </c>
       <c r="J45" t="n">
-        <v>80.90235427041316</v>
+        <v>94.45881637451762</v>
       </c>
       <c r="K45" t="n">
-        <v>138.2750093855346</v>
+        <v>161.4451623629644</v>
       </c>
       <c r="L45" t="n">
-        <v>169.0363433314465</v>
+        <v>203.1568291630186</v>
       </c>
       <c r="M45" t="n">
-        <v>173.4035213848624</v>
+        <v>178.6769536071722</v>
       </c>
       <c r="N45" t="n">
-        <v>160.2368887416667</v>
+        <v>194.3573745732388</v>
       </c>
       <c r="O45" t="n">
-        <v>173.9674182222222</v>
+        <v>208.0879040537943</v>
       </c>
       <c r="P45" t="n">
-        <v>163.4487770454829</v>
+        <v>190.9172251666008</v>
       </c>
       <c r="Q45" t="n">
-        <v>109.3070014709672</v>
+        <v>127.6231090369046</v>
       </c>
       <c r="R45" t="n">
-        <v>53.16622845048832</v>
+        <v>62.07506636635588</v>
       </c>
       <c r="S45" t="n">
-        <v>15.90555082564409</v>
+        <v>18.57077607103114</v>
       </c>
       <c r="T45" t="n">
-        <v>3.451523307855236</v>
+        <v>4.029880332769215</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05633607140133687</v>
+        <v>0.06577606636728865</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7179001011361613</v>
+        <v>0.838195556112115</v>
       </c>
       <c r="H46" t="n">
-        <v>6.382784535556056</v>
+        <v>7.45232048979681</v>
       </c>
       <c r="I46" t="n">
-        <v>21.58921395053111</v>
+        <v>25.20682636017161</v>
       </c>
       <c r="J46" t="n">
-        <v>50.7555371503266</v>
+        <v>59.26042581712653</v>
       </c>
       <c r="K46" t="n">
-        <v>83.40693902291035</v>
+        <v>97.38308370102571</v>
       </c>
       <c r="L46" t="n">
-        <v>106.7321659452798</v>
+        <v>124.6168193150685</v>
       </c>
       <c r="M46" t="n">
-        <v>112.5341040353712</v>
+        <v>131.3909634003745</v>
       </c>
       <c r="N46" t="n">
-        <v>109.8582945675001</v>
+        <v>128.2667799639567</v>
       </c>
       <c r="O46" t="n">
-        <v>101.4719161133185</v>
+        <v>118.475131876647</v>
       </c>
       <c r="P46" t="n">
-        <v>86.82675405014078</v>
+        <v>101.3759425319598</v>
       </c>
       <c r="Q46" t="n">
-        <v>60.11434392331984</v>
+        <v>70.18744788498812</v>
       </c>
       <c r="R46" t="n">
-        <v>32.27939909290411</v>
+        <v>37.68832018664109</v>
       </c>
       <c r="S46" t="n">
-        <v>12.51104085343655</v>
+        <v>14.60746255515385</v>
       </c>
       <c r="T46" t="n">
-        <v>3.067391341218143</v>
+        <v>3.581381012479036</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03915818733469975</v>
+        <v>0.04571975760611541</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36361,16 +36363,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>7.246152667302454</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36440,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>5.27343222230988</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>27.46844812111792</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36598,16 +36600,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>7.246152667302454</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36677,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>32.7418803434278</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36835,16 +36837,16 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>7.246152667302454</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36914,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>5.273432222309889</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>27.46844812111792</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37072,16 +37074,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>7.246152667302454</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37151,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>5.273432222309889</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>27.46844812111792</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37309,16 +37311,16 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>7.246152667302454</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37388,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>5.273432222309882</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>27.46844812111792</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37546,16 +37548,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>7.246152667302454</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37625,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>32.7418803434278</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37783,16 +37785,16 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>7.246152667302454</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37862,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>5.273432222309889</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>27.46844812111792</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38020,16 +38022,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>7.246152667302454</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38099,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>5.273432222309882</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>34.12048583157213</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>27.46844812111792</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_19_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_19_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>122640.2349417448</v>
+        <v>-10750.49007388581</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23538010.89887846</v>
+        <v>23520585.36040892</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4168881.756418483</v>
+        <v>4180965.948669426</v>
       </c>
     </row>
     <row r="11">
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>11.97174400145691</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>12.731834522447</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>12.731834522447</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>11.21419984737132</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1985,13 +1985,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>12.731834522447</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>12.731834522447</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>12.731834522447</v>
       </c>
     </row>
     <row r="19">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>11.97174400145691</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>12.731834522447</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>12.731834522447</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>11.21419984737131</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>12.731834522447</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2222,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>12.731834522447</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>12.731834522447</v>
       </c>
     </row>
     <row r="22">
@@ -2320,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>5.064961225078286</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2374,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>28.21331155043497</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2414,10 +2414,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>30.05332392044872</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2441,10 +2441,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2456,13 +2456,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>36.30702494883543</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>10.01135181370561</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>29.0955824135342</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>30.81501082970189</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2596,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>13.39533964498645</v>
+        <v>18.20195973672935</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>41.22050970576231</v>
       </c>
     </row>
     <row r="27">
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2678,25 +2678,25 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>36.30702494883543</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>30.05332392044872</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2803,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>5.064961225078286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>34.12048583157213</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>28.21331155043497</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>30.05332392044873</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2882,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2915,22 +2915,22 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>36.30702494883543</v>
       </c>
       <c r="R30" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -3037,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.064961225078286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>28.21331155043497</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="V32" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3152,25 +3152,25 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>34.12048583157213</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>36.30702494883543</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>30.05332392044873</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3310,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>5.064961225078295</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>28.21331155043497</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3389,31 +3389,31 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>36.30702494883543</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="W36" t="n">
-        <v>34.12048583157213</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>30.05332392044872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>5.064961225078295</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>28.21331155043497</v>
       </c>
     </row>
     <row r="39">
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3626,19 +3626,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="S39" t="n">
-        <v>30.05332392044873</v>
+        <v>36.30702494883543</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3748,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>5.064961225078295</v>
+        <v>28.48867518331531</v>
       </c>
       <c r="F41" t="n">
-        <v>34.12048583157213</v>
+        <v>28.48867518331531</v>
       </c>
       <c r="G41" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>28.48867518331531</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>0.2313633811130613</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>30.05332392044872</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>9.609297223544672</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -3866,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>28.48867518331531</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>28.48867518331531</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>28.48867518331531</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>15.48352787791944</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>28.48867518331531</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>28.48867518331531</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>28.48867518331531</v>
       </c>
       <c r="U44" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>0.2313633811130626</v>
       </c>
       <c r="X44" t="n">
-        <v>5.064961225078295</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>30.05332392044873</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>34.12048583157213</v>
+        <v>15.48352787791944</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4079,10 +4079,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>34.12048583157213</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>9.609297223544672</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -4100,10 +4100,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.12048583157213</v>
+        <v>28.48867518331531</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>28.48867518331531</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>28.48867518331531</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>13.11121747033809</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>13.11121747033809</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>13.11121747033809</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>13.11121747033809</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>13.11121747033809</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>13.62306293901829</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>26.22757911624083</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>38.83209529346335</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>38.83209529346335</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>25.97165638190072</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>25.97165638190072</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>25.97165638190072</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>25.97165638190072</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>25.97165638190072</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>25.97165638190072</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>13.11121747033809</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>13.11121747033809</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>13.11121747033809</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>13.62306293901829</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>26.22757911624083</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>38.83209529346335</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>50.92733808978801</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>50.92733808978801</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>50.92733808978801</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>50.92733808978801</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>50.92733808978801</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>39.59986349648365</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>39.59986349648365</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>39.59986349648365</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>26.73942458492102</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>13.87898567335839</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>13.87898567335839</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>13.62306293901829</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>26.22757911624083</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>38.83209529346335</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>38.83209529346335</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>38.83209529346335</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>38.83209529346335</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>38.83209529346335</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>38.83209529346335</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>38.83209529346335</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>38.83209529346335</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>38.83209529346335</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>38.83209529346335</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>25.97165638190072</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>13.62306293901829</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>26.22757911624083</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>38.83209529346335</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>50.92733808978801</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>50.92733808978801</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>38.06689917822538</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>38.06689917822538</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>38.06689917822538</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>38.06689917822538</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>38.06689917822538</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>38.06689917822538</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>25.20646026666275</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>25.20646026666275</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>12.34602135510012</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1.01854676179576</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.77603572331621</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="C23" t="n">
-        <v>42.310898519708</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="D23" t="n">
-        <v>7.845761316099797</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="E23" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="F23" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="G23" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="H23" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="I23" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="J23" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="K23" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="L23" t="n">
-        <v>9.9033300071552</v>
+        <v>5.249294604296329</v>
       </c>
       <c r="M23" t="n">
-        <v>43.6826109804116</v>
+        <v>46.05759921300102</v>
       </c>
       <c r="N23" t="n">
-        <v>77.46189195366802</v>
+        <v>86.8659038217057</v>
       </c>
       <c r="O23" t="n">
-        <v>111.2411729269244</v>
+        <v>115.0696922531879</v>
       </c>
       <c r="P23" t="n">
-        <v>111.2411729269244</v>
+        <v>115.0696922531879</v>
       </c>
       <c r="Q23" t="n">
-        <v>111.2411729269244</v>
+        <v>115.0696922531879</v>
       </c>
       <c r="R23" t="n">
-        <v>76.77603572331621</v>
+        <v>115.0696922531879</v>
       </c>
       <c r="S23" t="n">
-        <v>76.77603572331621</v>
+        <v>115.0696922531879</v>
       </c>
       <c r="T23" t="n">
-        <v>76.77603572331621</v>
+        <v>115.0696922531879</v>
       </c>
       <c r="U23" t="n">
-        <v>76.77603572331621</v>
+        <v>73.43281376251885</v>
       </c>
       <c r="V23" t="n">
-        <v>76.77603572331621</v>
+        <v>44.93451926712999</v>
       </c>
       <c r="W23" t="n">
-        <v>76.77603572331621</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="X23" t="n">
-        <v>76.77603572331621</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="Y23" t="n">
-        <v>76.77603572331621</v>
+        <v>3.297640776460985</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>102.0168061226803</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="C24" t="n">
-        <v>102.0168061226803</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="D24" t="n">
-        <v>102.0168061226803</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="E24" t="n">
-        <v>67.55166891907209</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="F24" t="n">
-        <v>67.55166891907209</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="G24" t="n">
-        <v>67.55166891907209</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="H24" t="n">
-        <v>33.08653171546388</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="I24" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="J24" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="K24" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="L24" t="n">
-        <v>7.950336766612551</v>
+        <v>42.45712499693518</v>
       </c>
       <c r="M24" t="n">
-        <v>41.72961773986896</v>
+        <v>83.26542960563987</v>
       </c>
       <c r="N24" t="n">
-        <v>75.50889871312536</v>
+        <v>124.0737342143446</v>
       </c>
       <c r="O24" t="n">
-        <v>109.2881796863818</v>
+        <v>164.8820388230492</v>
       </c>
       <c r="P24" t="n">
-        <v>136.4819433262885</v>
+        <v>164.8820388230492</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.4819433262885</v>
+        <v>123.2451603323802</v>
       </c>
       <c r="R24" t="n">
-        <v>136.4819433262885</v>
+        <v>81.60828184171123</v>
       </c>
       <c r="S24" t="n">
-        <v>136.4819433262885</v>
+        <v>81.60828184171123</v>
       </c>
       <c r="T24" t="n">
-        <v>136.4819433262885</v>
+        <v>81.60828184171123</v>
       </c>
       <c r="U24" t="n">
-        <v>136.4819433262885</v>
+        <v>81.60828184171123</v>
       </c>
       <c r="V24" t="n">
-        <v>136.4819433262885</v>
+        <v>39.97140335104223</v>
       </c>
       <c r="W24" t="n">
-        <v>136.4819433262885</v>
+        <v>39.97140335104223</v>
       </c>
       <c r="X24" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="Y24" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="C25" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="D25" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="E25" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="F25" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="G25" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="H25" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="I25" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="J25" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="K25" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="L25" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="M25" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="N25" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="O25" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="P25" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="R25" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="S25" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="T25" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="U25" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="V25" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="W25" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="X25" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>97.7105268208775</v>
+        <v>13.4101173559616</v>
       </c>
       <c r="C26" t="n">
-        <v>97.7105268208775</v>
+        <v>13.4101173559616</v>
       </c>
       <c r="D26" t="n">
-        <v>97.7105268208775</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="E26" t="n">
-        <v>97.7105268208775</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="F26" t="n">
-        <v>97.7105268208775</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="G26" t="n">
-        <v>63.2453896172693</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="H26" t="n">
-        <v>33.85591243188122</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="I26" t="n">
-        <v>33.85591243188122</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="J26" t="n">
-        <v>33.85591243188122</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="K26" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="L26" t="n">
-        <v>9.9033300071552</v>
+        <v>5.249294604296329</v>
       </c>
       <c r="M26" t="n">
-        <v>43.6826109804116</v>
+        <v>46.05759921300102</v>
       </c>
       <c r="N26" t="n">
-        <v>77.46189195366802</v>
+        <v>86.8659038217057</v>
       </c>
       <c r="O26" t="n">
-        <v>111.2411729269244</v>
+        <v>115.0696922531879</v>
       </c>
       <c r="P26" t="n">
-        <v>97.7105268208775</v>
+        <v>96.68387433729961</v>
       </c>
       <c r="Q26" t="n">
-        <v>97.7105268208775</v>
+        <v>96.68387433729961</v>
       </c>
       <c r="R26" t="n">
-        <v>97.7105268208775</v>
+        <v>96.68387433729961</v>
       </c>
       <c r="S26" t="n">
-        <v>97.7105268208775</v>
+        <v>96.68387433729961</v>
       </c>
       <c r="T26" t="n">
-        <v>97.7105268208775</v>
+        <v>96.68387433729961</v>
       </c>
       <c r="U26" t="n">
-        <v>97.7105268208775</v>
+        <v>96.68387433729961</v>
       </c>
       <c r="V26" t="n">
-        <v>97.7105268208775</v>
+        <v>96.68387433729961</v>
       </c>
       <c r="W26" t="n">
-        <v>97.7105268208775</v>
+        <v>96.68387433729961</v>
       </c>
       <c r="X26" t="n">
-        <v>97.7105268208775</v>
+        <v>96.68387433729961</v>
       </c>
       <c r="Y26" t="n">
-        <v>97.7105268208775</v>
+        <v>55.04699584663061</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.72963886652577</v>
+        <v>44.93451926712999</v>
       </c>
       <c r="C27" t="n">
-        <v>2.72963886652577</v>
+        <v>44.93451926712999</v>
       </c>
       <c r="D27" t="n">
-        <v>2.72963886652577</v>
+        <v>44.93451926712999</v>
       </c>
       <c r="E27" t="n">
-        <v>2.72963886652577</v>
+        <v>44.93451926712999</v>
       </c>
       <c r="F27" t="n">
-        <v>2.72963886652577</v>
+        <v>44.93451926712999</v>
       </c>
       <c r="G27" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="H27" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="I27" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="J27" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="K27" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="L27" t="n">
-        <v>36.50891983978217</v>
+        <v>44.10594538516568</v>
       </c>
       <c r="M27" t="n">
-        <v>70.28820081303857</v>
+        <v>59.45261037558117</v>
       </c>
       <c r="N27" t="n">
-        <v>104.067481786295</v>
+        <v>100.2609149842859</v>
       </c>
       <c r="O27" t="n">
-        <v>136.4819433262885</v>
+        <v>141.0692195929905</v>
       </c>
       <c r="P27" t="n">
-        <v>136.4819433262885</v>
+        <v>164.8820388230492</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.4819433262885</v>
+        <v>128.208276248468</v>
       </c>
       <c r="R27" t="n">
-        <v>136.4819433262885</v>
+        <v>128.208276248468</v>
       </c>
       <c r="S27" t="n">
-        <v>102.0168061226803</v>
+        <v>128.208276248468</v>
       </c>
       <c r="T27" t="n">
-        <v>67.55166891907209</v>
+        <v>128.208276248468</v>
       </c>
       <c r="U27" t="n">
-        <v>33.08653171546388</v>
+        <v>128.208276248468</v>
       </c>
       <c r="V27" t="n">
-        <v>2.72963886652577</v>
+        <v>86.57139775779899</v>
       </c>
       <c r="W27" t="n">
-        <v>2.72963886652577</v>
+        <v>44.93451926712999</v>
       </c>
       <c r="X27" t="n">
-        <v>2.72963886652577</v>
+        <v>44.93451926712999</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.72963886652577</v>
+        <v>44.93451926712999</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="C28" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="D28" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="E28" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="F28" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="G28" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="H28" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="I28" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="J28" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="K28" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="L28" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="M28" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="N28" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="O28" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="P28" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="R28" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="S28" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="T28" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="U28" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="V28" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="W28" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="X28" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>42.310898519708</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="C29" t="n">
-        <v>42.310898519708</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="D29" t="n">
-        <v>42.310898519708</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="E29" t="n">
-        <v>42.310898519708</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="F29" t="n">
-        <v>7.845761316099797</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="G29" t="n">
-        <v>7.845761316099797</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="H29" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="I29" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="J29" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="K29" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="L29" t="n">
-        <v>9.9033300071552</v>
+        <v>5.249294604296329</v>
       </c>
       <c r="M29" t="n">
-        <v>43.6826109804116</v>
+        <v>46.05759921300102</v>
       </c>
       <c r="N29" t="n">
-        <v>77.46189195366802</v>
+        <v>86.8659038217057</v>
       </c>
       <c r="O29" t="n">
-        <v>111.2411729269244</v>
+        <v>115.0696922531879</v>
       </c>
       <c r="P29" t="n">
-        <v>111.2411729269244</v>
+        <v>115.0696922531879</v>
       </c>
       <c r="Q29" t="n">
-        <v>111.2411729269244</v>
+        <v>115.0696922531879</v>
       </c>
       <c r="R29" t="n">
-        <v>111.2411729269244</v>
+        <v>115.0696922531879</v>
       </c>
       <c r="S29" t="n">
-        <v>111.2411729269244</v>
+        <v>115.0696922531879</v>
       </c>
       <c r="T29" t="n">
-        <v>76.77603572331621</v>
+        <v>73.43281376251885</v>
       </c>
       <c r="U29" t="n">
-        <v>76.77603572331621</v>
+        <v>31.79593527184984</v>
       </c>
       <c r="V29" t="n">
-        <v>76.77603572331621</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="W29" t="n">
-        <v>76.77603572331621</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="X29" t="n">
-        <v>76.77603572331621</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="Y29" t="n">
-        <v>76.77603572331621</v>
+        <v>3.297640776460985</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>102.0168061226803</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="C30" t="n">
-        <v>71.65991327374218</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="D30" t="n">
-        <v>71.65991327374218</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="E30" t="n">
-        <v>71.65991327374218</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="F30" t="n">
-        <v>37.19477607013398</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="G30" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="H30" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="I30" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="J30" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="K30" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="L30" t="n">
-        <v>36.50891983978217</v>
+        <v>44.10594538516568</v>
       </c>
       <c r="M30" t="n">
-        <v>70.28820081303857</v>
+        <v>84.91424999387036</v>
       </c>
       <c r="N30" t="n">
-        <v>75.50889871312536</v>
+        <v>125.722554602575</v>
       </c>
       <c r="O30" t="n">
-        <v>109.2881796863818</v>
+        <v>141.0692195929905</v>
       </c>
       <c r="P30" t="n">
-        <v>136.4819433262885</v>
+        <v>164.8820388230492</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.4819433262885</v>
+        <v>128.208276248468</v>
       </c>
       <c r="R30" t="n">
-        <v>102.0168061226803</v>
+        <v>128.208276248468</v>
       </c>
       <c r="S30" t="n">
-        <v>102.0168061226803</v>
+        <v>86.57139775779899</v>
       </c>
       <c r="T30" t="n">
-        <v>102.0168061226803</v>
+        <v>86.57139775779899</v>
       </c>
       <c r="U30" t="n">
-        <v>102.0168061226803</v>
+        <v>44.93451926712999</v>
       </c>
       <c r="V30" t="n">
-        <v>102.0168061226803</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="W30" t="n">
-        <v>102.0168061226803</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="X30" t="n">
-        <v>102.0168061226803</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="Y30" t="n">
-        <v>102.0168061226803</v>
+        <v>3.297640776460985</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="C31" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="D31" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="E31" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="F31" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="G31" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="H31" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="I31" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="J31" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="K31" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="L31" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="M31" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="N31" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="O31" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="P31" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="Q31" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="R31" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="S31" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="T31" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="U31" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="V31" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="W31" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="X31" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="Y31" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>76.77603572331621</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="C32" t="n">
-        <v>76.77603572331621</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="D32" t="n">
-        <v>76.77603572331621</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="E32" t="n">
-        <v>42.310898519708</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="F32" t="n">
-        <v>7.845761316099797</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="G32" t="n">
-        <v>7.845761316099797</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="H32" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="I32" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="J32" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="K32" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="L32" t="n">
-        <v>9.9033300071552</v>
+        <v>5.249294604296329</v>
       </c>
       <c r="M32" t="n">
-        <v>43.6826109804116</v>
+        <v>46.05759921300102</v>
       </c>
       <c r="N32" t="n">
-        <v>77.46189195366802</v>
+        <v>86.8659038217057</v>
       </c>
       <c r="O32" t="n">
-        <v>111.2411729269244</v>
+        <v>115.0696922531879</v>
       </c>
       <c r="P32" t="n">
-        <v>111.2411729269244</v>
+        <v>115.0696922531879</v>
       </c>
       <c r="Q32" t="n">
-        <v>111.2411729269244</v>
+        <v>115.0696922531879</v>
       </c>
       <c r="R32" t="n">
-        <v>111.2411729269244</v>
+        <v>73.43281376251885</v>
       </c>
       <c r="S32" t="n">
-        <v>111.2411729269244</v>
+        <v>44.93451926712999</v>
       </c>
       <c r="T32" t="n">
-        <v>111.2411729269244</v>
+        <v>44.93451926712999</v>
       </c>
       <c r="U32" t="n">
-        <v>111.2411729269244</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="V32" t="n">
-        <v>76.77603572331621</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="W32" t="n">
-        <v>76.77603572331621</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="X32" t="n">
-        <v>76.77603572331621</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="Y32" t="n">
-        <v>76.77603572331621</v>
+        <v>3.297640776460985</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>37.19477607013398</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="C33" t="n">
-        <v>37.19477607013398</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="D33" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="E33" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="F33" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="G33" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="H33" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="I33" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="J33" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="K33" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="L33" t="n">
-        <v>36.50891983978217</v>
+        <v>42.45712499693518</v>
       </c>
       <c r="M33" t="n">
-        <v>70.28820081303857</v>
+        <v>83.26542960563987</v>
       </c>
       <c r="N33" t="n">
-        <v>104.067481786295</v>
+        <v>124.0737342143446</v>
       </c>
       <c r="O33" t="n">
-        <v>109.2881796863818</v>
+        <v>164.8820388230492</v>
       </c>
       <c r="P33" t="n">
-        <v>136.4819433262885</v>
+        <v>164.8820388230492</v>
       </c>
       <c r="Q33" t="n">
-        <v>102.0168061226803</v>
+        <v>123.2451603323802</v>
       </c>
       <c r="R33" t="n">
-        <v>102.0168061226803</v>
+        <v>81.60828184171123</v>
       </c>
       <c r="S33" t="n">
-        <v>102.0168061226803</v>
+        <v>39.97140335104223</v>
       </c>
       <c r="T33" t="n">
-        <v>102.0168061226803</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="U33" t="n">
-        <v>102.0168061226803</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="V33" t="n">
-        <v>67.55166891907209</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="W33" t="n">
-        <v>37.19477607013398</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="X33" t="n">
-        <v>37.19477607013398</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="Y33" t="n">
-        <v>37.19477607013398</v>
+        <v>3.297640776460985</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="C34" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="D34" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="E34" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="F34" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="G34" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="H34" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="I34" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="J34" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="K34" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="L34" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="M34" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="N34" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="O34" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="P34" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="Q34" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="R34" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="S34" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="T34" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="U34" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="V34" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="W34" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="X34" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="Y34" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>37.19477607013398</v>
+        <v>44.93451926712999</v>
       </c>
       <c r="C35" t="n">
-        <v>2.72963886652577</v>
+        <v>44.93451926712999</v>
       </c>
       <c r="D35" t="n">
-        <v>2.72963886652577</v>
+        <v>44.93451926712999</v>
       </c>
       <c r="E35" t="n">
-        <v>2.72963886652577</v>
+        <v>44.93451926712999</v>
       </c>
       <c r="F35" t="n">
-        <v>2.72963886652577</v>
+        <v>44.93451926712999</v>
       </c>
       <c r="G35" t="n">
-        <v>2.72963886652577</v>
+        <v>44.93451926712999</v>
       </c>
       <c r="H35" t="n">
-        <v>2.72963886652577</v>
+        <v>44.93451926712999</v>
       </c>
       <c r="I35" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="J35" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="K35" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="L35" t="n">
-        <v>9.9033300071552</v>
+        <v>5.249294604296329</v>
       </c>
       <c r="M35" t="n">
-        <v>43.6826109804116</v>
+        <v>46.05759921300102</v>
       </c>
       <c r="N35" t="n">
-        <v>77.46189195366802</v>
+        <v>86.8659038217057</v>
       </c>
       <c r="O35" t="n">
-        <v>111.2411729269244</v>
+        <v>115.0696922531879</v>
       </c>
       <c r="P35" t="n">
-        <v>111.2411729269244</v>
+        <v>115.0696922531879</v>
       </c>
       <c r="Q35" t="n">
-        <v>106.1250504773504</v>
+        <v>115.0696922531879</v>
       </c>
       <c r="R35" t="n">
-        <v>71.65991327374218</v>
+        <v>115.0696922531879</v>
       </c>
       <c r="S35" t="n">
-        <v>71.65991327374218</v>
+        <v>115.0696922531879</v>
       </c>
       <c r="T35" t="n">
-        <v>71.65991327374218</v>
+        <v>86.57139775779899</v>
       </c>
       <c r="U35" t="n">
-        <v>71.65991327374218</v>
+        <v>44.93451926712999</v>
       </c>
       <c r="V35" t="n">
-        <v>71.65991327374218</v>
+        <v>44.93451926712999</v>
       </c>
       <c r="W35" t="n">
-        <v>71.65991327374218</v>
+        <v>44.93451926712999</v>
       </c>
       <c r="X35" t="n">
-        <v>37.19477607013398</v>
+        <v>44.93451926712999</v>
       </c>
       <c r="Y35" t="n">
-        <v>37.19477607013398</v>
+        <v>44.93451926712999</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="C36" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="D36" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="E36" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="F36" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="G36" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="H36" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="I36" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="J36" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="K36" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="L36" t="n">
-        <v>36.50891983978217</v>
+        <v>18.64430576687649</v>
       </c>
       <c r="M36" t="n">
-        <v>41.72961773986896</v>
+        <v>59.45261037558117</v>
       </c>
       <c r="N36" t="n">
-        <v>75.50889871312536</v>
+        <v>100.2609149842859</v>
       </c>
       <c r="O36" t="n">
-        <v>109.2881796863818</v>
+        <v>141.0692195929905</v>
       </c>
       <c r="P36" t="n">
-        <v>136.4819433262885</v>
+        <v>164.8820388230492</v>
       </c>
       <c r="Q36" t="n">
-        <v>102.0168061226803</v>
+        <v>164.8820388230492</v>
       </c>
       <c r="R36" t="n">
-        <v>67.55166891907209</v>
+        <v>164.8820388230492</v>
       </c>
       <c r="S36" t="n">
-        <v>67.55166891907209</v>
+        <v>164.8820388230492</v>
       </c>
       <c r="T36" t="n">
-        <v>67.55166891907209</v>
+        <v>128.208276248468</v>
       </c>
       <c r="U36" t="n">
-        <v>67.55166891907209</v>
+        <v>86.57139775779899</v>
       </c>
       <c r="V36" t="n">
-        <v>67.55166891907209</v>
+        <v>44.93451926712999</v>
       </c>
       <c r="W36" t="n">
-        <v>33.08653171546388</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="X36" t="n">
-        <v>33.08653171546388</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="Y36" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="C37" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="D37" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="E37" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="F37" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="G37" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="H37" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="I37" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="J37" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="K37" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="L37" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="M37" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="N37" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="O37" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="P37" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="R37" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="S37" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="T37" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="U37" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="V37" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="W37" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="X37" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>71.65991327374218</v>
+        <v>44.93451926712999</v>
       </c>
       <c r="C38" t="n">
-        <v>71.65991327374218</v>
+        <v>44.93451926712999</v>
       </c>
       <c r="D38" t="n">
-        <v>71.65991327374218</v>
+        <v>44.93451926712999</v>
       </c>
       <c r="E38" t="n">
-        <v>37.19477607013398</v>
+        <v>44.93451926712999</v>
       </c>
       <c r="F38" t="n">
-        <v>2.72963886652577</v>
+        <v>44.93451926712999</v>
       </c>
       <c r="G38" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="H38" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="I38" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="J38" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="K38" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="L38" t="n">
-        <v>9.9033300071552</v>
+        <v>5.249294604296329</v>
       </c>
       <c r="M38" t="n">
-        <v>43.6826109804116</v>
+        <v>46.05759921300102</v>
       </c>
       <c r="N38" t="n">
-        <v>77.46189195366802</v>
+        <v>86.8659038217057</v>
       </c>
       <c r="O38" t="n">
-        <v>111.2411729269244</v>
+        <v>115.0696922531879</v>
       </c>
       <c r="P38" t="n">
-        <v>111.2411729269244</v>
+        <v>115.0696922531879</v>
       </c>
       <c r="Q38" t="n">
-        <v>111.2411729269244</v>
+        <v>115.0696922531879</v>
       </c>
       <c r="R38" t="n">
-        <v>111.2411729269244</v>
+        <v>115.0696922531879</v>
       </c>
       <c r="S38" t="n">
-        <v>111.2411729269244</v>
+        <v>115.0696922531879</v>
       </c>
       <c r="T38" t="n">
-        <v>111.2411729269244</v>
+        <v>115.0696922531879</v>
       </c>
       <c r="U38" t="n">
-        <v>111.2411729269244</v>
+        <v>115.0696922531879</v>
       </c>
       <c r="V38" t="n">
-        <v>111.2411729269244</v>
+        <v>115.0696922531879</v>
       </c>
       <c r="W38" t="n">
-        <v>76.77603572331621</v>
+        <v>115.0696922531879</v>
       </c>
       <c r="X38" t="n">
-        <v>71.65991327374218</v>
+        <v>115.0696922531879</v>
       </c>
       <c r="Y38" t="n">
-        <v>71.65991327374218</v>
+        <v>86.57139775779899</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>37.19477607013398</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="C39" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="D39" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="E39" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="F39" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="G39" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="H39" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="I39" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="J39" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="K39" t="n">
-        <v>2.72963886652577</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="L39" t="n">
-        <v>36.50891983978217</v>
+        <v>44.10594538516568</v>
       </c>
       <c r="M39" t="n">
-        <v>70.28820081303857</v>
+        <v>84.91424999387036</v>
       </c>
       <c r="N39" t="n">
-        <v>104.067481786295</v>
+        <v>124.0737342143446</v>
       </c>
       <c r="O39" t="n">
-        <v>136.4819433262885</v>
+        <v>164.8820388230492</v>
       </c>
       <c r="P39" t="n">
-        <v>136.4819433262885</v>
+        <v>164.8820388230492</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.4819433262885</v>
+        <v>123.2451603323802</v>
       </c>
       <c r="R39" t="n">
-        <v>136.4819433262885</v>
+        <v>81.60828184171123</v>
       </c>
       <c r="S39" t="n">
-        <v>106.1250504773504</v>
+        <v>44.93451926712999</v>
       </c>
       <c r="T39" t="n">
-        <v>106.1250504773504</v>
+        <v>44.93451926712999</v>
       </c>
       <c r="U39" t="n">
-        <v>106.1250504773504</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="V39" t="n">
-        <v>106.1250504773504</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="W39" t="n">
-        <v>106.1250504773504</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="X39" t="n">
-        <v>106.1250504773504</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="Y39" t="n">
-        <v>71.65991327374218</v>
+        <v>3.297640776460985</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="C40" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="D40" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="E40" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="F40" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="G40" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="H40" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="I40" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="J40" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="K40" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="L40" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="M40" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="N40" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="O40" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="P40" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="Q40" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="R40" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="S40" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="T40" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="U40" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="V40" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="W40" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="X40" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
       <c r="Y40" t="n">
-        <v>136.4819433262885</v>
+        <v>3.297640776460985</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>111.2411729269244</v>
+        <v>59.83197317287797</v>
       </c>
       <c r="C41" t="n">
-        <v>111.2411729269244</v>
+        <v>59.83197317287797</v>
       </c>
       <c r="D41" t="n">
-        <v>111.2411729269244</v>
+        <v>59.83197317287797</v>
       </c>
       <c r="E41" t="n">
-        <v>106.1250504773504</v>
+        <v>31.0555335937716</v>
       </c>
       <c r="F41" t="n">
-        <v>71.65991327374218</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="G41" t="n">
-        <v>37.19477607013398</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="H41" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="I41" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="J41" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="K41" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="L41" t="n">
-        <v>9.9033300071552</v>
+        <v>4.230747842500569</v>
       </c>
       <c r="M41" t="n">
-        <v>43.6826109804116</v>
+        <v>32.43453627398272</v>
       </c>
       <c r="N41" t="n">
-        <v>77.46189195366802</v>
+        <v>60.63832470546488</v>
       </c>
       <c r="O41" t="n">
-        <v>111.2411729269244</v>
+        <v>88.84211313694703</v>
       </c>
       <c r="P41" t="n">
-        <v>111.2411729269244</v>
+        <v>88.84211313694703</v>
       </c>
       <c r="Q41" t="n">
-        <v>111.2411729269244</v>
+        <v>88.84211313694703</v>
       </c>
       <c r="R41" t="n">
-        <v>111.2411729269244</v>
+        <v>88.84211313694703</v>
       </c>
       <c r="S41" t="n">
-        <v>111.2411729269244</v>
+        <v>88.84211313694703</v>
       </c>
       <c r="T41" t="n">
-        <v>111.2411729269244</v>
+        <v>60.06567355784066</v>
       </c>
       <c r="U41" t="n">
-        <v>111.2411729269244</v>
+        <v>59.83197317287797</v>
       </c>
       <c r="V41" t="n">
-        <v>111.2411729269244</v>
+        <v>59.83197317287797</v>
       </c>
       <c r="W41" t="n">
-        <v>111.2411729269244</v>
+        <v>59.83197317287797</v>
       </c>
       <c r="X41" t="n">
-        <v>111.2411729269244</v>
+        <v>59.83197317287797</v>
       </c>
       <c r="Y41" t="n">
-        <v>111.2411729269244</v>
+        <v>59.83197317287797</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>33.08653171546388</v>
+        <v>11.98545484652853</v>
       </c>
       <c r="C42" t="n">
-        <v>33.08653171546388</v>
+        <v>11.98545484652853</v>
       </c>
       <c r="D42" t="n">
-        <v>2.72963886652577</v>
+        <v>11.98545484652853</v>
       </c>
       <c r="E42" t="n">
-        <v>2.72963886652577</v>
+        <v>11.98545484652853</v>
       </c>
       <c r="F42" t="n">
-        <v>2.72963886652577</v>
+        <v>11.98545484652853</v>
       </c>
       <c r="G42" t="n">
-        <v>2.72963886652577</v>
+        <v>11.98545484652853</v>
       </c>
       <c r="H42" t="n">
-        <v>2.72963886652577</v>
+        <v>11.98545484652853</v>
       </c>
       <c r="I42" t="n">
-        <v>2.72963886652577</v>
+        <v>11.98545484652853</v>
       </c>
       <c r="J42" t="n">
-        <v>2.72963886652577</v>
+        <v>11.98545484652853</v>
       </c>
       <c r="K42" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="L42" t="n">
-        <v>36.50891983978217</v>
+        <v>30.48288244614738</v>
       </c>
       <c r="M42" t="n">
-        <v>70.28820081303857</v>
+        <v>58.68667087762954</v>
       </c>
       <c r="N42" t="n">
-        <v>104.067481786295</v>
+        <v>86.89045930911169</v>
       </c>
       <c r="O42" t="n">
-        <v>109.2881796863818</v>
+        <v>113.9547007332612</v>
       </c>
       <c r="P42" t="n">
-        <v>136.4819433262885</v>
+        <v>113.9547007332612</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.4819433262885</v>
+        <v>113.9547007332612</v>
       </c>
       <c r="R42" t="n">
-        <v>136.4819433262885</v>
+        <v>85.17826115415485</v>
       </c>
       <c r="S42" t="n">
-        <v>136.4819433262885</v>
+        <v>56.40182157504848</v>
       </c>
       <c r="T42" t="n">
-        <v>136.4819433262885</v>
+        <v>27.62538199594211</v>
       </c>
       <c r="U42" t="n">
-        <v>136.4819433262885</v>
+        <v>11.98545484652853</v>
       </c>
       <c r="V42" t="n">
-        <v>136.4819433262885</v>
+        <v>11.98545484652853</v>
       </c>
       <c r="W42" t="n">
-        <v>102.0168061226803</v>
+        <v>11.98545484652853</v>
       </c>
       <c r="X42" t="n">
-        <v>102.0168061226803</v>
+        <v>11.98545484652853</v>
       </c>
       <c r="Y42" t="n">
-        <v>67.55166891907209</v>
+        <v>11.98545484652853</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="C43" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="D43" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="E43" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="F43" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="G43" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="H43" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="I43" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="J43" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="K43" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="L43" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="M43" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="N43" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="O43" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="P43" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="R43" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="S43" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="T43" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="U43" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="V43" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="W43" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="X43" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>37.19477607013398</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="C44" t="n">
-        <v>37.19477607013398</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="D44" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="E44" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="F44" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="G44" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="H44" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="I44" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="J44" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="K44" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="L44" t="n">
-        <v>9.9033300071552</v>
+        <v>4.230747842500569</v>
       </c>
       <c r="M44" t="n">
-        <v>43.6826109804116</v>
+        <v>32.43453627398272</v>
       </c>
       <c r="N44" t="n">
-        <v>77.46189195366802</v>
+        <v>60.63832470546488</v>
       </c>
       <c r="O44" t="n">
-        <v>111.2411729269244</v>
+        <v>88.84211313694703</v>
       </c>
       <c r="P44" t="n">
-        <v>111.2411729269244</v>
+        <v>88.84211313694703</v>
       </c>
       <c r="Q44" t="n">
-        <v>111.2411729269244</v>
+        <v>88.84211313694703</v>
       </c>
       <c r="R44" t="n">
-        <v>111.2411729269244</v>
+        <v>60.06567355784066</v>
       </c>
       <c r="S44" t="n">
-        <v>111.2411729269244</v>
+        <v>31.28923397873429</v>
       </c>
       <c r="T44" t="n">
-        <v>111.2411729269244</v>
+        <v>2.512794399627914</v>
       </c>
       <c r="U44" t="n">
-        <v>76.77603572331621</v>
+        <v>2.512794399627914</v>
       </c>
       <c r="V44" t="n">
-        <v>76.77603572331621</v>
+        <v>2.512794399627914</v>
       </c>
       <c r="W44" t="n">
-        <v>76.77603572331621</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="X44" t="n">
-        <v>71.65991327374218</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="Y44" t="n">
-        <v>37.19477607013398</v>
+        <v>2.279094014665225</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>71.65991327374218</v>
+        <v>27.62538199594211</v>
       </c>
       <c r="C45" t="n">
-        <v>71.65991327374218</v>
+        <v>27.62538199594211</v>
       </c>
       <c r="D45" t="n">
-        <v>71.65991327374218</v>
+        <v>27.62538199594211</v>
       </c>
       <c r="E45" t="n">
-        <v>71.65991327374218</v>
+        <v>27.62538199594211</v>
       </c>
       <c r="F45" t="n">
-        <v>71.65991327374218</v>
+        <v>27.62538199594211</v>
       </c>
       <c r="G45" t="n">
-        <v>37.19477607013398</v>
+        <v>11.98545484652853</v>
       </c>
       <c r="H45" t="n">
-        <v>37.19477607013398</v>
+        <v>11.98545484652853</v>
       </c>
       <c r="I45" t="n">
-        <v>37.19477607013398</v>
+        <v>11.98545484652853</v>
       </c>
       <c r="J45" t="n">
-        <v>2.72963886652577</v>
+        <v>11.98545484652853</v>
       </c>
       <c r="K45" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="L45" t="n">
-        <v>36.50891983978217</v>
+        <v>5.530516208756065</v>
       </c>
       <c r="M45" t="n">
-        <v>41.72961773986896</v>
+        <v>33.73430464023822</v>
       </c>
       <c r="N45" t="n">
-        <v>75.50889871312536</v>
+        <v>61.93809307172037</v>
       </c>
       <c r="O45" t="n">
-        <v>109.2881796863818</v>
+        <v>90.14188150320253</v>
       </c>
       <c r="P45" t="n">
-        <v>136.4819433262885</v>
+        <v>113.9547007332612</v>
       </c>
       <c r="Q45" t="n">
-        <v>102.0168061226803</v>
+        <v>85.17826115415485</v>
       </c>
       <c r="R45" t="n">
-        <v>102.0168061226803</v>
+        <v>56.40182157504848</v>
       </c>
       <c r="S45" t="n">
-        <v>102.0168061226803</v>
+        <v>56.40182157504848</v>
       </c>
       <c r="T45" t="n">
-        <v>102.0168061226803</v>
+        <v>56.40182157504848</v>
       </c>
       <c r="U45" t="n">
-        <v>102.0168061226803</v>
+        <v>56.40182157504848</v>
       </c>
       <c r="V45" t="n">
-        <v>102.0168061226803</v>
+        <v>56.40182157504848</v>
       </c>
       <c r="W45" t="n">
-        <v>102.0168061226803</v>
+        <v>27.62538199594211</v>
       </c>
       <c r="X45" t="n">
-        <v>102.0168061226803</v>
+        <v>27.62538199594211</v>
       </c>
       <c r="Y45" t="n">
-        <v>102.0168061226803</v>
+        <v>27.62538199594211</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="C46" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="D46" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="E46" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="F46" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="G46" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="H46" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="I46" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="J46" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="K46" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="L46" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="M46" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="N46" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="O46" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="P46" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="R46" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="S46" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="T46" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="U46" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="V46" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="W46" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="X46" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.72963886652577</v>
+        <v>2.279094014665225</v>
       </c>
     </row>
   </sheetData>
@@ -22570,25 +22570,25 @@
         <v>200.5945251941005</v>
       </c>
       <c r="J2" t="n">
-        <v>97.38162427947184</v>
+        <v>97.38162427947185</v>
       </c>
       <c r="K2" t="n">
-        <v>83.42355640483248</v>
+        <v>83.42355640483254</v>
       </c>
       <c r="L2" t="n">
-        <v>58.01940008446331</v>
+        <v>58.01940008446334</v>
       </c>
       <c r="M2" t="n">
-        <v>25.53077821856496</v>
+        <v>25.53077821856502</v>
       </c>
       <c r="N2" t="n">
-        <v>20.25818964702478</v>
+        <v>20.25818964702484</v>
       </c>
       <c r="O2" t="n">
-        <v>35.5625862733917</v>
+        <v>35.56258627339173</v>
       </c>
       <c r="P2" t="n">
-        <v>72.86822951172195</v>
+        <v>72.86822951172198</v>
       </c>
       <c r="Q2" t="n">
         <v>114.085400487321</v>
@@ -22649,10 +22649,10 @@
         <v>94.61323744199868</v>
       </c>
       <c r="J3" t="n">
-        <v>81.18949827734528</v>
+        <v>81.18949827734529</v>
       </c>
       <c r="K3" t="n">
-        <v>42.4537780023314</v>
+        <v>42.45377800233142</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22667,10 +22667,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>14.78693852483815</v>
+        <v>14.78693852483818</v>
       </c>
       <c r="Q3" t="n">
-        <v>71.40126228781628</v>
+        <v>71.40126228781631</v>
       </c>
       <c r="R3" t="n">
         <v>129.3928979528938</v>
@@ -22731,22 +22731,22 @@
         <v>108.7899981883442</v>
       </c>
       <c r="K4" t="n">
-        <v>81.56672452862283</v>
+        <v>81.56672452862284</v>
       </c>
       <c r="L4" t="n">
-        <v>67.52371566667536</v>
+        <v>67.52371566667537</v>
       </c>
       <c r="M4" t="n">
-        <v>67.17903279110968</v>
+        <v>67.17903279110971</v>
       </c>
       <c r="N4" t="n">
-        <v>55.89865382137701</v>
+        <v>55.89865382137702</v>
       </c>
       <c r="O4" t="n">
-        <v>76.66374565676749</v>
+        <v>76.6637456567675</v>
       </c>
       <c r="P4" t="n">
-        <v>89.08958836357661</v>
+        <v>89.08958836357662</v>
       </c>
       <c r="Q4" t="n">
         <v>130.1831232713674</v>
@@ -23047,7 +23047,7 @@
         <v>87.74555168308848</v>
       </c>
       <c r="K8" t="n">
-        <v>68.98158147698734</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L8" t="n">
         <v>40.1028531396922</v>
@@ -23059,10 +23059,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>16.43335224433224</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P8" t="n">
-        <v>56.54187083839042</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q8" t="n">
         <v>101.8249850515391</v>
@@ -23208,7 +23208,7 @@
         <v>75.64987151995348</v>
       </c>
       <c r="L10" t="n">
-        <v>59.95218091677093</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M10" t="n">
         <v>59.1959110048432</v>
@@ -23281,10 +23281,10 @@
         <v>192.4573254860788</v>
       </c>
       <c r="J11" t="n">
-        <v>79.46749020986022</v>
+        <v>79.46749020986019</v>
       </c>
       <c r="K11" t="n">
-        <v>56.57491319468377</v>
+        <v>56.57491319468375</v>
       </c>
       <c r="L11" t="n">
         <v>24.71128406284015</v>
@@ -23299,10 +23299,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>42.51638489689415</v>
+        <v>42.51638489689412</v>
       </c>
       <c r="Q11" t="n">
-        <v>91.29242921516942</v>
+        <v>91.29242921516939</v>
       </c>
       <c r="R11" t="n">
         <v>158.355936723486</v>
@@ -23381,7 +23381,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.98567517487726</v>
+        <v>56.98567517487724</v>
       </c>
       <c r="R12" t="n">
         <v>122.3812483112375</v>
@@ -23448,16 +23448,16 @@
         <v>53.44770209726541</v>
       </c>
       <c r="M13" t="n">
-        <v>52.33785008490108</v>
+        <v>52.33785008490106</v>
       </c>
       <c r="N13" t="n">
-        <v>41.41036126824764</v>
+        <v>41.41036126824763</v>
       </c>
       <c r="O13" t="n">
-        <v>63.28146248584993</v>
+        <v>63.28146248584991</v>
       </c>
       <c r="P13" t="n">
-        <v>77.63873325000013</v>
+        <v>77.63873325000012</v>
       </c>
       <c r="Q13" t="n">
         <v>122.2551447347503</v>
@@ -23746,22 +23746,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>417.5787878714249</v>
+        <v>405.5314789760363</v>
       </c>
       <c r="H17" t="n">
-        <v>334.1237210430571</v>
+        <v>333.3498420730783</v>
       </c>
       <c r="I17" t="n">
-        <v>192.4573254860788</v>
+        <v>189.5441099127741</v>
       </c>
       <c r="J17" t="n">
-        <v>79.46749020986022</v>
+        <v>73.05401429351838</v>
       </c>
       <c r="K17" t="n">
-        <v>56.57491319468377</v>
+        <v>46.96277531820999</v>
       </c>
       <c r="L17" t="n">
-        <v>24.71128406284015</v>
+        <v>12.78657706370188</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -23773,28 +23773,28 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>42.51638489689415</v>
+        <v>31.65005869338776</v>
       </c>
       <c r="Q17" t="n">
-        <v>91.29242921516942</v>
+        <v>70.40043625314766</v>
       </c>
       <c r="R17" t="n">
-        <v>158.355936723486</v>
+        <v>153.6092334550443</v>
       </c>
       <c r="S17" t="n">
-        <v>198.8187567921908</v>
+        <v>197.0968217717205</v>
       </c>
       <c r="T17" t="n">
-        <v>216.952923162988</v>
+        <v>216.6221378398017</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0497906853519</v>
+        <v>250.0437454938373</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
-        <v>337.8964638257669</v>
+        <v>325.1646293033199</v>
       </c>
       <c r="X17" t="n">
         <v>359.7827142947061</v>
@@ -23825,19 +23825,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.0707740458651</v>
+        <v>148.0303432632298</v>
       </c>
       <c r="H18" t="n">
-        <v>119.227741234312</v>
+        <v>118.8372649914922</v>
       </c>
       <c r="I18" t="n">
-        <v>90.72503104986799</v>
+        <v>89.33300629685479</v>
       </c>
       <c r="J18" t="n">
-        <v>70.51996274958896</v>
+        <v>66.70014043052433</v>
       </c>
       <c r="K18" t="n">
-        <v>24.21784236678039</v>
+        <v>17.68915761115147</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23855,31 +23855,31 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.98567517487726</v>
+        <v>51.82472123708156</v>
       </c>
       <c r="R18" t="n">
-        <v>122.3812483112375</v>
+        <v>119.8709932279693</v>
       </c>
       <c r="S18" t="n">
-        <v>179.0746866454165</v>
+        <v>178.3237025907655</v>
       </c>
       <c r="T18" t="n">
-        <v>212.2549141141216</v>
+        <v>200.8777498402511</v>
       </c>
       <c r="U18" t="n">
-        <v>237.183738547628</v>
+        <v>237.1810786277177</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>253.9727490545646</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>204.5810799170236</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>210.6524516115786</v>
       </c>
     </row>
     <row r="19">
@@ -23904,49 +23904,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.1358581311098</v>
+        <v>168.1019623211064</v>
       </c>
       <c r="H19" t="n">
-        <v>160.8017737771232</v>
+        <v>160.5004092118201</v>
       </c>
       <c r="I19" t="n">
-        <v>147.8643793287897</v>
+        <v>146.8450398788689</v>
       </c>
       <c r="J19" t="n">
-        <v>102.0962744798141</v>
+        <v>99.69984071257284</v>
       </c>
       <c r="K19" t="n">
-        <v>70.56688024483543</v>
+        <v>66.62880340989355</v>
       </c>
       <c r="L19" t="n">
-        <v>53.44770209726541</v>
+        <v>48.40831958093993</v>
       </c>
       <c r="M19" t="n">
-        <v>52.33785008490108</v>
+        <v>47.02452779500257</v>
       </c>
       <c r="N19" t="n">
-        <v>41.41036126824764</v>
+        <v>36.22337790654366</v>
       </c>
       <c r="O19" t="n">
-        <v>63.28146248584993</v>
+        <v>58.49044381373128</v>
       </c>
       <c r="P19" t="n">
-        <v>77.63873325000013</v>
+        <v>73.53918910195108</v>
       </c>
       <c r="Q19" t="n">
-        <v>122.2551447347503</v>
+        <v>119.4168328625555</v>
       </c>
       <c r="R19" t="n">
-        <v>178.0292477626592</v>
+        <v>176.5051688874148</v>
       </c>
       <c r="S19" t="n">
-        <v>225.5930852933272</v>
+        <v>225.0023737680859</v>
       </c>
       <c r="T19" t="n">
-        <v>221.3478230490496</v>
+        <v>221.2029954972168</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6257433251451</v>
+        <v>288.6238944627813</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>374.0872403778333</v>
+        <v>362.1154963763764</v>
       </c>
       <c r="C20" t="n">
-        <v>350.2054973811788</v>
+        <v>337.4736628587318</v>
       </c>
       <c r="D20" t="n">
         <v>337.7721596422273</v>
@@ -23983,22 +23983,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>417.5787878714249</v>
+        <v>417.5032229774932</v>
       </c>
       <c r="H20" t="n">
-        <v>334.1237210430571</v>
+        <v>333.3498420730783</v>
       </c>
       <c r="I20" t="n">
-        <v>192.4573254860788</v>
+        <v>189.5441099127741</v>
       </c>
       <c r="J20" t="n">
-        <v>79.46749020986019</v>
+        <v>73.05401429351838</v>
       </c>
       <c r="K20" t="n">
-        <v>56.57491319468375</v>
+        <v>46.96277531820999</v>
       </c>
       <c r="L20" t="n">
-        <v>24.71128406284015</v>
+        <v>12.78657706370188</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -24010,22 +24010,22 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>42.51638489689412</v>
+        <v>31.65005869338776</v>
       </c>
       <c r="Q20" t="n">
-        <v>91.29242921516939</v>
+        <v>83.13227077559466</v>
       </c>
       <c r="R20" t="n">
-        <v>158.355936723486</v>
+        <v>153.6092334550443</v>
       </c>
       <c r="S20" t="n">
-        <v>198.8187567921908</v>
+        <v>197.0968217717205</v>
       </c>
       <c r="T20" t="n">
-        <v>216.952923162988</v>
+        <v>216.6221378398017</v>
       </c>
       <c r="U20" t="n">
-        <v>250.0497906853519</v>
+        <v>250.0437454938373</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24037,7 +24037,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y20" t="n">
-        <v>382.2855674184499</v>
+        <v>369.5537328960029</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>165.5362945502944</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
@@ -24062,19 +24062,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.0707740458651</v>
+        <v>148.0303432632298</v>
       </c>
       <c r="H21" t="n">
-        <v>119.227741234312</v>
+        <v>118.8372649914922</v>
       </c>
       <c r="I21" t="n">
-        <v>90.72503104986799</v>
+        <v>89.33300629685479</v>
       </c>
       <c r="J21" t="n">
-        <v>70.51996274958896</v>
+        <v>66.70014043052433</v>
       </c>
       <c r="K21" t="n">
-        <v>24.21784236678039</v>
+        <v>17.68915761115147</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24092,31 +24092,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.98567517487724</v>
+        <v>39.09288671463456</v>
       </c>
       <c r="R21" t="n">
-        <v>122.3812483112375</v>
+        <v>119.8709932279693</v>
       </c>
       <c r="S21" t="n">
-        <v>179.0746866454165</v>
+        <v>178.3237025907655</v>
       </c>
       <c r="T21" t="n">
-        <v>212.2549141141216</v>
+        <v>212.0919496876224</v>
       </c>
       <c r="U21" t="n">
-        <v>237.183738547628</v>
+        <v>237.1810786277177</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>253.9727490545646</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>210.6524516115786</v>
       </c>
     </row>
     <row r="22">
@@ -24141,49 +24141,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.1358581311098</v>
+        <v>168.1019623211064</v>
       </c>
       <c r="H22" t="n">
-        <v>160.8017737771232</v>
+        <v>160.5004092118201</v>
       </c>
       <c r="I22" t="n">
-        <v>147.8643793287897</v>
+        <v>146.8450398788689</v>
       </c>
       <c r="J22" t="n">
-        <v>102.0962744798141</v>
+        <v>99.69984071257284</v>
       </c>
       <c r="K22" t="n">
-        <v>70.56688024483543</v>
+        <v>66.62880340989355</v>
       </c>
       <c r="L22" t="n">
-        <v>53.44770209726541</v>
+        <v>48.40831958093993</v>
       </c>
       <c r="M22" t="n">
-        <v>52.33785008490106</v>
+        <v>47.02452779500257</v>
       </c>
       <c r="N22" t="n">
-        <v>41.41036126824763</v>
+        <v>36.22337790654366</v>
       </c>
       <c r="O22" t="n">
-        <v>63.28146248584991</v>
+        <v>58.49044381373128</v>
       </c>
       <c r="P22" t="n">
-        <v>77.63873325000012</v>
+        <v>73.53918910195108</v>
       </c>
       <c r="Q22" t="n">
-        <v>122.2551447347503</v>
+        <v>119.4168328625555</v>
       </c>
       <c r="R22" t="n">
-        <v>178.0292477626592</v>
+        <v>176.5051688874148</v>
       </c>
       <c r="S22" t="n">
-        <v>225.5930852933272</v>
+        <v>225.0023737680859</v>
       </c>
       <c r="T22" t="n">
-        <v>221.3478230490496</v>
+        <v>221.2029954972168</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6257433251451</v>
+        <v>288.6238944627813</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24208,31 +24208,31 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C23" t="n">
-        <v>316.0850115496067</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D23" t="n">
-        <v>303.6516738106552</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
-        <v>366.4139508365579</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>417.3762788859196</v>
+        <v>417.4097043261834</v>
       </c>
       <c r="H23" t="n">
-        <v>332.0497758952499</v>
+        <v>332.3920941853522</v>
       </c>
       <c r="I23" t="n">
-        <v>184.6500978223821</v>
+        <v>185.9387321081544</v>
       </c>
       <c r="J23" t="n">
-        <v>62.2797932013217</v>
+        <v>65.11673566191615</v>
       </c>
       <c r="K23" t="n">
-        <v>30.81501082970189</v>
+        <v>35.06685217666538</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -24247,28 +24247,28 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.39533964498645</v>
+        <v>18.20195973672935</v>
       </c>
       <c r="Q23" t="n">
-        <v>69.42373700667369</v>
+        <v>73.0333085189672</v>
       </c>
       <c r="R23" t="n">
-        <v>111.5145958311606</v>
+        <v>147.7347424747072</v>
       </c>
       <c r="S23" t="n">
-        <v>194.2040832849866</v>
+        <v>194.9657655049992</v>
       </c>
       <c r="T23" t="n">
-        <v>216.0664400789381</v>
+        <v>216.2127599436932</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0335899665114</v>
+        <v>208.8157542959702</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>292.666472058717</v>
       </c>
       <c r="W23" t="n">
-        <v>337.8964638257669</v>
+        <v>296.6759541200046</v>
       </c>
       <c r="X23" t="n">
         <v>359.7827142947061</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>142.6300085660936</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
@@ -24293,25 +24293,25 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>137.7070860082275</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>147.9624221863091</v>
+        <v>147.9803063735219</v>
       </c>
       <c r="H24" t="n">
-        <v>84.06080454860665</v>
+        <v>118.3540139777347</v>
       </c>
       <c r="I24" t="n">
-        <v>56.94117161400357</v>
+        <v>87.61024496261481</v>
       </c>
       <c r="J24" t="n">
-        <v>60.28308815881573</v>
+        <v>61.97275165334428</v>
       </c>
       <c r="K24" t="n">
-        <v>6.721393185753584</v>
+        <v>9.609297223544672</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24329,28 +24329,28 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>43.15465534804171</v>
+        <v>4.217046452119206</v>
       </c>
       <c r="R24" t="n">
-        <v>115.6539284696802</v>
+        <v>75.54380715946803</v>
       </c>
       <c r="S24" t="n">
-        <v>177.0620983769088</v>
+        <v>177.3942893104462</v>
       </c>
       <c r="T24" t="n">
-        <v>211.8181800837182</v>
+        <v>211.8902659084929</v>
       </c>
       <c r="U24" t="n">
-        <v>237.1766101358151</v>
+        <v>237.1777867270791</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>199.4284112096399</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>181.0058894906352</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -24378,49 +24378,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.0450195718329</v>
+        <v>168.0600130736233</v>
       </c>
       <c r="H25" t="n">
-        <v>159.9941364046431</v>
+        <v>160.1274422660167</v>
       </c>
       <c r="I25" t="n">
-        <v>145.1326161098078</v>
+        <v>145.5835116000163</v>
       </c>
       <c r="J25" t="n">
-        <v>95.67398833893671</v>
+        <v>96.73402891552421</v>
       </c>
       <c r="K25" t="n">
-        <v>60.01309126702743</v>
+        <v>61.75506356595868</v>
       </c>
       <c r="L25" t="n">
-        <v>39.94248574804224</v>
+        <v>42.17161055060261</v>
       </c>
       <c r="M25" t="n">
-        <v>38.09849301570364</v>
+        <v>40.44879257364349</v>
       </c>
       <c r="N25" t="n">
-        <v>27.50958428362776</v>
+        <v>29.8039989712576</v>
       </c>
       <c r="O25" t="n">
-        <v>50.44184503460119</v>
+        <v>52.5611083604058</v>
       </c>
       <c r="P25" t="n">
-        <v>66.65222240800031</v>
+        <v>68.46561829727897</v>
       </c>
       <c r="Q25" t="n">
-        <v>114.6486541029358</v>
+        <v>115.9041554210466</v>
       </c>
       <c r="R25" t="n">
-        <v>173.9448158155357</v>
+        <v>174.6189781778607</v>
       </c>
       <c r="S25" t="n">
-        <v>224.010016946656</v>
+        <v>224.2713127914956</v>
       </c>
       <c r="T25" t="n">
-        <v>220.9596946594119</v>
+        <v>221.0237578034258</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6207884946391</v>
+        <v>288.6216063220095</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>374.0872403778333</v>
+        <v>332.866730672071</v>
       </c>
       <c r="C26" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D26" t="n">
-        <v>337.7721596422273</v>
+        <v>327.7608078285216</v>
       </c>
       <c r="E26" t="n">
         <v>371.4789120616362</v>
@@ -24457,19 +24457,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>383.2557930543475</v>
+        <v>417.4097043261834</v>
       </c>
       <c r="H26" t="n">
-        <v>302.9541934817157</v>
+        <v>332.3920941853522</v>
       </c>
       <c r="I26" t="n">
-        <v>184.6500978223821</v>
+        <v>185.9387321081544</v>
       </c>
       <c r="J26" t="n">
-        <v>62.2797932013217</v>
+        <v>65.11673566191615</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>35.06685217666538</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -24487,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>69.42373700667369</v>
+        <v>73.0333085189672</v>
       </c>
       <c r="R26" t="n">
-        <v>145.6350816627327</v>
+        <v>147.7347424747072</v>
       </c>
       <c r="S26" t="n">
-        <v>194.2040832849866</v>
+        <v>194.9657655049992</v>
       </c>
       <c r="T26" t="n">
-        <v>216.0664400789381</v>
+        <v>216.2127599436932</v>
       </c>
       <c r="U26" t="n">
-        <v>250.0335899665114</v>
+        <v>250.0362640017325</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -24511,7 +24511,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
-        <v>382.2855674184499</v>
+        <v>341.0650577126876</v>
       </c>
     </row>
     <row r="27">
@@ -24536,19 +24536,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>147.9624221863091</v>
+        <v>106.7597966677596</v>
       </c>
       <c r="H27" t="n">
-        <v>118.1812903801788</v>
+        <v>118.3540139777347</v>
       </c>
       <c r="I27" t="n">
-        <v>86.99449553445228</v>
+        <v>87.61024496261481</v>
       </c>
       <c r="J27" t="n">
-        <v>60.28308815881573</v>
+        <v>61.97275165334428</v>
       </c>
       <c r="K27" t="n">
-        <v>6.721393185753584</v>
+        <v>9.609297223544672</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24566,25 +24566,25 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>43.15465534804171</v>
+        <v>9.130531209046083</v>
       </c>
       <c r="R27" t="n">
-        <v>115.6539284696802</v>
+        <v>116.7643168652303</v>
       </c>
       <c r="S27" t="n">
-        <v>142.9416125453367</v>
+        <v>177.3942893104462</v>
       </c>
       <c r="T27" t="n">
-        <v>177.6976942521461</v>
+        <v>211.8902659084929</v>
       </c>
       <c r="U27" t="n">
-        <v>203.056124304243</v>
+        <v>237.1777867270791</v>
       </c>
       <c r="V27" t="n">
-        <v>210.5955969949535</v>
+        <v>199.4284112096399</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>225.4840738712493</v>
       </c>
       <c r="X27" t="n">
         <v>217.3129144394706</v>
@@ -24615,49 +24615,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.0450195718329</v>
+        <v>168.0600130736233</v>
       </c>
       <c r="H28" t="n">
-        <v>159.9941364046431</v>
+        <v>160.1274422660167</v>
       </c>
       <c r="I28" t="n">
-        <v>145.1326161098078</v>
+        <v>145.5835116000163</v>
       </c>
       <c r="J28" t="n">
-        <v>95.67398833893671</v>
+        <v>96.73402891552421</v>
       </c>
       <c r="K28" t="n">
-        <v>60.01309126702743</v>
+        <v>61.75506356595868</v>
       </c>
       <c r="L28" t="n">
-        <v>39.94248574804224</v>
+        <v>42.17161055060261</v>
       </c>
       <c r="M28" t="n">
-        <v>38.09849301570364</v>
+        <v>40.44879257364349</v>
       </c>
       <c r="N28" t="n">
-        <v>27.50958428362776</v>
+        <v>29.8039989712576</v>
       </c>
       <c r="O28" t="n">
-        <v>50.44184503460119</v>
+        <v>52.5611083604058</v>
       </c>
       <c r="P28" t="n">
-        <v>66.65222240800031</v>
+        <v>68.46561829727897</v>
       </c>
       <c r="Q28" t="n">
-        <v>114.6486541029358</v>
+        <v>115.9041554210466</v>
       </c>
       <c r="R28" t="n">
-        <v>173.9448158155357</v>
+        <v>174.6189781778607</v>
       </c>
       <c r="S28" t="n">
-        <v>224.010016946656</v>
+        <v>224.2713127914956</v>
       </c>
       <c r="T28" t="n">
-        <v>220.9596946594119</v>
+        <v>221.0237578034258</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6207884946391</v>
+        <v>288.6216063220095</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>339.9667545462612</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
         <v>350.2054973811788</v>
@@ -24691,22 +24691,22 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F29" t="n">
-        <v>369.0787638084414</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>417.3762788859196</v>
+        <v>417.4097043261834</v>
       </c>
       <c r="H29" t="n">
-        <v>326.9848146701717</v>
+        <v>332.3920941853522</v>
       </c>
       <c r="I29" t="n">
-        <v>184.6500978223821</v>
+        <v>185.9387321081544</v>
       </c>
       <c r="J29" t="n">
-        <v>62.2797932013217</v>
+        <v>65.11673566191615</v>
       </c>
       <c r="K29" t="n">
-        <v>30.81501082970189</v>
+        <v>35.06685217666538</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -24721,25 +24721,25 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>13.39533964498645</v>
+        <v>18.20195973672935</v>
       </c>
       <c r="Q29" t="n">
-        <v>69.42373700667369</v>
+        <v>73.0333085189672</v>
       </c>
       <c r="R29" t="n">
-        <v>145.6350816627327</v>
+        <v>147.7347424747072</v>
       </c>
       <c r="S29" t="n">
-        <v>194.2040832849866</v>
+        <v>194.9657655049992</v>
       </c>
       <c r="T29" t="n">
-        <v>181.945954247366</v>
+        <v>174.9922502379309</v>
       </c>
       <c r="U29" t="n">
-        <v>250.0335899665114</v>
+        <v>208.8157542959702</v>
       </c>
       <c r="V29" t="n">
-        <v>320.879783609152</v>
+        <v>292.666472058717</v>
       </c>
       <c r="W29" t="n">
         <v>337.8964638257669</v>
@@ -24761,7 +24761,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>157.4648276039172</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -24770,22 +24770,22 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>124.7029532883562</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>113.8419363547369</v>
+        <v>147.9803063735219</v>
       </c>
       <c r="H30" t="n">
-        <v>118.1812903801788</v>
+        <v>118.3540139777347</v>
       </c>
       <c r="I30" t="n">
-        <v>86.99449553445228</v>
+        <v>87.61024496261481</v>
       </c>
       <c r="J30" t="n">
-        <v>60.28308815881573</v>
+        <v>61.97275165334428</v>
       </c>
       <c r="K30" t="n">
-        <v>6.721393185753584</v>
+        <v>9.609297223544672</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24803,22 +24803,22 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>43.15465534804171</v>
+        <v>9.130531209046083</v>
       </c>
       <c r="R30" t="n">
-        <v>81.53344263810803</v>
+        <v>116.7643168652303</v>
       </c>
       <c r="S30" t="n">
-        <v>177.0620983769088</v>
+        <v>136.1737796046839</v>
       </c>
       <c r="T30" t="n">
-        <v>211.8181800837182</v>
+        <v>211.8902659084929</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1766101358151</v>
+        <v>195.9572770213168</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>199.4284112096399</v>
       </c>
       <c r="W30" t="n">
         <v>266.7045835770116</v>
@@ -24852,49 +24852,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.0450195718329</v>
+        <v>168.0600130736233</v>
       </c>
       <c r="H31" t="n">
-        <v>159.9941364046431</v>
+        <v>160.1274422660167</v>
       </c>
       <c r="I31" t="n">
-        <v>145.1326161098078</v>
+        <v>145.5835116000163</v>
       </c>
       <c r="J31" t="n">
-        <v>95.67398833893671</v>
+        <v>96.73402891552421</v>
       </c>
       <c r="K31" t="n">
-        <v>60.01309126702743</v>
+        <v>61.75506356595868</v>
       </c>
       <c r="L31" t="n">
-        <v>39.94248574804224</v>
+        <v>42.17161055060261</v>
       </c>
       <c r="M31" t="n">
-        <v>38.09849301570364</v>
+        <v>40.44879257364349</v>
       </c>
       <c r="N31" t="n">
-        <v>27.50958428362776</v>
+        <v>29.8039989712576</v>
       </c>
       <c r="O31" t="n">
-        <v>50.44184503460119</v>
+        <v>52.5611083604058</v>
       </c>
       <c r="P31" t="n">
-        <v>66.65222240800031</v>
+        <v>68.46561829727897</v>
       </c>
       <c r="Q31" t="n">
-        <v>114.6486541029358</v>
+        <v>115.9041554210466</v>
       </c>
       <c r="R31" t="n">
-        <v>173.9448158155357</v>
+        <v>174.6189781778607</v>
       </c>
       <c r="S31" t="n">
-        <v>224.010016946656</v>
+        <v>224.2713127914956</v>
       </c>
       <c r="T31" t="n">
-        <v>220.9596946594119</v>
+        <v>221.0237578034258</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6207884946391</v>
+        <v>288.6216063220095</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24925,25 +24925,25 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
-        <v>337.358426230064</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
-        <v>369.0787638084414</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>417.3762788859196</v>
+        <v>417.4097043261834</v>
       </c>
       <c r="H32" t="n">
-        <v>326.9848146701717</v>
+        <v>332.3920941853522</v>
       </c>
       <c r="I32" t="n">
-        <v>184.6500978223821</v>
+        <v>185.9387321081544</v>
       </c>
       <c r="J32" t="n">
-        <v>62.2797932013217</v>
+        <v>65.11673566191615</v>
       </c>
       <c r="K32" t="n">
-        <v>30.81501082970189</v>
+        <v>35.06685217666538</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -24958,25 +24958,25 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>13.39533964498645</v>
+        <v>18.20195973672935</v>
       </c>
       <c r="Q32" t="n">
-        <v>69.42373700667369</v>
+        <v>73.0333085189672</v>
       </c>
       <c r="R32" t="n">
-        <v>145.6350816627327</v>
+        <v>106.5142327689449</v>
       </c>
       <c r="S32" t="n">
-        <v>194.2040832849866</v>
+        <v>166.7524539545642</v>
       </c>
       <c r="T32" t="n">
-        <v>216.0664400789381</v>
+        <v>216.2127599436932</v>
       </c>
       <c r="U32" t="n">
-        <v>250.0335899665114</v>
+        <v>208.8157542959702</v>
       </c>
       <c r="V32" t="n">
-        <v>286.7592977775799</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
         <v>337.8964638257669</v>
@@ -25001,7 +25001,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>125.0518292450064</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
         <v>171.8275718397997</v>
@@ -25010,19 +25010,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>147.9624221863091</v>
+        <v>147.9803063735219</v>
       </c>
       <c r="H33" t="n">
-        <v>118.1812903801788</v>
+        <v>118.3540139777347</v>
       </c>
       <c r="I33" t="n">
-        <v>86.99449553445228</v>
+        <v>87.61024496261481</v>
       </c>
       <c r="J33" t="n">
-        <v>60.28308815881573</v>
+        <v>61.97275165334428</v>
       </c>
       <c r="K33" t="n">
-        <v>6.721393185753584</v>
+        <v>9.609297223544672</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25040,25 +25040,25 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.034169516469589</v>
+        <v>4.217046452119206</v>
       </c>
       <c r="R33" t="n">
-        <v>115.6539284696802</v>
+        <v>75.54380715946803</v>
       </c>
       <c r="S33" t="n">
-        <v>177.0620983769088</v>
+        <v>136.1737796046839</v>
       </c>
       <c r="T33" t="n">
-        <v>211.8181800837182</v>
+        <v>175.5832409596575</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1766101358151</v>
+        <v>237.1777867270791</v>
       </c>
       <c r="V33" t="n">
-        <v>206.5284350838301</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>236.6512596565629</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
         <v>217.3129144394706</v>
@@ -25089,49 +25089,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.0450195718329</v>
+        <v>168.0600130736233</v>
       </c>
       <c r="H34" t="n">
-        <v>159.9941364046431</v>
+        <v>160.1274422660167</v>
       </c>
       <c r="I34" t="n">
-        <v>145.1326161098078</v>
+        <v>145.5835116000163</v>
       </c>
       <c r="J34" t="n">
-        <v>95.67398833893671</v>
+        <v>96.73402891552421</v>
       </c>
       <c r="K34" t="n">
-        <v>60.01309126702743</v>
+        <v>61.75506356595868</v>
       </c>
       <c r="L34" t="n">
-        <v>39.94248574804224</v>
+        <v>42.17161055060261</v>
       </c>
       <c r="M34" t="n">
-        <v>38.09849301570364</v>
+        <v>40.44879257364349</v>
       </c>
       <c r="N34" t="n">
-        <v>27.50958428362776</v>
+        <v>29.8039989712576</v>
       </c>
       <c r="O34" t="n">
-        <v>50.44184503460119</v>
+        <v>52.5611083604058</v>
       </c>
       <c r="P34" t="n">
-        <v>66.65222240800031</v>
+        <v>68.46561829727897</v>
       </c>
       <c r="Q34" t="n">
-        <v>114.6486541029358</v>
+        <v>115.9041554210466</v>
       </c>
       <c r="R34" t="n">
-        <v>173.9448158155357</v>
+        <v>174.6189781778607</v>
       </c>
       <c r="S34" t="n">
-        <v>224.010016946656</v>
+        <v>224.2713127914956</v>
       </c>
       <c r="T34" t="n">
-        <v>220.9596946594119</v>
+        <v>221.0237578034258</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6207884946391</v>
+        <v>288.6216063220095</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25156,7 +25156,7 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C35" t="n">
-        <v>316.0850115496067</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D35" t="n">
         <v>337.7721596422273</v>
@@ -25168,19 +25168,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>417.3762788859196</v>
+        <v>417.4097043261834</v>
       </c>
       <c r="H35" t="n">
-        <v>332.0497758952499</v>
+        <v>332.3920941853522</v>
       </c>
       <c r="I35" t="n">
-        <v>184.6500978223821</v>
+        <v>144.7182224023921</v>
       </c>
       <c r="J35" t="n">
-        <v>62.2797932013217</v>
+        <v>65.11673566191615</v>
       </c>
       <c r="K35" t="n">
-        <v>30.81501082970189</v>
+        <v>35.06685217666538</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -25195,22 +25195,22 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>13.39533964498645</v>
+        <v>18.20195973672935</v>
       </c>
       <c r="Q35" t="n">
-        <v>64.35877578159537</v>
+        <v>73.0333085189672</v>
       </c>
       <c r="R35" t="n">
-        <v>111.5145958311606</v>
+        <v>147.7347424747072</v>
       </c>
       <c r="S35" t="n">
-        <v>194.2040832849866</v>
+        <v>194.9657655049992</v>
       </c>
       <c r="T35" t="n">
-        <v>216.0664400789381</v>
+        <v>187.9994483932582</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0335899665114</v>
+        <v>208.8157542959702</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25219,7 +25219,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
-        <v>325.662228463134</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
         <v>382.2855674184499</v>
@@ -25247,19 +25247,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>147.9624221863091</v>
+        <v>147.9803063735219</v>
       </c>
       <c r="H36" t="n">
-        <v>118.1812903801788</v>
+        <v>118.3540139777347</v>
       </c>
       <c r="I36" t="n">
-        <v>86.99449553445228</v>
+        <v>87.61024496261481</v>
       </c>
       <c r="J36" t="n">
-        <v>60.28308815881573</v>
+        <v>61.97275165334428</v>
       </c>
       <c r="K36" t="n">
-        <v>6.721393185753584</v>
+        <v>9.609297223544672</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25277,31 +25277,31 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>9.034169516469589</v>
+        <v>45.43755615788152</v>
       </c>
       <c r="R36" t="n">
-        <v>81.53344263810803</v>
+        <v>116.7643168652303</v>
       </c>
       <c r="S36" t="n">
-        <v>177.0620983769088</v>
+        <v>177.3942893104462</v>
       </c>
       <c r="T36" t="n">
-        <v>211.8181800837182</v>
+        <v>175.5832409596575</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1766101358151</v>
+        <v>195.9572770213168</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>199.4284112096399</v>
       </c>
       <c r="W36" t="n">
-        <v>232.5840977454395</v>
+        <v>225.4840738712493</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>193.3309622135769</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -25326,49 +25326,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.0450195718329</v>
+        <v>168.0600130736233</v>
       </c>
       <c r="H37" t="n">
-        <v>159.9941364046431</v>
+        <v>160.1274422660167</v>
       </c>
       <c r="I37" t="n">
-        <v>145.1326161098078</v>
+        <v>145.5835116000163</v>
       </c>
       <c r="J37" t="n">
-        <v>95.67398833893671</v>
+        <v>96.73402891552421</v>
       </c>
       <c r="K37" t="n">
-        <v>60.01309126702743</v>
+        <v>61.75506356595868</v>
       </c>
       <c r="L37" t="n">
-        <v>39.94248574804224</v>
+        <v>42.17161055060261</v>
       </c>
       <c r="M37" t="n">
-        <v>38.09849301570364</v>
+        <v>40.44879257364349</v>
       </c>
       <c r="N37" t="n">
-        <v>27.50958428362776</v>
+        <v>29.8039989712576</v>
       </c>
       <c r="O37" t="n">
-        <v>50.44184503460119</v>
+        <v>52.5611083604058</v>
       </c>
       <c r="P37" t="n">
-        <v>66.65222240800031</v>
+        <v>68.46561829727897</v>
       </c>
       <c r="Q37" t="n">
-        <v>114.6486541029358</v>
+        <v>115.9041554210466</v>
       </c>
       <c r="R37" t="n">
-        <v>173.9448158155357</v>
+        <v>174.6189781778607</v>
       </c>
       <c r="S37" t="n">
-        <v>224.010016946656</v>
+        <v>224.2713127914956</v>
       </c>
       <c r="T37" t="n">
-        <v>220.9596946594119</v>
+        <v>221.0237578034258</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6207884946391</v>
+        <v>288.6216063220095</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>374.0872403778333</v>
+        <v>332.866730672071</v>
       </c>
       <c r="C38" t="n">
         <v>350.2054973811788</v>
@@ -25399,25 +25399,25 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E38" t="n">
-        <v>337.358426230064</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
-        <v>369.0787638084414</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>417.3762788859196</v>
+        <v>376.1891946204211</v>
       </c>
       <c r="H38" t="n">
-        <v>332.0497758952499</v>
+        <v>332.3920941853522</v>
       </c>
       <c r="I38" t="n">
-        <v>184.6500978223821</v>
+        <v>185.9387321081544</v>
       </c>
       <c r="J38" t="n">
-        <v>62.2797932013217</v>
+        <v>65.11673566191615</v>
       </c>
       <c r="K38" t="n">
-        <v>30.81501082970189</v>
+        <v>35.06685217666538</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -25432,34 +25432,34 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>13.39533964498645</v>
+        <v>18.20195973672935</v>
       </c>
       <c r="Q38" t="n">
-        <v>69.42373700667369</v>
+        <v>73.0333085189672</v>
       </c>
       <c r="R38" t="n">
-        <v>145.6350816627327</v>
+        <v>147.7347424747072</v>
       </c>
       <c r="S38" t="n">
-        <v>194.2040832849866</v>
+        <v>194.9657655049992</v>
       </c>
       <c r="T38" t="n">
-        <v>216.0664400789381</v>
+        <v>216.2127599436932</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0335899665114</v>
+        <v>250.0362640017325</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W38" t="n">
-        <v>303.7759779941948</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
-        <v>354.7177530696278</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
-        <v>382.2855674184499</v>
+        <v>354.0722558680149</v>
       </c>
     </row>
     <row r="39">
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>142.6300085660936</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>153.3976656927938</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -25484,19 +25484,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>147.9624221863091</v>
+        <v>147.9803063735219</v>
       </c>
       <c r="H39" t="n">
-        <v>118.1812903801788</v>
+        <v>118.3540139777347</v>
       </c>
       <c r="I39" t="n">
-        <v>86.99449553445228</v>
+        <v>87.61024496261481</v>
       </c>
       <c r="J39" t="n">
-        <v>60.28308815881573</v>
+        <v>61.97275165334428</v>
       </c>
       <c r="K39" t="n">
-        <v>6.721393185753584</v>
+        <v>9.609297223544672</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25514,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>43.15465534804171</v>
+        <v>4.217046452119206</v>
       </c>
       <c r="R39" t="n">
-        <v>115.6539284696802</v>
+        <v>75.54380715946803</v>
       </c>
       <c r="S39" t="n">
-        <v>147.0087744564601</v>
+        <v>141.0872643616108</v>
       </c>
       <c r="T39" t="n">
-        <v>211.8181800837182</v>
+        <v>211.8902659084929</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1766101358151</v>
+        <v>195.9572770213168</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -25538,7 +25538,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>189.2638003024535</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -25563,49 +25563,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.0450195718329</v>
+        <v>168.0600130736233</v>
       </c>
       <c r="H40" t="n">
-        <v>159.9941364046431</v>
+        <v>160.1274422660167</v>
       </c>
       <c r="I40" t="n">
-        <v>145.1326161098078</v>
+        <v>145.5835116000163</v>
       </c>
       <c r="J40" t="n">
-        <v>95.67398833893671</v>
+        <v>96.73402891552421</v>
       </c>
       <c r="K40" t="n">
-        <v>60.01309126702743</v>
+        <v>61.75506356595868</v>
       </c>
       <c r="L40" t="n">
-        <v>39.94248574804224</v>
+        <v>42.17161055060261</v>
       </c>
       <c r="M40" t="n">
-        <v>38.09849301570364</v>
+        <v>40.44879257364349</v>
       </c>
       <c r="N40" t="n">
-        <v>27.50958428362776</v>
+        <v>29.8039989712576</v>
       </c>
       <c r="O40" t="n">
-        <v>50.44184503460119</v>
+        <v>52.5611083604058</v>
       </c>
       <c r="P40" t="n">
-        <v>66.65222240800031</v>
+        <v>68.46561829727897</v>
       </c>
       <c r="Q40" t="n">
-        <v>114.6486541029358</v>
+        <v>115.9041554210466</v>
       </c>
       <c r="R40" t="n">
-        <v>173.9448158155357</v>
+        <v>174.6189781778607</v>
       </c>
       <c r="S40" t="n">
-        <v>224.010016946656</v>
+        <v>224.2713127914956</v>
       </c>
       <c r="T40" t="n">
-        <v>220.9596946594119</v>
+        <v>221.0237578034258</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6207884946391</v>
+        <v>288.6216063220095</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25636,25 +25636,25 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
-        <v>366.4139508365578</v>
+        <v>342.9902368783208</v>
       </c>
       <c r="F41" t="n">
-        <v>369.0787638084414</v>
+        <v>374.7105744566982</v>
       </c>
       <c r="G41" t="n">
-        <v>383.2557930543475</v>
+        <v>417.4097043261834</v>
       </c>
       <c r="H41" t="n">
-        <v>297.9292900636778</v>
+        <v>332.3920941853522</v>
       </c>
       <c r="I41" t="n">
-        <v>184.6500978223821</v>
+        <v>185.9387321081544</v>
       </c>
       <c r="J41" t="n">
-        <v>62.2797932013217</v>
+        <v>65.11673566191615</v>
       </c>
       <c r="K41" t="n">
-        <v>30.81501082970189</v>
+        <v>35.06685217666538</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -25669,22 +25669,22 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>13.39533964498645</v>
+        <v>18.20195973672935</v>
       </c>
       <c r="Q41" t="n">
-        <v>69.42373700667369</v>
+        <v>73.0333085189672</v>
       </c>
       <c r="R41" t="n">
-        <v>145.6350816627327</v>
+        <v>147.7347424747072</v>
       </c>
       <c r="S41" t="n">
-        <v>194.2040832849866</v>
+        <v>194.9657655049992</v>
       </c>
       <c r="T41" t="n">
-        <v>216.0664400789381</v>
+        <v>187.7240847603779</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0335899665114</v>
+        <v>249.8049006206195</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>142.6300085660936</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>129.1189911561298</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
@@ -25721,19 +25721,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>147.9624221863091</v>
+        <v>147.9803063735219</v>
       </c>
       <c r="H42" t="n">
-        <v>118.1812903801788</v>
+        <v>118.3540139777347</v>
       </c>
       <c r="I42" t="n">
-        <v>86.99449553445228</v>
+        <v>87.61024496261481</v>
       </c>
       <c r="J42" t="n">
-        <v>60.28308815881573</v>
+        <v>61.97275165334428</v>
       </c>
       <c r="K42" t="n">
-        <v>6.721393185753584</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25751,31 +25751,31 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>43.15465534804171</v>
+        <v>45.43755615788152</v>
       </c>
       <c r="R42" t="n">
-        <v>115.6539284696802</v>
+        <v>88.27564168191503</v>
       </c>
       <c r="S42" t="n">
-        <v>177.0620983769088</v>
+        <v>148.9056141271309</v>
       </c>
       <c r="T42" t="n">
-        <v>211.8181800837182</v>
+        <v>183.4015907251776</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1766101358151</v>
+        <v>221.6942588491596</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>232.5840977454395</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>189.2638003024535</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -25800,49 +25800,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.0450195718329</v>
+        <v>168.0600130736233</v>
       </c>
       <c r="H43" t="n">
-        <v>159.9941364046431</v>
+        <v>160.1274422660167</v>
       </c>
       <c r="I43" t="n">
-        <v>145.1326161098078</v>
+        <v>145.5835116000163</v>
       </c>
       <c r="J43" t="n">
-        <v>95.67398833893671</v>
+        <v>96.73402891552421</v>
       </c>
       <c r="K43" t="n">
-        <v>60.01309126702743</v>
+        <v>61.75506356595868</v>
       </c>
       <c r="L43" t="n">
-        <v>39.94248574804224</v>
+        <v>42.17161055060261</v>
       </c>
       <c r="M43" t="n">
-        <v>38.09849301570364</v>
+        <v>40.44879257364349</v>
       </c>
       <c r="N43" t="n">
-        <v>27.50958428362776</v>
+        <v>29.8039989712576</v>
       </c>
       <c r="O43" t="n">
-        <v>50.44184503460119</v>
+        <v>52.5611083604058</v>
       </c>
       <c r="P43" t="n">
-        <v>66.65222240800031</v>
+        <v>68.46561829727897</v>
       </c>
       <c r="Q43" t="n">
-        <v>114.6486541029358</v>
+        <v>115.9041554210466</v>
       </c>
       <c r="R43" t="n">
-        <v>173.9448158155357</v>
+        <v>174.6189781778607</v>
       </c>
       <c r="S43" t="n">
-        <v>224.010016946656</v>
+        <v>224.2713127914956</v>
       </c>
       <c r="T43" t="n">
-        <v>220.9596946594119</v>
+        <v>221.0237578034258</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6207884946391</v>
+        <v>288.6216063220095</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25870,7 +25870,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D44" t="n">
-        <v>303.6516738106552</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
         <v>371.4789120616362</v>
@@ -25879,19 +25879,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>417.3762788859196</v>
+        <v>417.4097043261834</v>
       </c>
       <c r="H44" t="n">
-        <v>332.0497758952499</v>
+        <v>332.3920941853522</v>
       </c>
       <c r="I44" t="n">
-        <v>184.6500978223821</v>
+        <v>185.9387321081544</v>
       </c>
       <c r="J44" t="n">
-        <v>62.2797932013217</v>
+        <v>65.11673566191615</v>
       </c>
       <c r="K44" t="n">
-        <v>30.81501082970189</v>
+        <v>35.06685217666538</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -25906,34 +25906,34 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>13.39533964498645</v>
+        <v>18.20195973672935</v>
       </c>
       <c r="Q44" t="n">
-        <v>69.42373700667369</v>
+        <v>73.0333085189672</v>
       </c>
       <c r="R44" t="n">
-        <v>145.6350816627327</v>
+        <v>119.2460672913919</v>
       </c>
       <c r="S44" t="n">
-        <v>194.2040832849866</v>
+        <v>166.4770903216839</v>
       </c>
       <c r="T44" t="n">
-        <v>216.0664400789381</v>
+        <v>187.7240847603779</v>
       </c>
       <c r="U44" t="n">
-        <v>215.9131041349393</v>
+        <v>250.0362640017325</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
-        <v>337.8964638257669</v>
+        <v>337.6651004446538</v>
       </c>
       <c r="X44" t="n">
-        <v>354.7177530696278</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
-        <v>348.1650815868778</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="45">
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>146.697170477217</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
@@ -25958,19 +25958,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>113.8419363547369</v>
+        <v>132.4967784956025</v>
       </c>
       <c r="H45" t="n">
-        <v>118.1812903801788</v>
+        <v>118.3540139777347</v>
       </c>
       <c r="I45" t="n">
-        <v>86.99449553445228</v>
+        <v>87.61024496261481</v>
       </c>
       <c r="J45" t="n">
-        <v>26.1626023272436</v>
+        <v>61.97275165334428</v>
       </c>
       <c r="K45" t="n">
-        <v>6.721393185753584</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25988,25 +25988,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>9.034169516469589</v>
+        <v>16.94888097456621</v>
       </c>
       <c r="R45" t="n">
-        <v>115.6539284696802</v>
+        <v>88.27564168191503</v>
       </c>
       <c r="S45" t="n">
-        <v>177.0620983769088</v>
+        <v>177.3942893104462</v>
       </c>
       <c r="T45" t="n">
-        <v>211.8181800837182</v>
+        <v>211.8902659084929</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1766101358151</v>
+        <v>237.1777867270791</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>238.2159083936963</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -26037,49 +26037,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.0450195718329</v>
+        <v>168.0600130736233</v>
       </c>
       <c r="H46" t="n">
-        <v>159.9941364046431</v>
+        <v>160.1274422660167</v>
       </c>
       <c r="I46" t="n">
-        <v>145.1326161098078</v>
+        <v>145.5835116000163</v>
       </c>
       <c r="J46" t="n">
-        <v>95.67398833893671</v>
+        <v>96.73402891552421</v>
       </c>
       <c r="K46" t="n">
-        <v>60.01309126702743</v>
+        <v>61.75506356595868</v>
       </c>
       <c r="L46" t="n">
-        <v>39.94248574804224</v>
+        <v>42.17161055060261</v>
       </c>
       <c r="M46" t="n">
-        <v>38.09849301570364</v>
+        <v>40.44879257364349</v>
       </c>
       <c r="N46" t="n">
-        <v>27.50958428362776</v>
+        <v>29.8039989712576</v>
       </c>
       <c r="O46" t="n">
-        <v>50.44184503460119</v>
+        <v>52.5611083604058</v>
       </c>
       <c r="P46" t="n">
-        <v>66.65222240800031</v>
+        <v>68.46561829727897</v>
       </c>
       <c r="Q46" t="n">
-        <v>114.6486541029358</v>
+        <v>115.9041554210466</v>
       </c>
       <c r="R46" t="n">
-        <v>173.9448158155357</v>
+        <v>174.6189781778607</v>
       </c>
       <c r="S46" t="n">
-        <v>224.010016946656</v>
+        <v>224.2713127914956</v>
       </c>
       <c r="T46" t="n">
-        <v>220.9596946594119</v>
+        <v>221.0237578034258</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6207884946391</v>
+        <v>288.6216063220095</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>310451.2506419733</v>
+        <v>310451.2506419732</v>
       </c>
     </row>
     <row r="3">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>345863.4061790699</v>
+        <v>362149.5300437419</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>345863.4061790699</v>
+        <v>362149.5300437419</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>389492.7991193535</v>
+        <v>388116.887822858</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>389492.7991193535</v>
+        <v>388116.887822858</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>389492.7991193535</v>
+        <v>388116.887822858</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>389492.7991193536</v>
+        <v>388116.887822858</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>389492.7991193535</v>
+        <v>388116.8878228581</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>389492.7991193536</v>
+        <v>388116.8878228579</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>389492.7991193535</v>
+        <v>382300.6876079761</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>389492.7991193536</v>
+        <v>382300.687607976</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>70804.67119904664</v>
+        <v>70804.6711990466</v>
       </c>
       <c r="C2" t="n">
-        <v>75601.8992570699</v>
+        <v>75601.89925706989</v>
       </c>
       <c r="D2" t="n">
-        <v>75601.8992570699</v>
+        <v>75601.89925706989</v>
       </c>
       <c r="E2" t="n">
-        <v>78881.12772505102</v>
+        <v>78881.12772505105</v>
       </c>
       <c r="F2" t="n">
         <v>78881.12772505105</v>
       </c>
       <c r="G2" t="n">
-        <v>78881.12772505102</v>
+        <v>82595.50685208151</v>
       </c>
       <c r="H2" t="n">
-        <v>78881.12772505103</v>
+        <v>82595.50685208151</v>
       </c>
       <c r="I2" t="n">
-        <v>88831.69102722096</v>
+        <v>88517.8866964413</v>
       </c>
       <c r="J2" t="n">
-        <v>88831.69102722098</v>
+        <v>88517.88669644129</v>
       </c>
       <c r="K2" t="n">
-        <v>88831.69102722096</v>
+        <v>88517.88669644129</v>
       </c>
       <c r="L2" t="n">
-        <v>88831.69102722098</v>
+        <v>88517.8866964413</v>
       </c>
       <c r="M2" t="n">
-        <v>88831.69102722094</v>
+        <v>88517.88669644129</v>
       </c>
       <c r="N2" t="n">
-        <v>88831.69102722098</v>
+        <v>88517.88669644129</v>
       </c>
       <c r="O2" t="n">
-        <v>88831.69102722098</v>
+        <v>87191.38489304713</v>
       </c>
       <c r="P2" t="n">
-        <v>88831.69102722095</v>
+        <v>87191.38489304713</v>
       </c>
     </row>
     <row r="3">
@@ -26368,7 +26368,7 @@
         <v>348770.3362913723</v>
       </c>
       <c r="C3" t="n">
-        <v>25716.8849129437</v>
+        <v>25716.88491294375</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>18103.84713380757</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>46992.41474995484</v>
+        <v>25086.7597180476</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.828221144548935e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26432,34 +26432,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>7.766804871860018</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>7.766804871860018</v>
       </c>
       <c r="I4" t="n">
-        <v>21.67972093985102</v>
+        <v>23.86096026473151</v>
       </c>
       <c r="J4" t="n">
-        <v>21.67972093985102</v>
+        <v>23.86096026473152</v>
       </c>
       <c r="K4" t="n">
-        <v>21.67972093985102</v>
+        <v>23.86096026473152</v>
       </c>
       <c r="L4" t="n">
-        <v>21.67972093985102</v>
+        <v>23.86096026473151</v>
       </c>
       <c r="M4" t="n">
-        <v>21.67972093985102</v>
+        <v>23.86096026473152</v>
       </c>
       <c r="N4" t="n">
-        <v>21.67972093985102</v>
+        <v>23.86096026473152</v>
       </c>
       <c r="O4" t="n">
-        <v>21.67972093985102</v>
+        <v>17.61433643485167</v>
       </c>
       <c r="P4" t="n">
-        <v>21.67972093985102</v>
+        <v>17.61433643485167</v>
       </c>
     </row>
     <row r="5">
@@ -26484,34 +26484,34 @@
         <v>9034.86667628599</v>
       </c>
       <c r="G5" t="n">
-        <v>9034.86667628599</v>
+        <v>10218.73174381929</v>
       </c>
       <c r="H5" t="n">
-        <v>9034.86667628599</v>
+        <v>10218.73174381929</v>
       </c>
       <c r="I5" t="n">
-        <v>12207.54781599495</v>
+        <v>12457.97146135489</v>
       </c>
       <c r="J5" t="n">
-        <v>12207.54781599495</v>
+        <v>12457.97146135489</v>
       </c>
       <c r="K5" t="n">
-        <v>12207.54781599495</v>
+        <v>12457.97146135489</v>
       </c>
       <c r="L5" t="n">
-        <v>12207.54781599495</v>
+        <v>12457.97146135489</v>
       </c>
       <c r="M5" t="n">
-        <v>12207.54781599495</v>
+        <v>12457.97146135489</v>
       </c>
       <c r="N5" t="n">
-        <v>12207.54781599495</v>
+        <v>12457.97146135489</v>
       </c>
       <c r="O5" t="n">
-        <v>12207.54781599495</v>
+        <v>11683.87592239011</v>
       </c>
       <c r="P5" t="n">
-        <v>12207.54781599495</v>
+        <v>11683.87592239011</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-319483.5626818683</v>
+        <v>-336130.0132341742</v>
       </c>
       <c r="C6" t="n">
-        <v>7751.449216952271</v>
+        <v>-8525.983792428904</v>
       </c>
       <c r="D6" t="n">
-        <v>33468.33412989596</v>
+        <v>17190.90112051486</v>
       </c>
       <c r="E6" t="n">
-        <v>50354.4678716427</v>
+        <v>34329.28320595249</v>
       </c>
       <c r="F6" t="n">
-        <v>69846.26104876505</v>
+        <v>53821.07638307481</v>
       </c>
       <c r="G6" t="n">
-        <v>69846.26104876502</v>
+        <v>38525.69797520258</v>
       </c>
       <c r="H6" t="n">
-        <v>69846.26104876504</v>
+        <v>56629.54510901016</v>
       </c>
       <c r="I6" t="n">
-        <v>29610.04874033132</v>
+        <v>35665.39904272924</v>
       </c>
       <c r="J6" t="n">
-        <v>76602.46349028617</v>
+        <v>60752.15876077683</v>
       </c>
       <c r="K6" t="n">
-        <v>76602.46349028616</v>
+        <v>60752.15876077683</v>
       </c>
       <c r="L6" t="n">
-        <v>76602.46349028598</v>
+        <v>60752.15876077685</v>
       </c>
       <c r="M6" t="n">
-        <v>76602.46349028613</v>
+        <v>60752.15876077683</v>
       </c>
       <c r="N6" t="n">
-        <v>76602.46349028617</v>
+        <v>60752.15876077683</v>
       </c>
       <c r="O6" t="n">
-        <v>76602.46349028617</v>
+        <v>60103.96051991624</v>
       </c>
       <c r="P6" t="n">
-        <v>76602.46349028614</v>
+        <v>60103.96051991624</v>
       </c>
     </row>
   </sheetData>
@@ -26752,34 +26752,34 @@
         <v>414.443425517706</v>
       </c>
       <c r="G3" t="n">
-        <v>414.443425517706</v>
+        <v>433.2401928832345</v>
       </c>
       <c r="H3" t="n">
-        <v>414.443425517706</v>
+        <v>433.2401928832345</v>
       </c>
       <c r="I3" t="n">
-        <v>464.8175356621729</v>
+        <v>456.5029573965387</v>
       </c>
       <c r="J3" t="n">
-        <v>464.8175356621729</v>
+        <v>456.5029573965387</v>
       </c>
       <c r="K3" t="n">
-        <v>464.8175356621729</v>
+        <v>456.5029573965387</v>
       </c>
       <c r="L3" t="n">
-        <v>464.8175356621729</v>
+        <v>456.5029573965387</v>
       </c>
       <c r="M3" t="n">
-        <v>464.8175356621729</v>
+        <v>456.5029573965387</v>
       </c>
       <c r="N3" t="n">
-        <v>464.8175356621729</v>
+        <v>456.5029573965387</v>
       </c>
       <c r="O3" t="n">
-        <v>464.8175356621729</v>
+        <v>456.5029573965387</v>
       </c>
       <c r="P3" t="n">
-        <v>464.8175356621729</v>
+        <v>456.5029573965387</v>
       </c>
     </row>
     <row r="4">
@@ -26804,34 +26804,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>12.731834522447</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>12.731834522447</v>
       </c>
       <c r="I4" t="n">
-        <v>34.12048583157213</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="J4" t="n">
-        <v>34.12048583157213</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="K4" t="n">
-        <v>34.12048583157213</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="L4" t="n">
-        <v>34.12048583157213</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="M4" t="n">
-        <v>34.12048583157213</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="N4" t="n">
-        <v>34.12048583157213</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="O4" t="n">
-        <v>34.12048583157213</v>
+        <v>28.48867518331531</v>
       </c>
       <c r="P4" t="n">
-        <v>34.12048583157213</v>
+        <v>28.48867518331531</v>
       </c>
     </row>
   </sheetData>
@@ -26962,7 +26962,7 @@
         <v>361.9402564010368</v>
       </c>
       <c r="C3" t="n">
-        <v>28.24163016657519</v>
+        <v>28.24163016657525</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>18.79676736552852</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>50.37411014446695</v>
+        <v>23.26276451330418</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>12.73183452244703</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>34.12048583157213</v>
+        <v>28.48867518331531</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27041,7 +27041,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>7.223572329908749e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>12.73183452244703</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31047,22 +31047,22 @@
         <v>14.90138955122459</v>
       </c>
       <c r="I2" t="n">
-        <v>56.09528335638583</v>
+        <v>56.09528335638582</v>
       </c>
       <c r="J2" t="n">
         <v>123.4943792430854</v>
       </c>
       <c r="K2" t="n">
-        <v>185.0860618700438</v>
+        <v>185.0860618700437</v>
       </c>
       <c r="L2" t="n">
         <v>229.6156261789211</v>
       </c>
       <c r="M2" t="n">
-        <v>255.4916263187078</v>
+        <v>255.4916263187077</v>
       </c>
       <c r="N2" t="n">
-        <v>259.6257479408162</v>
+        <v>259.6257479408161</v>
       </c>
       <c r="O2" t="n">
         <v>245.1572316610661</v>
@@ -31074,13 +31074,13 @@
         <v>157.1275411595074</v>
       </c>
       <c r="R2" t="n">
-        <v>91.39991811518244</v>
+        <v>91.39991811518243</v>
       </c>
       <c r="S2" t="n">
-        <v>33.15663755874826</v>
+        <v>33.15663755874825</v>
       </c>
       <c r="T2" t="n">
-        <v>6.369420994554928</v>
+        <v>6.369420994554927</v>
       </c>
       <c r="U2" t="n">
         <v>0.1164028965309866</v>
@@ -31123,13 +31123,13 @@
         <v>0.7785130043343056</v>
       </c>
       <c r="H3" t="n">
-        <v>7.518796647123428</v>
+        <v>7.518796647123426</v>
       </c>
       <c r="I3" t="n">
-        <v>26.80406615800132</v>
+        <v>26.80406615800131</v>
       </c>
       <c r="J3" t="n">
-        <v>73.55240625598807</v>
+        <v>73.55240625598806</v>
       </c>
       <c r="K3" t="n">
         <v>125.7127775463865</v>
@@ -31150,7 +31150,7 @@
         <v>148.6618385206447</v>
       </c>
       <c r="Q3" t="n">
-        <v>99.37650209712999</v>
+        <v>99.37650209712996</v>
       </c>
       <c r="R3" t="n">
         <v>48.33609688314225</v>
@@ -31159,10 +31159,10 @@
         <v>14.46053760243764</v>
       </c>
       <c r="T3" t="n">
-        <v>3.137953732382573</v>
+        <v>3.137953732382572</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0512179608114675</v>
+        <v>0.05121796081146749</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6526791508871155</v>
+        <v>0.6526791508871154</v>
       </c>
       <c r="H4" t="n">
-        <v>5.802910996069087</v>
+        <v>5.802910996069085</v>
       </c>
       <c r="I4" t="n">
-        <v>19.62784210122345</v>
+        <v>19.62784210122344</v>
       </c>
       <c r="J4" t="n">
-        <v>46.14441596771907</v>
+        <v>46.14441596771906</v>
       </c>
       <c r="K4" t="n">
-        <v>75.82945043943032</v>
+        <v>75.8294504394303</v>
       </c>
       <c r="L4" t="n">
-        <v>97.03558939643536</v>
+        <v>97.03558939643534</v>
       </c>
       <c r="M4" t="n">
         <v>102.3104236249685</v>
       </c>
       <c r="N4" t="n">
-        <v>99.87771042620749</v>
+        <v>99.87771042620747</v>
       </c>
       <c r="O4" t="n">
-        <v>92.2532312544807</v>
+        <v>92.25323125448068</v>
       </c>
       <c r="P4" t="n">
-        <v>78.93857657638347</v>
+        <v>78.93857657638345</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.65297871655656</v>
+        <v>54.65297871655655</v>
       </c>
       <c r="R4" t="n">
-        <v>29.34682800261521</v>
+        <v>29.3468280026152</v>
       </c>
       <c r="S4" t="n">
         <v>11.37441756591454</v>
       </c>
       <c r="T4" t="n">
-        <v>2.788720008335857</v>
+        <v>2.788720008335856</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03560068095747907</v>
+        <v>0.03560068095747906</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31521,13 +31521,13 @@
         <v>16.06412159119821</v>
       </c>
       <c r="I8" t="n">
-        <v>60.47231027898639</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J8" t="n">
         <v>133.1304518394688</v>
       </c>
       <c r="K8" t="n">
-        <v>199.5280367978889</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L8" t="n">
         <v>247.5321731236922</v>
@@ -31542,7 +31542,7 @@
         <v>264.2864656901256</v>
       </c>
       <c r="P8" t="n">
-        <v>225.5623839830384</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q8" t="n">
         <v>169.3879565952893</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8392591522397692</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H9" t="n">
         <v>8.105476549263036</v>
@@ -31627,16 +31627,16 @@
         <v>107.1306945911678</v>
       </c>
       <c r="R9" t="n">
-        <v>52.10768666274639</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S9" t="n">
         <v>15.5888706567343</v>
       </c>
       <c r="T9" t="n">
-        <v>3.382803337317314</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05521441791051115</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7036066806956937</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H10" t="n">
         <v>6.255703033821718</v>
       </c>
       <c r="I10" t="n">
-        <v>21.1593718158305</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J10" t="n">
         <v>49.74499232518554</v>
@@ -31712,7 +31712,7 @@
         <v>12.26194551721495</v>
       </c>
       <c r="T10" t="n">
-        <v>3.006319453881599</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U10" t="n">
         <v>0.03837854621976516</v>
@@ -31782,7 +31782,7 @@
         <v>239.5878699245347</v>
       </c>
       <c r="Q11" t="n">
-        <v>179.9205124316589</v>
+        <v>179.920512431659</v>
       </c>
       <c r="R11" t="n">
         <v>104.6584194097552</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8914443492267637</v>
+        <v>0.8914443492267639</v>
       </c>
       <c r="H12" t="n">
         <v>8.6094756885848</v>
@@ -31937,16 +31937,16 @@
         <v>105.6355144253983</v>
       </c>
       <c r="P13" t="n">
-        <v>90.38943168995995</v>
+        <v>90.38943168995996</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.58095725317359</v>
+        <v>62.5809572531736</v>
       </c>
       <c r="R13" t="n">
         <v>33.60388823951759</v>
       </c>
       <c r="S13" t="n">
-        <v>13.02439420848265</v>
+        <v>13.02439420848266</v>
       </c>
       <c r="T13" t="n">
         <v>3.19325262284134</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.666104223186756</v>
+        <v>1.741669117118529</v>
       </c>
       <c r="H17" t="n">
-        <v>17.06298987571137</v>
+        <v>17.83686884569014</v>
       </c>
       <c r="I17" t="n">
-        <v>64.23248306440749</v>
+        <v>67.14569863771217</v>
       </c>
       <c r="J17" t="n">
-        <v>141.4085133126971</v>
+        <v>147.8219892290389</v>
       </c>
       <c r="K17" t="n">
-        <v>211.9347050801925</v>
+        <v>221.5468429566663</v>
       </c>
       <c r="L17" t="n">
-        <v>262.9237422005443</v>
+        <v>274.8484491996825</v>
       </c>
       <c r="M17" t="n">
-        <v>281.0224045372727</v>
+        <v>293.7542390597197</v>
       </c>
       <c r="N17" t="n">
-        <v>279.8839375878409</v>
+        <v>292.6157721102879</v>
       </c>
       <c r="O17" t="n">
-        <v>280.7198179344578</v>
+        <v>293.4516524569048</v>
       </c>
       <c r="P17" t="n">
-        <v>239.5878699245347</v>
+        <v>250.4541961280411</v>
       </c>
       <c r="Q17" t="n">
-        <v>179.9205124316589</v>
+        <v>188.0806708712337</v>
       </c>
       <c r="R17" t="n">
-        <v>104.6584194097552</v>
+        <v>109.4051226781969</v>
       </c>
       <c r="S17" t="n">
-        <v>37.96634998586825</v>
+        <v>39.68828500633852</v>
       </c>
       <c r="T17" t="n">
-        <v>7.29337123700003</v>
+        <v>7.624156560186366</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1332883378549405</v>
+        <v>0.1393335293694823</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8914443492267637</v>
+        <v>0.9318751318620516</v>
       </c>
       <c r="H18" t="n">
-        <v>8.6094756885848</v>
+        <v>8.999951931404553</v>
       </c>
       <c r="I18" t="n">
-        <v>30.692272550132</v>
+        <v>32.0842973031452</v>
       </c>
       <c r="J18" t="n">
-        <v>84.2219417837444</v>
+        <v>88.04176410280903</v>
       </c>
       <c r="K18" t="n">
-        <v>143.9487131819376</v>
+        <v>150.4773979375665</v>
       </c>
       <c r="L18" t="n">
-        <v>169.0363433314465</v>
+        <v>181.7681778538935</v>
       </c>
       <c r="M18" t="n">
-        <v>173.4035213848624</v>
+        <v>186.1353559073094</v>
       </c>
       <c r="N18" t="n">
-        <v>160.2368887416667</v>
+        <v>172.9687232641137</v>
       </c>
       <c r="O18" t="n">
-        <v>173.9674182222222</v>
+        <v>186.1848351882067</v>
       </c>
       <c r="P18" t="n">
         <v>163.4487770454829</v>
       </c>
       <c r="Q18" t="n">
-        <v>113.792089210069</v>
+        <v>118.9530431478647</v>
       </c>
       <c r="R18" t="n">
-        <v>55.34774652479857</v>
+        <v>57.8580016080667</v>
       </c>
       <c r="S18" t="n">
-        <v>16.55818780252343</v>
+        <v>17.3091718571745</v>
       </c>
       <c r="T18" t="n">
-        <v>3.59314630236577</v>
+        <v>3.756110728865022</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05864765455439238</v>
+        <v>0.06130757446460868</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7473569968352074</v>
+        <v>0.7812528068386195</v>
       </c>
       <c r="H19" t="n">
-        <v>6.644683117316667</v>
+        <v>6.946047682619731</v>
       </c>
       <c r="I19" t="n">
-        <v>22.4750631411897</v>
+        <v>23.49440259111049</v>
       </c>
       <c r="J19" t="n">
-        <v>52.83813967624916</v>
+        <v>55.2345734434904</v>
       </c>
       <c r="K19" t="n">
-        <v>86.82929472321771</v>
+        <v>90.7673715581596</v>
       </c>
       <c r="L19" t="n">
-        <v>111.1116029658453</v>
+        <v>116.1509854821708</v>
       </c>
       <c r="M19" t="n">
-        <v>117.1516063311771</v>
+        <v>122.4649286210756</v>
       </c>
       <c r="N19" t="n">
-        <v>114.3660029793369</v>
+        <v>119.5529863410408</v>
       </c>
       <c r="O19" t="n">
-        <v>105.6355144253983</v>
+        <v>110.4265330975169</v>
       </c>
       <c r="P19" t="n">
-        <v>90.38943168995995</v>
+        <v>94.488975838009</v>
       </c>
       <c r="Q19" t="n">
-        <v>62.58095725317359</v>
+        <v>65.4192691253684</v>
       </c>
       <c r="R19" t="n">
-        <v>33.60388823951759</v>
+        <v>35.12796711476192</v>
       </c>
       <c r="S19" t="n">
-        <v>13.02439420848265</v>
+        <v>13.61510573372394</v>
       </c>
       <c r="T19" t="n">
-        <v>3.19325262284134</v>
+        <v>3.338080174674101</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04076492710010227</v>
+        <v>0.04261378946392475</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.666104223186756</v>
+        <v>1.741669117118529</v>
       </c>
       <c r="H20" t="n">
-        <v>17.06298987571137</v>
+        <v>17.83686884569014</v>
       </c>
       <c r="I20" t="n">
-        <v>64.23248306440749</v>
+        <v>67.14569863771217</v>
       </c>
       <c r="J20" t="n">
-        <v>141.4085133126971</v>
+        <v>147.8219892290389</v>
       </c>
       <c r="K20" t="n">
-        <v>211.9347050801925</v>
+        <v>221.5468429566663</v>
       </c>
       <c r="L20" t="n">
-        <v>262.9237422005443</v>
+        <v>274.8484491996825</v>
       </c>
       <c r="M20" t="n">
-        <v>281.0224045372727</v>
+        <v>293.7542390597197</v>
       </c>
       <c r="N20" t="n">
-        <v>279.8839375878409</v>
+        <v>292.6157721102879</v>
       </c>
       <c r="O20" t="n">
-        <v>280.7198179344578</v>
+        <v>293.4516524569048</v>
       </c>
       <c r="P20" t="n">
-        <v>239.5878699245347</v>
+        <v>250.4541961280411</v>
       </c>
       <c r="Q20" t="n">
-        <v>179.920512431659</v>
+        <v>188.0806708712337</v>
       </c>
       <c r="R20" t="n">
-        <v>104.6584194097552</v>
+        <v>109.4051226781969</v>
       </c>
       <c r="S20" t="n">
-        <v>37.96634998586825</v>
+        <v>39.68828500633852</v>
       </c>
       <c r="T20" t="n">
-        <v>7.29337123700003</v>
+        <v>7.624156560186366</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1332883378549405</v>
+        <v>0.1393335293694823</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8914443492267639</v>
+        <v>0.9318751318620516</v>
       </c>
       <c r="H21" t="n">
-        <v>8.6094756885848</v>
+        <v>8.999951931404553</v>
       </c>
       <c r="I21" t="n">
-        <v>30.692272550132</v>
+        <v>32.0842973031452</v>
       </c>
       <c r="J21" t="n">
-        <v>84.2219417837444</v>
+        <v>88.04176410280903</v>
       </c>
       <c r="K21" t="n">
-        <v>143.9487131819376</v>
+        <v>150.4773979375665</v>
       </c>
       <c r="L21" t="n">
-        <v>169.0363433314465</v>
+        <v>181.7681778538935</v>
       </c>
       <c r="M21" t="n">
-        <v>173.4035213848624</v>
+        <v>186.1353559073094</v>
       </c>
       <c r="N21" t="n">
-        <v>160.2368887416667</v>
+        <v>172.9687232641137</v>
       </c>
       <c r="O21" t="n">
-        <v>173.9674182222222</v>
+        <v>186.1848351882067</v>
       </c>
       <c r="P21" t="n">
         <v>163.4487770454829</v>
       </c>
       <c r="Q21" t="n">
-        <v>113.792089210069</v>
+        <v>118.9530431478647</v>
       </c>
       <c r="R21" t="n">
-        <v>55.34774652479857</v>
+        <v>57.8580016080667</v>
       </c>
       <c r="S21" t="n">
-        <v>16.55818780252343</v>
+        <v>17.3091718571745</v>
       </c>
       <c r="T21" t="n">
-        <v>3.59314630236577</v>
+        <v>3.756110728865022</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05864765455439238</v>
+        <v>0.06130757446460868</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7473569968352074</v>
+        <v>0.7812528068386195</v>
       </c>
       <c r="H22" t="n">
-        <v>6.644683117316667</v>
+        <v>6.946047682619731</v>
       </c>
       <c r="I22" t="n">
-        <v>22.4750631411897</v>
+        <v>23.49440259111049</v>
       </c>
       <c r="J22" t="n">
-        <v>52.83813967624916</v>
+        <v>55.2345734434904</v>
       </c>
       <c r="K22" t="n">
-        <v>86.82929472321771</v>
+        <v>90.7673715581596</v>
       </c>
       <c r="L22" t="n">
-        <v>111.1116029658453</v>
+        <v>116.1509854821708</v>
       </c>
       <c r="M22" t="n">
-        <v>117.1516063311771</v>
+        <v>122.4649286210756</v>
       </c>
       <c r="N22" t="n">
-        <v>114.3660029793369</v>
+        <v>119.5529863410408</v>
       </c>
       <c r="O22" t="n">
-        <v>105.6355144253983</v>
+        <v>110.4265330975169</v>
       </c>
       <c r="P22" t="n">
-        <v>90.38943168995996</v>
+        <v>94.488975838009</v>
       </c>
       <c r="Q22" t="n">
-        <v>62.5809572531736</v>
+        <v>65.4192691253684</v>
       </c>
       <c r="R22" t="n">
-        <v>33.60388823951759</v>
+        <v>35.12796711476192</v>
       </c>
       <c r="S22" t="n">
-        <v>13.02439420848266</v>
+        <v>13.61510573372394</v>
       </c>
       <c r="T22" t="n">
-        <v>3.19325262284134</v>
+        <v>3.338080174674101</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04076492710010227</v>
+        <v>0.04261378946392475</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.868613208692151</v>
+        <v>1.835187768428295</v>
       </c>
       <c r="H23" t="n">
-        <v>19.1369350235185</v>
+        <v>18.79461673341628</v>
       </c>
       <c r="I23" t="n">
-        <v>72.03971072810423</v>
+        <v>70.75107644233191</v>
       </c>
       <c r="J23" t="n">
-        <v>158.5962103212356</v>
+        <v>155.7592678606411</v>
       </c>
       <c r="K23" t="n">
-        <v>237.6946074451744</v>
+        <v>233.4427660982109</v>
       </c>
       <c r="L23" t="n">
-        <v>294.8811789306869</v>
+        <v>289.6063937662484</v>
       </c>
       <c r="M23" t="n">
-        <v>315.1428903688449</v>
+        <v>322.242914243035</v>
       </c>
       <c r="N23" t="n">
-        <v>314.0044234194131</v>
+        <v>321.1044472936032</v>
       </c>
       <c r="O23" t="n">
-        <v>314.8403037660299</v>
+        <v>309.2084931177731</v>
       </c>
       <c r="P23" t="n">
-        <v>268.7089151764424</v>
+        <v>263.9022950846995</v>
       </c>
       <c r="Q23" t="n">
-        <v>201.7892046401547</v>
+        <v>198.1796331278612</v>
       </c>
       <c r="R23" t="n">
-        <v>117.3792744705084</v>
+        <v>115.279613658534</v>
       </c>
       <c r="S23" t="n">
-        <v>42.58102349307244</v>
+        <v>41.81934127305981</v>
       </c>
       <c r="T23" t="n">
-        <v>8.179854321049895</v>
+        <v>8.033534456294865</v>
       </c>
       <c r="U23" t="n">
-        <v>0.149489056695372</v>
+        <v>0.1468150214742636</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9997962087827871</v>
+        <v>0.9819120215699135</v>
       </c>
       <c r="H24" t="n">
-        <v>9.655926542717971</v>
+        <v>9.483202945162061</v>
       </c>
       <c r="I24" t="n">
-        <v>34.42280806554772</v>
+        <v>33.80705863738518</v>
       </c>
       <c r="J24" t="n">
-        <v>94.45881637451762</v>
+        <v>92.76915287998908</v>
       </c>
       <c r="K24" t="n">
-        <v>161.4451623629644</v>
+        <v>158.5572583251733</v>
       </c>
       <c r="L24" t="n">
-        <v>174.3097755537564</v>
+        <v>208.591377897582</v>
       </c>
       <c r="M24" t="n">
-        <v>207.5240072164345</v>
+        <v>214.6240310906247</v>
       </c>
       <c r="N24" t="n">
-        <v>194.3573745732388</v>
+        <v>201.457398447429</v>
       </c>
       <c r="O24" t="n">
-        <v>208.0879040537943</v>
+        <v>215.1879279279845</v>
       </c>
       <c r="P24" t="n">
-        <v>190.9172251666008</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q24" t="n">
-        <v>127.6231090369046</v>
+        <v>125.3402082270647</v>
       </c>
       <c r="R24" t="n">
-        <v>62.07506636635588</v>
+        <v>60.9646779708057</v>
       </c>
       <c r="S24" t="n">
-        <v>18.57077607103114</v>
+        <v>18.23858513749378</v>
       </c>
       <c r="T24" t="n">
-        <v>4.029880332769215</v>
+        <v>3.957794507994518</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06577606636728865</v>
+        <v>0.0645994751032838</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.838195556112115</v>
+        <v>0.8232020543216271</v>
       </c>
       <c r="H25" t="n">
-        <v>7.45232048979681</v>
+        <v>7.319014628423199</v>
       </c>
       <c r="I25" t="n">
-        <v>25.20682636017161</v>
+        <v>24.75593086996312</v>
       </c>
       <c r="J25" t="n">
-        <v>59.26042581712653</v>
+        <v>58.20038524053903</v>
       </c>
       <c r="K25" t="n">
-        <v>97.38308370102571</v>
+        <v>95.64111140209447</v>
       </c>
       <c r="L25" t="n">
-        <v>124.6168193150685</v>
+        <v>122.3876945125081</v>
       </c>
       <c r="M25" t="n">
-        <v>131.3909634003745</v>
+        <v>129.0406638424347</v>
       </c>
       <c r="N25" t="n">
-        <v>128.2667799639567</v>
+        <v>125.9723652763269</v>
       </c>
       <c r="O25" t="n">
-        <v>118.475131876647</v>
+        <v>116.3558685508424</v>
       </c>
       <c r="P25" t="n">
-        <v>101.3759425319598</v>
+        <v>99.56254664268111</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.18744788498812</v>
+        <v>68.93194656687734</v>
       </c>
       <c r="R25" t="n">
-        <v>37.68832018664109</v>
+        <v>37.01415782431606</v>
       </c>
       <c r="S25" t="n">
-        <v>14.60746255515385</v>
+        <v>14.34616671031417</v>
       </c>
       <c r="T25" t="n">
-        <v>3.581381012479036</v>
+        <v>3.517317868465133</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04571975760611541</v>
+        <v>0.04490193023572517</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.868613208692151</v>
+        <v>1.835187768428295</v>
       </c>
       <c r="H26" t="n">
-        <v>19.1369350235185</v>
+        <v>18.79461673341628</v>
       </c>
       <c r="I26" t="n">
-        <v>72.03971072810423</v>
+        <v>70.75107644233191</v>
       </c>
       <c r="J26" t="n">
-        <v>158.5962103212356</v>
+        <v>155.7592678606411</v>
       </c>
       <c r="K26" t="n">
-        <v>237.6946074451744</v>
+        <v>233.4427660982109</v>
       </c>
       <c r="L26" t="n">
-        <v>294.8811789306869</v>
+        <v>289.6063937662484</v>
       </c>
       <c r="M26" t="n">
-        <v>315.1428903688449</v>
+        <v>322.242914243035</v>
       </c>
       <c r="N26" t="n">
-        <v>314.0044234194131</v>
+        <v>321.1044472936032</v>
       </c>
       <c r="O26" t="n">
-        <v>314.8403037660299</v>
+        <v>309.2084931177731</v>
       </c>
       <c r="P26" t="n">
-        <v>268.7089151764424</v>
+        <v>263.9022950846995</v>
       </c>
       <c r="Q26" t="n">
-        <v>201.7892046401547</v>
+        <v>198.1796331278612</v>
       </c>
       <c r="R26" t="n">
-        <v>117.3792744705084</v>
+        <v>115.279613658534</v>
       </c>
       <c r="S26" t="n">
-        <v>42.58102349307244</v>
+        <v>41.81934127305981</v>
       </c>
       <c r="T26" t="n">
-        <v>8.179854321049895</v>
+        <v>8.033534456294865</v>
       </c>
       <c r="U26" t="n">
-        <v>0.149489056695372</v>
+        <v>0.1468150214742636</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9997962087827871</v>
+        <v>0.9819120215699135</v>
       </c>
       <c r="H27" t="n">
-        <v>9.655926542717971</v>
+        <v>9.483202945162061</v>
       </c>
       <c r="I27" t="n">
-        <v>34.42280806554772</v>
+        <v>33.80705863738518</v>
       </c>
       <c r="J27" t="n">
-        <v>94.45881637451762</v>
+        <v>92.76915287998908</v>
       </c>
       <c r="K27" t="n">
-        <v>161.4451623629644</v>
+        <v>158.5572583251733</v>
       </c>
       <c r="L27" t="n">
-        <v>203.1568291630186</v>
+        <v>210.2568530372088</v>
       </c>
       <c r="M27" t="n">
-        <v>207.5240072164345</v>
+        <v>188.9052031933629</v>
       </c>
       <c r="N27" t="n">
-        <v>194.3573745732388</v>
+        <v>201.457398447429</v>
       </c>
       <c r="O27" t="n">
-        <v>206.70929856565</v>
+        <v>215.1879279279845</v>
       </c>
       <c r="P27" t="n">
-        <v>163.4487770454829</v>
+        <v>187.502129803118</v>
       </c>
       <c r="Q27" t="n">
-        <v>127.6231090369046</v>
+        <v>125.3402082270647</v>
       </c>
       <c r="R27" t="n">
-        <v>62.07506636635588</v>
+        <v>60.9646779708057</v>
       </c>
       <c r="S27" t="n">
-        <v>18.57077607103114</v>
+        <v>18.23858513749378</v>
       </c>
       <c r="T27" t="n">
-        <v>4.029880332769215</v>
+        <v>3.957794507994518</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06577606636728865</v>
+        <v>0.0645994751032838</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.838195556112115</v>
+        <v>0.8232020543216271</v>
       </c>
       <c r="H28" t="n">
-        <v>7.45232048979681</v>
+        <v>7.319014628423199</v>
       </c>
       <c r="I28" t="n">
-        <v>25.20682636017161</v>
+        <v>24.75593086996312</v>
       </c>
       <c r="J28" t="n">
-        <v>59.26042581712653</v>
+        <v>58.20038524053903</v>
       </c>
       <c r="K28" t="n">
-        <v>97.38308370102571</v>
+        <v>95.64111140209447</v>
       </c>
       <c r="L28" t="n">
-        <v>124.6168193150685</v>
+        <v>122.3876945125081</v>
       </c>
       <c r="M28" t="n">
-        <v>131.3909634003745</v>
+        <v>129.0406638424347</v>
       </c>
       <c r="N28" t="n">
-        <v>128.2667799639567</v>
+        <v>125.9723652763269</v>
       </c>
       <c r="O28" t="n">
-        <v>118.475131876647</v>
+        <v>116.3558685508424</v>
       </c>
       <c r="P28" t="n">
-        <v>101.3759425319598</v>
+        <v>99.56254664268111</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.18744788498812</v>
+        <v>68.93194656687734</v>
       </c>
       <c r="R28" t="n">
-        <v>37.68832018664109</v>
+        <v>37.01415782431606</v>
       </c>
       <c r="S28" t="n">
-        <v>14.60746255515385</v>
+        <v>14.34616671031417</v>
       </c>
       <c r="T28" t="n">
-        <v>3.581381012479036</v>
+        <v>3.517317868465133</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04571975760611541</v>
+        <v>0.04490193023572517</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.868613208692151</v>
+        <v>1.835187768428295</v>
       </c>
       <c r="H29" t="n">
-        <v>19.1369350235185</v>
+        <v>18.79461673341628</v>
       </c>
       <c r="I29" t="n">
-        <v>72.03971072810423</v>
+        <v>70.75107644233191</v>
       </c>
       <c r="J29" t="n">
-        <v>158.5962103212356</v>
+        <v>155.7592678606411</v>
       </c>
       <c r="K29" t="n">
-        <v>237.6946074451744</v>
+        <v>233.4427660982109</v>
       </c>
       <c r="L29" t="n">
-        <v>294.8811789306869</v>
+        <v>289.6063937662484</v>
       </c>
       <c r="M29" t="n">
-        <v>315.1428903688449</v>
+        <v>322.242914243035</v>
       </c>
       <c r="N29" t="n">
-        <v>314.0044234194131</v>
+        <v>321.1044472936032</v>
       </c>
       <c r="O29" t="n">
-        <v>314.8403037660299</v>
+        <v>309.2084931177731</v>
       </c>
       <c r="P29" t="n">
-        <v>268.7089151764424</v>
+        <v>263.9022950846995</v>
       </c>
       <c r="Q29" t="n">
-        <v>201.7892046401547</v>
+        <v>198.1796331278612</v>
       </c>
       <c r="R29" t="n">
-        <v>117.3792744705084</v>
+        <v>115.279613658534</v>
       </c>
       <c r="S29" t="n">
-        <v>42.58102349307244</v>
+        <v>41.81934127305981</v>
       </c>
       <c r="T29" t="n">
-        <v>8.179854321049895</v>
+        <v>8.033534456294865</v>
       </c>
       <c r="U29" t="n">
-        <v>0.149489056695372</v>
+        <v>0.1468150214742636</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9997962087827871</v>
+        <v>0.9819120215699135</v>
       </c>
       <c r="H30" t="n">
-        <v>9.655926542717971</v>
+        <v>9.483202945162061</v>
       </c>
       <c r="I30" t="n">
-        <v>34.42280806554772</v>
+        <v>33.80705863738518</v>
       </c>
       <c r="J30" t="n">
-        <v>94.45881637451762</v>
+        <v>92.76915287998908</v>
       </c>
       <c r="K30" t="n">
-        <v>161.4451623629644</v>
+        <v>158.5572583251733</v>
       </c>
       <c r="L30" t="n">
-        <v>203.1568291630186</v>
+        <v>210.2568530372088</v>
       </c>
       <c r="M30" t="n">
-        <v>207.5240072164345</v>
+        <v>214.6240310906247</v>
       </c>
       <c r="N30" t="n">
-        <v>165.5103209639765</v>
+        <v>201.457398447429</v>
       </c>
       <c r="O30" t="n">
-        <v>208.0879040537943</v>
+        <v>189.4691000307227</v>
       </c>
       <c r="P30" t="n">
-        <v>190.9172251666008</v>
+        <v>187.502129803118</v>
       </c>
       <c r="Q30" t="n">
-        <v>127.6231090369046</v>
+        <v>125.3402082270647</v>
       </c>
       <c r="R30" t="n">
-        <v>62.07506636635588</v>
+        <v>60.9646779708057</v>
       </c>
       <c r="S30" t="n">
-        <v>18.57077607103114</v>
+        <v>18.23858513749378</v>
       </c>
       <c r="T30" t="n">
-        <v>4.029880332769215</v>
+        <v>3.957794507994518</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06577606636728865</v>
+        <v>0.0645994751032838</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.838195556112115</v>
+        <v>0.8232020543216271</v>
       </c>
       <c r="H31" t="n">
-        <v>7.45232048979681</v>
+        <v>7.319014628423199</v>
       </c>
       <c r="I31" t="n">
-        <v>25.20682636017161</v>
+        <v>24.75593086996312</v>
       </c>
       <c r="J31" t="n">
-        <v>59.26042581712653</v>
+        <v>58.20038524053903</v>
       </c>
       <c r="K31" t="n">
-        <v>97.38308370102571</v>
+        <v>95.64111140209447</v>
       </c>
       <c r="L31" t="n">
-        <v>124.6168193150685</v>
+        <v>122.3876945125081</v>
       </c>
       <c r="M31" t="n">
-        <v>131.3909634003745</v>
+        <v>129.0406638424347</v>
       </c>
       <c r="N31" t="n">
-        <v>128.2667799639567</v>
+        <v>125.9723652763269</v>
       </c>
       <c r="O31" t="n">
-        <v>118.475131876647</v>
+        <v>116.3558685508424</v>
       </c>
       <c r="P31" t="n">
-        <v>101.3759425319598</v>
+        <v>99.56254664268111</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.18744788498812</v>
+        <v>68.93194656687734</v>
       </c>
       <c r="R31" t="n">
-        <v>37.68832018664109</v>
+        <v>37.01415782431606</v>
       </c>
       <c r="S31" t="n">
-        <v>14.60746255515385</v>
+        <v>14.34616671031417</v>
       </c>
       <c r="T31" t="n">
-        <v>3.581381012479036</v>
+        <v>3.517317868465133</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04571975760611541</v>
+        <v>0.04490193023572517</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.868613208692151</v>
+        <v>1.835187768428295</v>
       </c>
       <c r="H32" t="n">
-        <v>19.1369350235185</v>
+        <v>18.79461673341628</v>
       </c>
       <c r="I32" t="n">
-        <v>72.03971072810423</v>
+        <v>70.75107644233191</v>
       </c>
       <c r="J32" t="n">
-        <v>158.5962103212356</v>
+        <v>155.7592678606411</v>
       </c>
       <c r="K32" t="n">
-        <v>237.6946074451744</v>
+        <v>233.4427660982109</v>
       </c>
       <c r="L32" t="n">
-        <v>294.8811789306869</v>
+        <v>289.6063937662484</v>
       </c>
       <c r="M32" t="n">
-        <v>315.1428903688449</v>
+        <v>322.242914243035</v>
       </c>
       <c r="N32" t="n">
-        <v>314.0044234194131</v>
+        <v>321.1044472936032</v>
       </c>
       <c r="O32" t="n">
-        <v>314.8403037660299</v>
+        <v>309.2084931177731</v>
       </c>
       <c r="P32" t="n">
-        <v>268.7089151764424</v>
+        <v>263.9022950846995</v>
       </c>
       <c r="Q32" t="n">
-        <v>201.7892046401547</v>
+        <v>198.1796331278612</v>
       </c>
       <c r="R32" t="n">
-        <v>117.3792744705084</v>
+        <v>115.279613658534</v>
       </c>
       <c r="S32" t="n">
-        <v>42.58102349307244</v>
+        <v>41.81934127305981</v>
       </c>
       <c r="T32" t="n">
-        <v>8.179854321049895</v>
+        <v>8.033534456294865</v>
       </c>
       <c r="U32" t="n">
-        <v>0.149489056695372</v>
+        <v>0.1468150214742636</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9997962087827871</v>
+        <v>0.9819120215699135</v>
       </c>
       <c r="H33" t="n">
-        <v>9.655926542717971</v>
+        <v>9.483202945162061</v>
       </c>
       <c r="I33" t="n">
-        <v>34.42280806554772</v>
+        <v>33.80705863738518</v>
       </c>
       <c r="J33" t="n">
-        <v>94.45881637451762</v>
+        <v>92.76915287998908</v>
       </c>
       <c r="K33" t="n">
-        <v>161.4451623629644</v>
+        <v>158.5572583251733</v>
       </c>
       <c r="L33" t="n">
-        <v>203.1568291630186</v>
+        <v>208.591377897582</v>
       </c>
       <c r="M33" t="n">
-        <v>207.5240072164345</v>
+        <v>214.6240310906247</v>
       </c>
       <c r="N33" t="n">
-        <v>194.3573745732388</v>
+        <v>201.457398447429</v>
       </c>
       <c r="O33" t="n">
-        <v>179.2408504445321</v>
+        <v>215.1879279279845</v>
       </c>
       <c r="P33" t="n">
-        <v>190.9172251666008</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q33" t="n">
-        <v>127.6231090369046</v>
+        <v>125.3402082270647</v>
       </c>
       <c r="R33" t="n">
-        <v>62.07506636635588</v>
+        <v>60.9646779708057</v>
       </c>
       <c r="S33" t="n">
-        <v>18.57077607103114</v>
+        <v>18.23858513749378</v>
       </c>
       <c r="T33" t="n">
-        <v>4.029880332769215</v>
+        <v>3.957794507994518</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06577606636728865</v>
+        <v>0.0645994751032838</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.838195556112115</v>
+        <v>0.8232020543216271</v>
       </c>
       <c r="H34" t="n">
-        <v>7.45232048979681</v>
+        <v>7.319014628423199</v>
       </c>
       <c r="I34" t="n">
-        <v>25.20682636017161</v>
+        <v>24.75593086996312</v>
       </c>
       <c r="J34" t="n">
-        <v>59.26042581712653</v>
+        <v>58.20038524053903</v>
       </c>
       <c r="K34" t="n">
-        <v>97.38308370102571</v>
+        <v>95.64111140209447</v>
       </c>
       <c r="L34" t="n">
-        <v>124.6168193150685</v>
+        <v>122.3876945125081</v>
       </c>
       <c r="M34" t="n">
-        <v>131.3909634003745</v>
+        <v>129.0406638424347</v>
       </c>
       <c r="N34" t="n">
-        <v>128.2667799639567</v>
+        <v>125.9723652763269</v>
       </c>
       <c r="O34" t="n">
-        <v>118.475131876647</v>
+        <v>116.3558685508424</v>
       </c>
       <c r="P34" t="n">
-        <v>101.3759425319598</v>
+        <v>99.56254664268111</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.18744788498812</v>
+        <v>68.93194656687734</v>
       </c>
       <c r="R34" t="n">
-        <v>37.68832018664109</v>
+        <v>37.01415782431606</v>
       </c>
       <c r="S34" t="n">
-        <v>14.60746255515385</v>
+        <v>14.34616671031417</v>
       </c>
       <c r="T34" t="n">
-        <v>3.581381012479036</v>
+        <v>3.517317868465133</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04571975760611541</v>
+        <v>0.04490193023572517</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.868613208692151</v>
+        <v>1.835187768428295</v>
       </c>
       <c r="H35" t="n">
-        <v>19.1369350235185</v>
+        <v>18.79461673341628</v>
       </c>
       <c r="I35" t="n">
-        <v>72.03971072810423</v>
+        <v>70.75107644233191</v>
       </c>
       <c r="J35" t="n">
-        <v>158.5962103212356</v>
+        <v>155.7592678606411</v>
       </c>
       <c r="K35" t="n">
-        <v>237.6946074451744</v>
+        <v>233.4427660982109</v>
       </c>
       <c r="L35" t="n">
-        <v>294.8811789306869</v>
+        <v>289.6063937662484</v>
       </c>
       <c r="M35" t="n">
-        <v>315.1428903688449</v>
+        <v>322.242914243035</v>
       </c>
       <c r="N35" t="n">
-        <v>314.0044234194131</v>
+        <v>321.1044472936032</v>
       </c>
       <c r="O35" t="n">
-        <v>314.8403037660299</v>
+        <v>309.2084931177731</v>
       </c>
       <c r="P35" t="n">
-        <v>268.7089151764424</v>
+        <v>263.9022950846995</v>
       </c>
       <c r="Q35" t="n">
-        <v>201.7892046401547</v>
+        <v>198.1796331278612</v>
       </c>
       <c r="R35" t="n">
-        <v>117.3792744705084</v>
+        <v>115.279613658534</v>
       </c>
       <c r="S35" t="n">
-        <v>42.58102349307244</v>
+        <v>41.81934127305981</v>
       </c>
       <c r="T35" t="n">
-        <v>8.179854321049895</v>
+        <v>8.033534456294865</v>
       </c>
       <c r="U35" t="n">
-        <v>0.149489056695372</v>
+        <v>0.1468150214742636</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9997962087827871</v>
+        <v>0.9819120215699135</v>
       </c>
       <c r="H36" t="n">
-        <v>9.655926542717971</v>
+        <v>9.483202945162061</v>
       </c>
       <c r="I36" t="n">
-        <v>34.42280806554772</v>
+        <v>33.80705863738518</v>
       </c>
       <c r="J36" t="n">
-        <v>94.45881637451762</v>
+        <v>92.76915287998908</v>
       </c>
       <c r="K36" t="n">
-        <v>161.4451623629644</v>
+        <v>158.5572583251733</v>
       </c>
       <c r="L36" t="n">
-        <v>203.1568291630186</v>
+        <v>184.538025139947</v>
       </c>
       <c r="M36" t="n">
-        <v>178.6769536071722</v>
+        <v>214.6240310906247</v>
       </c>
       <c r="N36" t="n">
-        <v>194.3573745732388</v>
+        <v>201.457398447429</v>
       </c>
       <c r="O36" t="n">
-        <v>208.0879040537943</v>
+        <v>215.1879279279845</v>
       </c>
       <c r="P36" t="n">
-        <v>190.9172251666008</v>
+        <v>187.502129803118</v>
       </c>
       <c r="Q36" t="n">
-        <v>127.6231090369046</v>
+        <v>125.3402082270647</v>
       </c>
       <c r="R36" t="n">
-        <v>62.07506636635588</v>
+        <v>60.9646779708057</v>
       </c>
       <c r="S36" t="n">
-        <v>18.57077607103114</v>
+        <v>18.23858513749378</v>
       </c>
       <c r="T36" t="n">
-        <v>4.029880332769215</v>
+        <v>3.957794507994518</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06577606636728865</v>
+        <v>0.0645994751032838</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.838195556112115</v>
+        <v>0.8232020543216271</v>
       </c>
       <c r="H37" t="n">
-        <v>7.45232048979681</v>
+        <v>7.319014628423199</v>
       </c>
       <c r="I37" t="n">
-        <v>25.20682636017161</v>
+        <v>24.75593086996312</v>
       </c>
       <c r="J37" t="n">
-        <v>59.26042581712653</v>
+        <v>58.20038524053903</v>
       </c>
       <c r="K37" t="n">
-        <v>97.38308370102571</v>
+        <v>95.64111140209447</v>
       </c>
       <c r="L37" t="n">
-        <v>124.6168193150685</v>
+        <v>122.3876945125081</v>
       </c>
       <c r="M37" t="n">
-        <v>131.3909634003745</v>
+        <v>129.0406638424347</v>
       </c>
       <c r="N37" t="n">
-        <v>128.2667799639567</v>
+        <v>125.9723652763269</v>
       </c>
       <c r="O37" t="n">
-        <v>118.475131876647</v>
+        <v>116.3558685508424</v>
       </c>
       <c r="P37" t="n">
-        <v>101.3759425319598</v>
+        <v>99.56254664268111</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.18744788498812</v>
+        <v>68.93194656687734</v>
       </c>
       <c r="R37" t="n">
-        <v>37.68832018664109</v>
+        <v>37.01415782431606</v>
       </c>
       <c r="S37" t="n">
-        <v>14.60746255515385</v>
+        <v>14.34616671031417</v>
       </c>
       <c r="T37" t="n">
-        <v>3.581381012479036</v>
+        <v>3.517317868465133</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04571975760611541</v>
+        <v>0.04490193023572517</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.868613208692151</v>
+        <v>1.835187768428295</v>
       </c>
       <c r="H38" t="n">
-        <v>19.1369350235185</v>
+        <v>18.79461673341628</v>
       </c>
       <c r="I38" t="n">
-        <v>72.03971072810423</v>
+        <v>70.75107644233191</v>
       </c>
       <c r="J38" t="n">
-        <v>158.5962103212356</v>
+        <v>155.7592678606411</v>
       </c>
       <c r="K38" t="n">
-        <v>237.6946074451744</v>
+        <v>233.4427660982109</v>
       </c>
       <c r="L38" t="n">
-        <v>294.8811789306869</v>
+        <v>289.6063937662484</v>
       </c>
       <c r="M38" t="n">
-        <v>315.1428903688449</v>
+        <v>322.242914243035</v>
       </c>
       <c r="N38" t="n">
-        <v>314.0044234194131</v>
+        <v>321.1044472936032</v>
       </c>
       <c r="O38" t="n">
-        <v>314.8403037660299</v>
+        <v>309.2084931177731</v>
       </c>
       <c r="P38" t="n">
-        <v>268.7089151764424</v>
+        <v>263.9022950846995</v>
       </c>
       <c r="Q38" t="n">
-        <v>201.7892046401547</v>
+        <v>198.1796331278612</v>
       </c>
       <c r="R38" t="n">
-        <v>117.3792744705084</v>
+        <v>115.279613658534</v>
       </c>
       <c r="S38" t="n">
-        <v>42.58102349307244</v>
+        <v>41.81934127305981</v>
       </c>
       <c r="T38" t="n">
-        <v>8.179854321049895</v>
+        <v>8.033534456294865</v>
       </c>
       <c r="U38" t="n">
-        <v>0.149489056695372</v>
+        <v>0.1468150214742636</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9997962087827871</v>
+        <v>0.9819120215699135</v>
       </c>
       <c r="H39" t="n">
-        <v>9.655926542717971</v>
+        <v>9.483202945162061</v>
       </c>
       <c r="I39" t="n">
-        <v>34.42280806554772</v>
+        <v>33.80705863738518</v>
       </c>
       <c r="J39" t="n">
-        <v>94.45881637451762</v>
+        <v>92.76915287998908</v>
       </c>
       <c r="K39" t="n">
-        <v>161.4451623629644</v>
+        <v>158.5572583251733</v>
       </c>
       <c r="L39" t="n">
-        <v>203.1568291630186</v>
+        <v>210.2568530372088</v>
       </c>
       <c r="M39" t="n">
-        <v>207.5240072164345</v>
+        <v>214.6240310906247</v>
       </c>
       <c r="N39" t="n">
-        <v>194.3573745732388</v>
+        <v>199.7919233078022</v>
       </c>
       <c r="O39" t="n">
-        <v>206.70929856565</v>
+        <v>215.1879279279845</v>
       </c>
       <c r="P39" t="n">
         <v>163.4487770454829</v>
       </c>
       <c r="Q39" t="n">
-        <v>127.6231090369046</v>
+        <v>125.3402082270647</v>
       </c>
       <c r="R39" t="n">
-        <v>62.07506636635588</v>
+        <v>60.9646779708057</v>
       </c>
       <c r="S39" t="n">
-        <v>18.57077607103114</v>
+        <v>18.23858513749378</v>
       </c>
       <c r="T39" t="n">
-        <v>4.029880332769215</v>
+        <v>3.957794507994518</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06577606636728865</v>
+        <v>0.0645994751032838</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.838195556112115</v>
+        <v>0.8232020543216271</v>
       </c>
       <c r="H40" t="n">
-        <v>7.45232048979681</v>
+        <v>7.319014628423199</v>
       </c>
       <c r="I40" t="n">
-        <v>25.20682636017161</v>
+        <v>24.75593086996312</v>
       </c>
       <c r="J40" t="n">
-        <v>59.26042581712653</v>
+        <v>58.20038524053903</v>
       </c>
       <c r="K40" t="n">
-        <v>97.38308370102571</v>
+        <v>95.64111140209447</v>
       </c>
       <c r="L40" t="n">
-        <v>124.6168193150685</v>
+        <v>122.3876945125081</v>
       </c>
       <c r="M40" t="n">
-        <v>131.3909634003745</v>
+        <v>129.0406638424347</v>
       </c>
       <c r="N40" t="n">
-        <v>128.2667799639567</v>
+        <v>125.9723652763269</v>
       </c>
       <c r="O40" t="n">
-        <v>118.475131876647</v>
+        <v>116.3558685508424</v>
       </c>
       <c r="P40" t="n">
-        <v>101.3759425319598</v>
+        <v>99.56254664268111</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.18744788498812</v>
+        <v>68.93194656687734</v>
       </c>
       <c r="R40" t="n">
-        <v>37.68832018664109</v>
+        <v>37.01415782431606</v>
       </c>
       <c r="S40" t="n">
-        <v>14.60746255515385</v>
+        <v>14.34616671031417</v>
       </c>
       <c r="T40" t="n">
-        <v>3.581381012479036</v>
+        <v>3.517317868465133</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04571975760611541</v>
+        <v>0.04490193023572517</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.868613208692151</v>
+        <v>1.835187768428295</v>
       </c>
       <c r="H41" t="n">
-        <v>19.1369350235185</v>
+        <v>18.79461673341628</v>
       </c>
       <c r="I41" t="n">
-        <v>72.03971072810423</v>
+        <v>70.75107644233191</v>
       </c>
       <c r="J41" t="n">
-        <v>158.5962103212356</v>
+        <v>155.7592678606411</v>
       </c>
       <c r="K41" t="n">
-        <v>237.6946074451744</v>
+        <v>233.4427660982109</v>
       </c>
       <c r="L41" t="n">
-        <v>294.8811789306869</v>
+        <v>289.6063937662484</v>
       </c>
       <c r="M41" t="n">
-        <v>315.1428903688449</v>
+        <v>309.511079720588</v>
       </c>
       <c r="N41" t="n">
-        <v>314.0044234194131</v>
+        <v>308.3726127711562</v>
       </c>
       <c r="O41" t="n">
-        <v>314.8403037660299</v>
+        <v>309.2084931177731</v>
       </c>
       <c r="P41" t="n">
-        <v>268.7089151764424</v>
+        <v>263.9022950846995</v>
       </c>
       <c r="Q41" t="n">
-        <v>201.7892046401547</v>
+        <v>198.1796331278612</v>
       </c>
       <c r="R41" t="n">
-        <v>117.3792744705084</v>
+        <v>115.279613658534</v>
       </c>
       <c r="S41" t="n">
-        <v>42.58102349307244</v>
+        <v>41.81934127305981</v>
       </c>
       <c r="T41" t="n">
-        <v>8.179854321049895</v>
+        <v>8.033534456294865</v>
       </c>
       <c r="U41" t="n">
-        <v>0.149489056695372</v>
+        <v>0.1468150214742636</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9997962087827871</v>
+        <v>0.9819120215699135</v>
       </c>
       <c r="H42" t="n">
-        <v>9.655926542717971</v>
+        <v>9.483202945162061</v>
       </c>
       <c r="I42" t="n">
-        <v>34.42280806554772</v>
+        <v>33.80705863738518</v>
       </c>
       <c r="J42" t="n">
-        <v>94.45881637451762</v>
+        <v>92.76915287998908</v>
       </c>
       <c r="K42" t="n">
-        <v>161.4451623629644</v>
+        <v>158.5572583251733</v>
       </c>
       <c r="L42" t="n">
-        <v>203.1568291630186</v>
+        <v>197.5250185147618</v>
       </c>
       <c r="M42" t="n">
-        <v>207.5240072164345</v>
+        <v>201.8921965681777</v>
       </c>
       <c r="N42" t="n">
-        <v>194.3573745732388</v>
+        <v>188.725563924982</v>
       </c>
       <c r="O42" t="n">
-        <v>179.2408504445321</v>
+        <v>201.3050358223732</v>
       </c>
       <c r="P42" t="n">
-        <v>190.9172251666008</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q42" t="n">
-        <v>127.6231090369046</v>
+        <v>125.3402082270647</v>
       </c>
       <c r="R42" t="n">
-        <v>62.07506636635588</v>
+        <v>60.9646779708057</v>
       </c>
       <c r="S42" t="n">
-        <v>18.57077607103114</v>
+        <v>18.23858513749378</v>
       </c>
       <c r="T42" t="n">
-        <v>4.029880332769215</v>
+        <v>3.957794507994518</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06577606636728865</v>
+        <v>0.0645994751032838</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.838195556112115</v>
+        <v>0.8232020543216271</v>
       </c>
       <c r="H43" t="n">
-        <v>7.45232048979681</v>
+        <v>7.319014628423199</v>
       </c>
       <c r="I43" t="n">
-        <v>25.20682636017161</v>
+        <v>24.75593086996312</v>
       </c>
       <c r="J43" t="n">
-        <v>59.26042581712653</v>
+        <v>58.20038524053903</v>
       </c>
       <c r="K43" t="n">
-        <v>97.38308370102571</v>
+        <v>95.64111140209447</v>
       </c>
       <c r="L43" t="n">
-        <v>124.6168193150685</v>
+        <v>122.3876945125081</v>
       </c>
       <c r="M43" t="n">
-        <v>131.3909634003745</v>
+        <v>129.0406638424347</v>
       </c>
       <c r="N43" t="n">
-        <v>128.2667799639567</v>
+        <v>125.9723652763269</v>
       </c>
       <c r="O43" t="n">
-        <v>118.475131876647</v>
+        <v>116.3558685508424</v>
       </c>
       <c r="P43" t="n">
-        <v>101.3759425319598</v>
+        <v>99.56254664268111</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.18744788498812</v>
+        <v>68.93194656687734</v>
       </c>
       <c r="R43" t="n">
-        <v>37.68832018664109</v>
+        <v>37.01415782431606</v>
       </c>
       <c r="S43" t="n">
-        <v>14.60746255515385</v>
+        <v>14.34616671031417</v>
       </c>
       <c r="T43" t="n">
-        <v>3.581381012479036</v>
+        <v>3.517317868465133</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04571975760611541</v>
+        <v>0.04490193023572517</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.868613208692151</v>
+        <v>1.835187768428295</v>
       </c>
       <c r="H44" t="n">
-        <v>19.1369350235185</v>
+        <v>18.79461673341628</v>
       </c>
       <c r="I44" t="n">
-        <v>72.03971072810423</v>
+        <v>70.75107644233191</v>
       </c>
       <c r="J44" t="n">
-        <v>158.5962103212356</v>
+        <v>155.7592678606411</v>
       </c>
       <c r="K44" t="n">
-        <v>237.6946074451744</v>
+        <v>233.4427660982109</v>
       </c>
       <c r="L44" t="n">
-        <v>294.8811789306869</v>
+        <v>289.6063937662484</v>
       </c>
       <c r="M44" t="n">
-        <v>315.1428903688449</v>
+        <v>309.511079720588</v>
       </c>
       <c r="N44" t="n">
-        <v>314.0044234194131</v>
+        <v>308.3726127711562</v>
       </c>
       <c r="O44" t="n">
-        <v>314.8403037660299</v>
+        <v>309.2084931177731</v>
       </c>
       <c r="P44" t="n">
-        <v>268.7089151764424</v>
+        <v>263.9022950846995</v>
       </c>
       <c r="Q44" t="n">
-        <v>201.7892046401547</v>
+        <v>198.1796331278612</v>
       </c>
       <c r="R44" t="n">
-        <v>117.3792744705084</v>
+        <v>115.279613658534</v>
       </c>
       <c r="S44" t="n">
-        <v>42.58102349307244</v>
+        <v>41.81934127305981</v>
       </c>
       <c r="T44" t="n">
-        <v>8.179854321049895</v>
+        <v>8.033534456294865</v>
       </c>
       <c r="U44" t="n">
-        <v>0.149489056695372</v>
+        <v>0.1468150214742636</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9997962087827871</v>
+        <v>0.9819120215699135</v>
       </c>
       <c r="H45" t="n">
-        <v>9.655926542717971</v>
+        <v>9.483202945162061</v>
       </c>
       <c r="I45" t="n">
-        <v>34.42280806554772</v>
+        <v>33.80705863738518</v>
       </c>
       <c r="J45" t="n">
-        <v>94.45881637451762</v>
+        <v>92.76915287998908</v>
       </c>
       <c r="K45" t="n">
-        <v>161.4451623629644</v>
+        <v>158.5572583251733</v>
       </c>
       <c r="L45" t="n">
-        <v>203.1568291630186</v>
+        <v>172.3206081739625</v>
       </c>
       <c r="M45" t="n">
-        <v>178.6769536071722</v>
+        <v>201.8921965681777</v>
       </c>
       <c r="N45" t="n">
-        <v>194.3573745732388</v>
+        <v>188.725563924982</v>
       </c>
       <c r="O45" t="n">
-        <v>208.0879040537943</v>
+        <v>202.4560934055375</v>
       </c>
       <c r="P45" t="n">
-        <v>190.9172251666008</v>
+        <v>187.502129803118</v>
       </c>
       <c r="Q45" t="n">
-        <v>127.6231090369046</v>
+        <v>125.3402082270647</v>
       </c>
       <c r="R45" t="n">
-        <v>62.07506636635588</v>
+        <v>60.9646779708057</v>
       </c>
       <c r="S45" t="n">
-        <v>18.57077607103114</v>
+        <v>18.23858513749378</v>
       </c>
       <c r="T45" t="n">
-        <v>4.029880332769215</v>
+        <v>3.957794507994518</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06577606636728865</v>
+        <v>0.0645994751032838</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.838195556112115</v>
+        <v>0.8232020543216271</v>
       </c>
       <c r="H46" t="n">
-        <v>7.45232048979681</v>
+        <v>7.319014628423199</v>
       </c>
       <c r="I46" t="n">
-        <v>25.20682636017161</v>
+        <v>24.75593086996312</v>
       </c>
       <c r="J46" t="n">
-        <v>59.26042581712653</v>
+        <v>58.20038524053903</v>
       </c>
       <c r="K46" t="n">
-        <v>97.38308370102571</v>
+        <v>95.64111140209447</v>
       </c>
       <c r="L46" t="n">
-        <v>124.6168193150685</v>
+        <v>122.3876945125081</v>
       </c>
       <c r="M46" t="n">
-        <v>131.3909634003745</v>
+        <v>129.0406638424347</v>
       </c>
       <c r="N46" t="n">
-        <v>128.2667799639567</v>
+        <v>125.9723652763269</v>
       </c>
       <c r="O46" t="n">
-        <v>118.475131876647</v>
+        <v>116.3558685508424</v>
       </c>
       <c r="P46" t="n">
-        <v>101.3759425319598</v>
+        <v>99.56254664268111</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.18744788498812</v>
+        <v>68.93194656687734</v>
       </c>
       <c r="R46" t="n">
-        <v>37.68832018664109</v>
+        <v>37.01415782431606</v>
       </c>
       <c r="S46" t="n">
-        <v>14.60746255515385</v>
+        <v>14.34616671031417</v>
       </c>
       <c r="T46" t="n">
-        <v>3.581381012479036</v>
+        <v>3.517317868465133</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04571975760611541</v>
+        <v>0.04490193023572517</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35892,13 +35892,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>12.731834522447</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>12.731834522447</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>12.731834522447</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>12.731834522447</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>12.731834522447</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>12.731834522447</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>12.2174169659845</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36129,13 +36129,13 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>12.731834522447</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>12.731834522447</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>12.731834522447</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>12.731834522447</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>12.731834522447</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>12.731834522447</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>12.2174169659845</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36363,16 +36363,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>7.246152667302454</v>
+        <v>1.971367502863984</v>
       </c>
       <c r="M23" t="n">
-        <v>34.12048583157213</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="N23" t="n">
-        <v>34.12048583157213</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="O23" t="n">
-        <v>34.12048583157213</v>
+        <v>28.48867518331531</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>5.27343222230988</v>
+        <v>39.55503456613555</v>
       </c>
       <c r="M24" t="n">
-        <v>34.12048583157213</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="N24" t="n">
-        <v>34.12048583157213</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="O24" t="n">
-        <v>34.12048583157213</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="P24" t="n">
-        <v>27.46844812111792</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36600,16 +36600,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>7.246152667302454</v>
+        <v>1.971367502863984</v>
       </c>
       <c r="M26" t="n">
-        <v>34.12048583157213</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="N26" t="n">
-        <v>34.12048583157213</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="O26" t="n">
-        <v>34.12048583157213</v>
+        <v>28.48867518331531</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>34.12048583157213</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="M27" t="n">
-        <v>34.12048583157213</v>
+        <v>15.5016818085005</v>
       </c>
       <c r="N27" t="n">
-        <v>34.12048583157213</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="O27" t="n">
-        <v>32.7418803434278</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>24.05335275763505</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36837,16 +36837,16 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>7.246152667302454</v>
+        <v>1.971367502863984</v>
       </c>
       <c r="M29" t="n">
-        <v>34.12048583157213</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="N29" t="n">
-        <v>34.12048583157213</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="O29" t="n">
-        <v>34.12048583157213</v>
+        <v>28.48867518331531</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>34.12048583157213</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="M30" t="n">
-        <v>34.12048583157213</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="N30" t="n">
-        <v>5.273432222309889</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="O30" t="n">
-        <v>34.12048583157213</v>
+        <v>15.50168180850051</v>
       </c>
       <c r="P30" t="n">
-        <v>27.46844812111792</v>
+        <v>24.05335275763505</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37074,16 +37074,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>7.246152667302454</v>
+        <v>1.971367502863984</v>
       </c>
       <c r="M32" t="n">
-        <v>34.12048583157213</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="N32" t="n">
-        <v>34.12048583157213</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="O32" t="n">
-        <v>34.12048583157213</v>
+        <v>28.48867518331531</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>34.12048583157213</v>
+        <v>39.55503456613555</v>
       </c>
       <c r="M33" t="n">
-        <v>34.12048583157213</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="N33" t="n">
-        <v>34.12048583157213</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="O33" t="n">
-        <v>5.273432222309889</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="P33" t="n">
-        <v>27.46844812111792</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37311,16 +37311,16 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>7.246152667302454</v>
+        <v>1.971367502863984</v>
       </c>
       <c r="M35" t="n">
-        <v>34.12048583157213</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="N35" t="n">
-        <v>34.12048583157213</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="O35" t="n">
-        <v>34.12048583157213</v>
+        <v>28.48867518331531</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>34.12048583157213</v>
+        <v>15.50168180850051</v>
       </c>
       <c r="M36" t="n">
-        <v>5.273432222309882</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="N36" t="n">
-        <v>34.12048583157213</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="O36" t="n">
-        <v>34.12048583157213</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="P36" t="n">
-        <v>27.46844812111792</v>
+        <v>24.05335275763505</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37548,16 +37548,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>7.246152667302454</v>
+        <v>1.971367502863984</v>
       </c>
       <c r="M38" t="n">
-        <v>34.12048583157213</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="N38" t="n">
-        <v>34.12048583157213</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="O38" t="n">
-        <v>34.12048583157213</v>
+        <v>28.48867518331531</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37627,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>34.12048583157213</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="M39" t="n">
-        <v>34.12048583157213</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="N39" t="n">
-        <v>34.12048583157213</v>
+        <v>39.55503456613555</v>
       </c>
       <c r="O39" t="n">
-        <v>32.7418803434278</v>
+        <v>41.22050970576231</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37785,16 +37785,16 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>7.246152667302454</v>
+        <v>1.971367502863984</v>
       </c>
       <c r="M41" t="n">
-        <v>34.12048583157213</v>
+        <v>28.48867518331531</v>
       </c>
       <c r="N41" t="n">
-        <v>34.12048583157213</v>
+        <v>28.48867518331531</v>
       </c>
       <c r="O41" t="n">
-        <v>34.12048583157213</v>
+        <v>28.48867518331531</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>34.12048583157213</v>
+        <v>28.48867518331531</v>
       </c>
       <c r="M42" t="n">
-        <v>34.12048583157213</v>
+        <v>28.48867518331531</v>
       </c>
       <c r="N42" t="n">
-        <v>34.12048583157213</v>
+        <v>28.48867518331531</v>
       </c>
       <c r="O42" t="n">
-        <v>5.273432222309889</v>
+        <v>27.33761760015105</v>
       </c>
       <c r="P42" t="n">
-        <v>27.46844812111792</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38022,16 +38022,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>7.246152667302454</v>
+        <v>1.971367502863984</v>
       </c>
       <c r="M44" t="n">
-        <v>34.12048583157213</v>
+        <v>28.48867518331531</v>
       </c>
       <c r="N44" t="n">
-        <v>34.12048583157213</v>
+        <v>28.48867518331531</v>
       </c>
       <c r="O44" t="n">
-        <v>34.12048583157213</v>
+        <v>28.48867518331531</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>34.12048583157213</v>
+        <v>3.284264842516</v>
       </c>
       <c r="M45" t="n">
-        <v>5.273432222309882</v>
+        <v>28.48867518331531</v>
       </c>
       <c r="N45" t="n">
-        <v>34.12048583157213</v>
+        <v>28.48867518331531</v>
       </c>
       <c r="O45" t="n">
-        <v>34.12048583157213</v>
+        <v>28.48867518331531</v>
       </c>
       <c r="P45" t="n">
-        <v>27.46844812111792</v>
+        <v>24.05335275763505</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
